--- a/Табели/!Табель не работающих АСДУ.xlsx
+++ b/Табели/!Табель не работающих АСДУ.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="1">
   <si>
     <t>х</t>
   </si>
@@ -395,7 +395,7 @@
   <dimension ref="A1:AF14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="X8" sqref="X8"/>
+      <selection activeCell="Y8" sqref="Y8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -578,7 +578,9 @@
       <c r="X4" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="Y4" s="3"/>
+      <c r="Y4" s="3" t="s">
+        <v>0</v>
+      </c>
       <c r="Z4" s="3"/>
       <c r="AA4" s="3"/>
       <c r="AB4" s="3"/>
@@ -622,7 +624,9 @@
       <c r="X5" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="Y5" s="3"/>
+      <c r="Y5" s="3" t="s">
+        <v>0</v>
+      </c>
       <c r="Z5" s="3"/>
       <c r="AA5" s="3"/>
       <c r="AB5" s="3"/>
@@ -840,7 +844,9 @@
       <c r="X10" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="Y10" s="3"/>
+      <c r="Y10" s="3" t="s">
+        <v>0</v>
+      </c>
       <c r="Z10" s="3"/>
       <c r="AA10" s="3"/>
       <c r="AB10" s="3"/>
@@ -888,7 +894,9 @@
       <c r="X11" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="Y11" s="3"/>
+      <c r="Y11" s="3" t="s">
+        <v>0</v>
+      </c>
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
@@ -936,7 +944,9 @@
       <c r="X12" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="Y12" s="3"/>
+      <c r="Y12" s="3" t="s">
+        <v>0</v>
+      </c>
       <c r="Z12" s="3"/>
       <c r="AA12" s="3"/>
       <c r="AB12" s="3"/>
@@ -982,7 +992,9 @@
       <c r="X13" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="Y13" s="3"/>
+      <c r="Y13" s="3" t="s">
+        <v>0</v>
+      </c>
       <c r="Z13" s="3"/>
       <c r="AA13" s="3"/>
       <c r="AB13" s="3"/>
@@ -1030,7 +1042,9 @@
       <c r="X14" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="Y14" s="3"/>
+      <c r="Y14" s="3" t="s">
+        <v>0</v>
+      </c>
       <c r="Z14" s="3"/>
       <c r="AA14" s="3"/>
       <c r="AB14" s="3"/>

--- a/Табели/!Табель не работающих АСДУ.xlsx
+++ b/Табели/!Табель не работающих АСДУ.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="1">
   <si>
     <t>х</t>
   </si>
@@ -392,10 +392,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AF14"/>
+  <dimension ref="A1:AF15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Y8" sqref="Y8"/>
+      <selection activeCell="Z16" sqref="Z16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -581,7 +581,9 @@
       <c r="Y4" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="Z4" s="3"/>
+      <c r="Z4" s="3" t="s">
+        <v>0</v>
+      </c>
       <c r="AA4" s="3"/>
       <c r="AB4" s="3"/>
       <c r="AC4" s="3"/>
@@ -759,7 +761,9 @@
         <v>0</v>
       </c>
       <c r="Y8" s="3"/>
-      <c r="Z8" s="3"/>
+      <c r="Z8" s="3" t="s">
+        <v>0</v>
+      </c>
       <c r="AA8" s="3"/>
       <c r="AB8" s="3"/>
       <c r="AC8" s="3"/>
@@ -769,7 +773,7 @@
     </row>
     <row r="9" spans="1:32">
       <c r="A9" s="4">
-        <v>4309</v>
+        <v>4189</v>
       </c>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
@@ -791,13 +795,13 @@
       <c r="S9" s="3"/>
       <c r="T9" s="3"/>
       <c r="U9" s="3"/>
-      <c r="V9" s="3" t="s">
-        <v>0</v>
-      </c>
+      <c r="V9" s="3"/>
       <c r="W9" s="3"/>
       <c r="X9" s="3"/>
       <c r="Y9" s="3"/>
-      <c r="Z9" s="3"/>
+      <c r="Z9" s="3" t="s">
+        <v>0</v>
+      </c>
       <c r="AA9" s="3"/>
       <c r="AB9" s="3"/>
       <c r="AC9" s="3"/>
@@ -807,7 +811,7 @@
     </row>
     <row r="10" spans="1:32">
       <c r="A10" s="4">
-        <v>4729</v>
+        <v>4309</v>
       </c>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
@@ -826,27 +830,15 @@
       <c r="P10" s="3"/>
       <c r="Q10" s="3"/>
       <c r="R10" s="3"/>
-      <c r="S10" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="T10" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="U10" s="3" t="s">
-        <v>0</v>
-      </c>
+      <c r="S10" s="3"/>
+      <c r="T10" s="3"/>
+      <c r="U10" s="3"/>
       <c r="V10" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="W10" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="X10" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="Y10" s="3" t="s">
-        <v>0</v>
-      </c>
+      <c r="W10" s="3"/>
+      <c r="X10" s="3"/>
+      <c r="Y10" s="3"/>
       <c r="Z10" s="3"/>
       <c r="AA10" s="3"/>
       <c r="AB10" s="3"/>
@@ -857,7 +849,7 @@
     </row>
     <row r="11" spans="1:32">
       <c r="A11" s="4">
-        <v>4730</v>
+        <v>4729</v>
       </c>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
@@ -897,7 +889,9 @@
       <c r="Y11" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="Z11" s="3"/>
+      <c r="Z11" s="3" t="s">
+        <v>0</v>
+      </c>
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
@@ -907,7 +901,7 @@
     </row>
     <row r="12" spans="1:32">
       <c r="A12" s="4">
-        <v>4995</v>
+        <v>4730</v>
       </c>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
@@ -947,7 +941,9 @@
       <c r="Y12" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="Z12" s="3"/>
+      <c r="Z12" s="3" t="s">
+        <v>0</v>
+      </c>
       <c r="AA12" s="3"/>
       <c r="AB12" s="3"/>
       <c r="AC12" s="3"/>
@@ -957,7 +953,7 @@
     </row>
     <row r="13" spans="1:32">
       <c r="A13" s="4">
-        <v>6130</v>
+        <v>4995</v>
       </c>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
@@ -976,7 +972,9 @@
       <c r="P13" s="3"/>
       <c r="Q13" s="3"/>
       <c r="R13" s="3"/>
-      <c r="S13" s="3"/>
+      <c r="S13" s="3" t="s">
+        <v>0</v>
+      </c>
       <c r="T13" s="3" t="s">
         <v>0</v>
       </c>
@@ -995,7 +993,9 @@
       <c r="Y13" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="Z13" s="3"/>
+      <c r="Z13" s="3" t="s">
+        <v>0</v>
+      </c>
       <c r="AA13" s="3"/>
       <c r="AB13" s="3"/>
       <c r="AC13" s="3"/>
@@ -1005,7 +1005,7 @@
     </row>
     <row r="14" spans="1:32">
       <c r="A14" s="4">
-        <v>7540</v>
+        <v>6130</v>
       </c>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
@@ -1024,9 +1024,7 @@
       <c r="P14" s="3"/>
       <c r="Q14" s="3"/>
       <c r="R14" s="3"/>
-      <c r="S14" s="3" t="s">
-        <v>0</v>
-      </c>
+      <c r="S14" s="3"/>
       <c r="T14" s="3" t="s">
         <v>0</v>
       </c>
@@ -1045,13 +1043,67 @@
       <c r="Y14" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="Z14" s="3"/>
+      <c r="Z14" s="3" t="s">
+        <v>0</v>
+      </c>
       <c r="AA14" s="3"/>
       <c r="AB14" s="3"/>
       <c r="AC14" s="3"/>
       <c r="AD14" s="3"/>
       <c r="AE14" s="3"/>
       <c r="AF14" s="3"/>
+    </row>
+    <row r="15" spans="1:32">
+      <c r="A15" s="4">
+        <v>7540</v>
+      </c>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+      <c r="K15" s="3"/>
+      <c r="L15" s="3"/>
+      <c r="M15" s="3"/>
+      <c r="N15" s="3"/>
+      <c r="O15" s="3"/>
+      <c r="P15" s="3"/>
+      <c r="Q15" s="3"/>
+      <c r="R15" s="3"/>
+      <c r="S15" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="T15" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="U15" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="V15" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="W15" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="X15" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y15" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z15" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA15" s="3"/>
+      <c r="AB15" s="3"/>
+      <c r="AC15" s="3"/>
+      <c r="AD15" s="3"/>
+      <c r="AE15" s="3"/>
+      <c r="AF15" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/Табели/!Табель не работающих АСДУ.xlsx
+++ b/Табели/!Табель не работающих АСДУ.xlsx
@@ -9,12 +9,12 @@
   <sheets>
     <sheet name="Октябрь 2018" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="125725" iterate="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="1">
   <si>
     <t>х</t>
   </si>
@@ -392,10 +392,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AF15"/>
+  <dimension ref="A1:AF16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Z16" sqref="Z16"/>
+      <selection activeCell="AC15" sqref="AC15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -584,9 +584,15 @@
       <c r="Z4" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="AA4" s="3"/>
-      <c r="AB4" s="3"/>
-      <c r="AC4" s="3"/>
+      <c r="AA4" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="AB4" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC4" s="3" t="s">
+        <v>0</v>
+      </c>
       <c r="AD4" s="3"/>
       <c r="AE4" s="3"/>
       <c r="AF4" s="3"/>
@@ -631,15 +637,19 @@
       </c>
       <c r="Z5" s="3"/>
       <c r="AA5" s="3"/>
-      <c r="AB5" s="3"/>
-      <c r="AC5" s="3"/>
+      <c r="AB5" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC5" s="3" t="s">
+        <v>0</v>
+      </c>
       <c r="AD5" s="3"/>
       <c r="AE5" s="3"/>
       <c r="AF5" s="3"/>
     </row>
     <row r="6" spans="1:32">
       <c r="A6" s="4">
-        <v>1291</v>
+        <v>1276</v>
       </c>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
@@ -659,33 +669,29 @@
       <c r="Q6" s="3"/>
       <c r="R6" s="3"/>
       <c r="S6" s="3"/>
-      <c r="T6" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="U6" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="V6" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="W6" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="X6" s="3" t="s">
-        <v>0</v>
-      </c>
+      <c r="T6" s="3"/>
+      <c r="U6" s="3"/>
+      <c r="V6" s="3"/>
+      <c r="W6" s="3"/>
+      <c r="X6" s="3"/>
       <c r="Y6" s="3"/>
       <c r="Z6" s="3"/>
-      <c r="AA6" s="3"/>
-      <c r="AB6" s="3"/>
-      <c r="AC6" s="3"/>
+      <c r="AA6" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="AB6" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC6" s="3" t="s">
+        <v>0</v>
+      </c>
       <c r="AD6" s="3"/>
       <c r="AE6" s="3"/>
       <c r="AF6" s="3"/>
     </row>
     <row r="7" spans="1:32">
       <c r="A7" s="4">
-        <v>2831</v>
+        <v>1291</v>
       </c>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
@@ -708,14 +714,24 @@
       <c r="T7" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="U7" s="3"/>
-      <c r="V7" s="3"/>
-      <c r="W7" s="3"/>
-      <c r="X7" s="3"/>
+      <c r="U7" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="V7" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="W7" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="X7" s="3" t="s">
+        <v>0</v>
+      </c>
       <c r="Y7" s="3"/>
       <c r="Z7" s="3"/>
       <c r="AA7" s="3"/>
-      <c r="AB7" s="3"/>
+      <c r="AB7" s="3" t="s">
+        <v>0</v>
+      </c>
       <c r="AC7" s="3"/>
       <c r="AD7" s="3"/>
       <c r="AE7" s="3"/>
@@ -723,7 +739,7 @@
     </row>
     <row r="8" spans="1:32">
       <c r="A8" s="4">
-        <v>2963</v>
+        <v>2831</v>
       </c>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
@@ -742,28 +758,16 @@
       <c r="P8" s="3"/>
       <c r="Q8" s="3"/>
       <c r="R8" s="3"/>
-      <c r="S8" s="3" t="s">
-        <v>0</v>
-      </c>
+      <c r="S8" s="3"/>
       <c r="T8" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="U8" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="V8" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="W8" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="X8" s="3" t="s">
-        <v>0</v>
-      </c>
+      <c r="U8" s="3"/>
+      <c r="V8" s="3"/>
+      <c r="W8" s="3"/>
+      <c r="X8" s="3"/>
       <c r="Y8" s="3"/>
-      <c r="Z8" s="3" t="s">
-        <v>0</v>
-      </c>
+      <c r="Z8" s="3"/>
       <c r="AA8" s="3"/>
       <c r="AB8" s="3"/>
       <c r="AC8" s="3"/>
@@ -773,7 +777,7 @@
     </row>
     <row r="9" spans="1:32">
       <c r="A9" s="4">
-        <v>4189</v>
+        <v>2963</v>
       </c>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
@@ -792,12 +796,24 @@
       <c r="P9" s="3"/>
       <c r="Q9" s="3"/>
       <c r="R9" s="3"/>
-      <c r="S9" s="3"/>
-      <c r="T9" s="3"/>
-      <c r="U9" s="3"/>
-      <c r="V9" s="3"/>
-      <c r="W9" s="3"/>
-      <c r="X9" s="3"/>
+      <c r="S9" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="T9" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="U9" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="V9" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="W9" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="X9" s="3" t="s">
+        <v>0</v>
+      </c>
       <c r="Y9" s="3"/>
       <c r="Z9" s="3" t="s">
         <v>0</v>
@@ -811,7 +827,7 @@
     </row>
     <row r="10" spans="1:32">
       <c r="A10" s="4">
-        <v>4309</v>
+        <v>4189</v>
       </c>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
@@ -833,23 +849,25 @@
       <c r="S10" s="3"/>
       <c r="T10" s="3"/>
       <c r="U10" s="3"/>
-      <c r="V10" s="3" t="s">
-        <v>0</v>
-      </c>
+      <c r="V10" s="3"/>
       <c r="W10" s="3"/>
       <c r="X10" s="3"/>
       <c r="Y10" s="3"/>
-      <c r="Z10" s="3"/>
+      <c r="Z10" s="3" t="s">
+        <v>0</v>
+      </c>
       <c r="AA10" s="3"/>
       <c r="AB10" s="3"/>
-      <c r="AC10" s="3"/>
+      <c r="AC10" s="3" t="s">
+        <v>0</v>
+      </c>
       <c r="AD10" s="3"/>
       <c r="AE10" s="3"/>
       <c r="AF10" s="3"/>
     </row>
     <row r="11" spans="1:32">
       <c r="A11" s="4">
-        <v>4729</v>
+        <v>4309</v>
       </c>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
@@ -868,30 +886,16 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-      <c r="S11" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="T11" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="U11" s="3" t="s">
-        <v>0</v>
-      </c>
+      <c r="S11" s="3"/>
+      <c r="T11" s="3"/>
+      <c r="U11" s="3"/>
       <c r="V11" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="W11" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="X11" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="Y11" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="Z11" s="3" t="s">
-        <v>0</v>
-      </c>
+      <c r="W11" s="3"/>
+      <c r="X11" s="3"/>
+      <c r="Y11" s="3"/>
+      <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
@@ -901,7 +905,7 @@
     </row>
     <row r="12" spans="1:32">
       <c r="A12" s="4">
-        <v>4730</v>
+        <v>4729</v>
       </c>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
@@ -944,16 +948,22 @@
       <c r="Z12" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="AA12" s="3"/>
-      <c r="AB12" s="3"/>
-      <c r="AC12" s="3"/>
+      <c r="AA12" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="AB12" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC12" s="3" t="s">
+        <v>0</v>
+      </c>
       <c r="AD12" s="3"/>
       <c r="AE12" s="3"/>
       <c r="AF12" s="3"/>
     </row>
     <row r="13" spans="1:32">
       <c r="A13" s="4">
-        <v>4995</v>
+        <v>4730</v>
       </c>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
@@ -996,16 +1006,22 @@
       <c r="Z13" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="AA13" s="3"/>
-      <c r="AB13" s="3"/>
-      <c r="AC13" s="3"/>
+      <c r="AA13" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="AB13" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC13" s="3" t="s">
+        <v>0</v>
+      </c>
       <c r="AD13" s="3"/>
       <c r="AE13" s="3"/>
       <c r="AF13" s="3"/>
     </row>
     <row r="14" spans="1:32">
       <c r="A14" s="4">
-        <v>6130</v>
+        <v>4995</v>
       </c>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
@@ -1024,7 +1040,9 @@
       <c r="P14" s="3"/>
       <c r="Q14" s="3"/>
       <c r="R14" s="3"/>
-      <c r="S14" s="3"/>
+      <c r="S14" s="3" t="s">
+        <v>0</v>
+      </c>
       <c r="T14" s="3" t="s">
         <v>0</v>
       </c>
@@ -1046,16 +1064,22 @@
       <c r="Z14" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="AA14" s="3"/>
-      <c r="AB14" s="3"/>
-      <c r="AC14" s="3"/>
+      <c r="AA14" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="AB14" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC14" s="3" t="s">
+        <v>0</v>
+      </c>
       <c r="AD14" s="3"/>
       <c r="AE14" s="3"/>
       <c r="AF14" s="3"/>
     </row>
     <row r="15" spans="1:32">
       <c r="A15" s="4">
-        <v>7540</v>
+        <v>6130</v>
       </c>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
@@ -1074,9 +1098,7 @@
       <c r="P15" s="3"/>
       <c r="Q15" s="3"/>
       <c r="R15" s="3"/>
-      <c r="S15" s="3" t="s">
-        <v>0</v>
-      </c>
+      <c r="S15" s="3"/>
       <c r="T15" s="3" t="s">
         <v>0</v>
       </c>
@@ -1098,12 +1120,70 @@
       <c r="Z15" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="AA15" s="3"/>
-      <c r="AB15" s="3"/>
-      <c r="AC15" s="3"/>
+      <c r="AA15" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="AB15" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC15" s="3" t="s">
+        <v>0</v>
+      </c>
       <c r="AD15" s="3"/>
       <c r="AE15" s="3"/>
       <c r="AF15" s="3"/>
+    </row>
+    <row r="16" spans="1:32">
+      <c r="A16" s="4">
+        <v>7540</v>
+      </c>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+      <c r="K16" s="3"/>
+      <c r="L16" s="3"/>
+      <c r="M16" s="3"/>
+      <c r="N16" s="3"/>
+      <c r="O16" s="3"/>
+      <c r="P16" s="3"/>
+      <c r="Q16" s="3"/>
+      <c r="R16" s="3"/>
+      <c r="S16" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="T16" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="U16" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="V16" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="W16" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="X16" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y16" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z16" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA16" s="3"/>
+      <c r="AB16" s="3"/>
+      <c r="AC16" s="3"/>
+      <c r="AD16" s="3"/>
+      <c r="AE16" s="3"/>
+      <c r="AF16" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/Табели/!Табель не работающих АСДУ.xlsx
+++ b/Табели/!Табель не работающих АСДУ.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="1">
   <si>
     <t>х</t>
   </si>
@@ -395,7 +395,7 @@
   <dimension ref="A1:AF16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AC15" sqref="AC15"/>
+      <selection activeCell="AD16" sqref="AD16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -593,7 +593,9 @@
       <c r="AC4" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="AD4" s="3"/>
+      <c r="AD4" s="3" t="s">
+        <v>0</v>
+      </c>
       <c r="AE4" s="3"/>
       <c r="AF4" s="3"/>
     </row>
@@ -685,7 +687,9 @@
       <c r="AC6" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="AD6" s="3"/>
+      <c r="AD6" s="3" t="s">
+        <v>0</v>
+      </c>
       <c r="AE6" s="3"/>
       <c r="AF6" s="3"/>
     </row>
@@ -957,7 +961,9 @@
       <c r="AC12" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="AD12" s="3"/>
+      <c r="AD12" s="3" t="s">
+        <v>0</v>
+      </c>
       <c r="AE12" s="3"/>
       <c r="AF12" s="3"/>
     </row>
@@ -1015,7 +1021,9 @@
       <c r="AC13" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="AD13" s="3"/>
+      <c r="AD13" s="3" t="s">
+        <v>0</v>
+      </c>
       <c r="AE13" s="3"/>
       <c r="AF13" s="3"/>
     </row>
@@ -1073,7 +1081,9 @@
       <c r="AC14" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="AD14" s="3"/>
+      <c r="AD14" s="3" t="s">
+        <v>0</v>
+      </c>
       <c r="AE14" s="3"/>
       <c r="AF14" s="3"/>
     </row>
@@ -1129,7 +1139,9 @@
       <c r="AC15" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="AD15" s="3"/>
+      <c r="AD15" s="3" t="s">
+        <v>0</v>
+      </c>
       <c r="AE15" s="3"/>
       <c r="AF15" s="3"/>
     </row>

--- a/Табели/!Табель не работающих АСДУ.xlsx
+++ b/Табели/!Табель не работающих АСДУ.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="1">
   <si>
     <t>х</t>
   </si>
@@ -395,7 +395,7 @@
   <dimension ref="A1:AF16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AD16" sqref="AD16"/>
+      <selection activeCell="AE16" sqref="AE16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -596,7 +596,9 @@
       <c r="AD4" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="AE4" s="3"/>
+      <c r="AE4" s="3" t="s">
+        <v>0</v>
+      </c>
       <c r="AF4" s="3"/>
     </row>
     <row r="5" spans="1:32">
@@ -646,7 +648,9 @@
         <v>0</v>
       </c>
       <c r="AD5" s="3"/>
-      <c r="AE5" s="3"/>
+      <c r="AE5" s="3" t="s">
+        <v>0</v>
+      </c>
       <c r="AF5" s="3"/>
     </row>
     <row r="6" spans="1:32">
@@ -690,7 +694,9 @@
       <c r="AD6" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="AE6" s="3"/>
+      <c r="AE6" s="3" t="s">
+        <v>0</v>
+      </c>
       <c r="AF6" s="3"/>
     </row>
     <row r="7" spans="1:32">
@@ -964,7 +970,9 @@
       <c r="AD12" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="AE12" s="3"/>
+      <c r="AE12" s="3" t="s">
+        <v>0</v>
+      </c>
       <c r="AF12" s="3"/>
     </row>
     <row r="13" spans="1:32">
@@ -1084,7 +1092,9 @@
       <c r="AD14" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="AE14" s="3"/>
+      <c r="AE14" s="3" t="s">
+        <v>0</v>
+      </c>
       <c r="AF14" s="3"/>
     </row>
     <row r="15" spans="1:32">
@@ -1142,7 +1152,9 @@
       <c r="AD15" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="AE15" s="3"/>
+      <c r="AE15" s="3" t="s">
+        <v>0</v>
+      </c>
       <c r="AF15" s="3"/>
     </row>
     <row r="16" spans="1:32">

--- a/Табели/!Табель не работающих АСДУ.xlsx
+++ b/Табели/!Табель не работающих АСДУ.xlsx
@@ -4,25 +4,35 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="105" windowWidth="15120" windowHeight="8010"/>
+    <workbookView xWindow="120" yWindow="105" windowWidth="15120" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Октябрь 2018" sheetId="1" r:id="rId1"/>
+    <sheet name="Ноябрь 2018" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="125725" iterate="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="3">
   <si>
     <t>х</t>
+  </si>
+  <si>
+    <t>Всего</t>
+  </si>
+  <si>
+    <t>0593</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="#"/>
+  </numFmts>
   <fonts count="3">
     <font>
       <sz val="11"/>
@@ -83,7 +93,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -96,6 +106,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -392,10 +408,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AF16"/>
+  <dimension ref="A1:AF19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AE16" sqref="AE16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B1:R1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -540,8 +556,8 @@
       </c>
     </row>
     <row r="4" spans="1:32">
-      <c r="A4" s="4">
-        <v>1250</v>
+      <c r="A4" s="7" t="s">
+        <v>2</v>
       </c>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
@@ -560,50 +576,1008 @@
       <c r="P4" s="3"/>
       <c r="Q4" s="3"/>
       <c r="R4" s="3"/>
-      <c r="S4" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="T4" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="U4" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="V4" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="W4" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="X4" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="Y4" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="Z4" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="AA4" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="AB4" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="AC4" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="AD4" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="AE4" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="AF4" s="3"/>
+      <c r="S4" s="3"/>
+      <c r="T4" s="3"/>
+      <c r="U4" s="3"/>
+      <c r="V4" s="3"/>
+      <c r="W4" s="3"/>
+      <c r="X4" s="3"/>
+      <c r="Y4" s="3"/>
+      <c r="Z4" s="3"/>
+      <c r="AA4" s="3"/>
+      <c r="AB4" s="3"/>
+      <c r="AC4" s="3"/>
+      <c r="AD4" s="3"/>
+      <c r="AE4" s="3"/>
+      <c r="AF4" s="3" t="s">
+        <v>0</v>
+      </c>
     </row>
     <row r="5" spans="1:32">
       <c r="A5" s="4">
+        <v>1250</v>
+      </c>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="3"/>
+      <c r="M5" s="3"/>
+      <c r="N5" s="3"/>
+      <c r="O5" s="3"/>
+      <c r="P5" s="3"/>
+      <c r="Q5" s="3"/>
+      <c r="R5" s="3"/>
+      <c r="S5" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="T5" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="U5" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="V5" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="W5" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="X5" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y5" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z5" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA5" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="AB5" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC5" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD5" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="AE5" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="AF5" s="3"/>
+    </row>
+    <row r="6" spans="1:32">
+      <c r="A6" s="4">
         <v>1252</v>
+      </c>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
+      <c r="L6" s="3"/>
+      <c r="M6" s="3"/>
+      <c r="N6" s="3"/>
+      <c r="O6" s="3"/>
+      <c r="P6" s="3"/>
+      <c r="Q6" s="3"/>
+      <c r="R6" s="3"/>
+      <c r="S6" s="3"/>
+      <c r="T6" s="3"/>
+      <c r="U6" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="V6" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="W6" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="X6" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y6" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z6" s="3"/>
+      <c r="AA6" s="3"/>
+      <c r="AB6" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC6" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD6" s="3"/>
+      <c r="AE6" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="AF6" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:32">
+      <c r="A7" s="4">
+        <v>1276</v>
+      </c>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="3"/>
+      <c r="M7" s="3"/>
+      <c r="N7" s="3"/>
+      <c r="O7" s="3"/>
+      <c r="P7" s="3"/>
+      <c r="Q7" s="3"/>
+      <c r="R7" s="3"/>
+      <c r="S7" s="3"/>
+      <c r="T7" s="3"/>
+      <c r="U7" s="3"/>
+      <c r="V7" s="3"/>
+      <c r="W7" s="3"/>
+      <c r="X7" s="3"/>
+      <c r="Y7" s="3"/>
+      <c r="Z7" s="3"/>
+      <c r="AA7" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="AB7" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC7" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD7" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="AE7" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="AF7" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:32">
+      <c r="A8" s="4">
+        <v>1291</v>
+      </c>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3"/>
+      <c r="M8" s="3"/>
+      <c r="N8" s="3"/>
+      <c r="O8" s="3"/>
+      <c r="P8" s="3"/>
+      <c r="Q8" s="3"/>
+      <c r="R8" s="3"/>
+      <c r="S8" s="3"/>
+      <c r="T8" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="U8" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="V8" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="W8" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="X8" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y8" s="3"/>
+      <c r="Z8" s="3"/>
+      <c r="AA8" s="3"/>
+      <c r="AB8" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC8" s="3"/>
+      <c r="AD8" s="3"/>
+      <c r="AE8" s="3"/>
+      <c r="AF8" s="3"/>
+    </row>
+    <row r="9" spans="1:32">
+      <c r="A9" s="4">
+        <v>2831</v>
+      </c>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
+      <c r="L9" s="3"/>
+      <c r="M9" s="3"/>
+      <c r="N9" s="3"/>
+      <c r="O9" s="3"/>
+      <c r="P9" s="3"/>
+      <c r="Q9" s="3"/>
+      <c r="R9" s="3"/>
+      <c r="S9" s="3"/>
+      <c r="T9" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="U9" s="3"/>
+      <c r="V9" s="3"/>
+      <c r="W9" s="3"/>
+      <c r="X9" s="3"/>
+      <c r="Y9" s="3"/>
+      <c r="Z9" s="3"/>
+      <c r="AA9" s="3"/>
+      <c r="AB9" s="3"/>
+      <c r="AC9" s="3"/>
+      <c r="AD9" s="3"/>
+      <c r="AE9" s="3"/>
+      <c r="AF9" s="3"/>
+    </row>
+    <row r="10" spans="1:32">
+      <c r="A10" s="4">
+        <v>2963</v>
+      </c>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3"/>
+      <c r="L10" s="3"/>
+      <c r="M10" s="3"/>
+      <c r="N10" s="3"/>
+      <c r="O10" s="3"/>
+      <c r="P10" s="3"/>
+      <c r="Q10" s="3"/>
+      <c r="R10" s="3"/>
+      <c r="S10" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="T10" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="U10" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="V10" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="W10" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="X10" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y10" s="3"/>
+      <c r="Z10" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA10" s="3"/>
+      <c r="AB10" s="3"/>
+      <c r="AC10" s="3"/>
+      <c r="AD10" s="3"/>
+      <c r="AE10" s="3"/>
+      <c r="AF10" s="3"/>
+    </row>
+    <row r="11" spans="1:32">
+      <c r="A11" s="4">
+        <v>4189</v>
+      </c>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="K11" s="3"/>
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+      <c r="N11" s="3"/>
+      <c r="O11" s="3"/>
+      <c r="P11" s="3"/>
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3"/>
+      <c r="S11" s="3"/>
+      <c r="T11" s="3"/>
+      <c r="U11" s="3"/>
+      <c r="V11" s="3"/>
+      <c r="W11" s="3"/>
+      <c r="X11" s="3"/>
+      <c r="Y11" s="3"/>
+      <c r="Z11" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA11" s="3"/>
+      <c r="AB11" s="3"/>
+      <c r="AC11" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD11" s="3"/>
+      <c r="AE11" s="3"/>
+      <c r="AF11" s="3"/>
+    </row>
+    <row r="12" spans="1:32">
+      <c r="A12" s="4">
+        <v>4309</v>
+      </c>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="3"/>
+      <c r="L12" s="3"/>
+      <c r="M12" s="3"/>
+      <c r="N12" s="3"/>
+      <c r="O12" s="3"/>
+      <c r="P12" s="3"/>
+      <c r="Q12" s="3"/>
+      <c r="R12" s="3"/>
+      <c r="S12" s="3"/>
+      <c r="T12" s="3"/>
+      <c r="U12" s="3"/>
+      <c r="V12" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="W12" s="3"/>
+      <c r="X12" s="3"/>
+      <c r="Y12" s="3"/>
+      <c r="Z12" s="3"/>
+      <c r="AA12" s="3"/>
+      <c r="AB12" s="3"/>
+      <c r="AC12" s="3"/>
+      <c r="AD12" s="3"/>
+      <c r="AE12" s="3"/>
+      <c r="AF12" s="3"/>
+    </row>
+    <row r="13" spans="1:32">
+      <c r="A13" s="4">
+        <v>4729</v>
+      </c>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="K13" s="3"/>
+      <c r="L13" s="3"/>
+      <c r="M13" s="3"/>
+      <c r="N13" s="3"/>
+      <c r="O13" s="3"/>
+      <c r="P13" s="3"/>
+      <c r="Q13" s="3"/>
+      <c r="R13" s="3"/>
+      <c r="S13" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="T13" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="U13" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="V13" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="W13" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="X13" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y13" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z13" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA13" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="AB13" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC13" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD13" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="AE13" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="AF13" s="3"/>
+    </row>
+    <row r="14" spans="1:32">
+      <c r="A14" s="4">
+        <v>4730</v>
+      </c>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="K14" s="3"/>
+      <c r="L14" s="3"/>
+      <c r="M14" s="3"/>
+      <c r="N14" s="3"/>
+      <c r="O14" s="3"/>
+      <c r="P14" s="3"/>
+      <c r="Q14" s="3"/>
+      <c r="R14" s="3"/>
+      <c r="S14" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="T14" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="U14" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="V14" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="W14" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="X14" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y14" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z14" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA14" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="AB14" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC14" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD14" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="AE14" s="3"/>
+      <c r="AF14" s="3"/>
+    </row>
+    <row r="15" spans="1:32">
+      <c r="A15" s="4">
+        <v>4995</v>
+      </c>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+      <c r="K15" s="3"/>
+      <c r="L15" s="3"/>
+      <c r="M15" s="3"/>
+      <c r="N15" s="3"/>
+      <c r="O15" s="3"/>
+      <c r="P15" s="3"/>
+      <c r="Q15" s="3"/>
+      <c r="R15" s="3"/>
+      <c r="S15" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="T15" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="U15" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="V15" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="W15" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="X15" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y15" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z15" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA15" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="AB15" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC15" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD15" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="AE15" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="AF15" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:32">
+      <c r="A16" s="4">
+        <v>6130</v>
+      </c>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+      <c r="K16" s="3"/>
+      <c r="L16" s="3"/>
+      <c r="M16" s="3"/>
+      <c r="N16" s="3"/>
+      <c r="O16" s="3"/>
+      <c r="P16" s="3"/>
+      <c r="Q16" s="3"/>
+      <c r="R16" s="3"/>
+      <c r="S16" s="3"/>
+      <c r="T16" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="U16" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="V16" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="W16" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="X16" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y16" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z16" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA16" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="AB16" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC16" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD16" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="AE16" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="AF16" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:32">
+      <c r="A17" s="4">
+        <v>6982</v>
+      </c>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+      <c r="K17" s="3"/>
+      <c r="L17" s="3"/>
+      <c r="M17" s="3"/>
+      <c r="N17" s="3"/>
+      <c r="O17" s="3"/>
+      <c r="P17" s="3"/>
+      <c r="Q17" s="3"/>
+      <c r="R17" s="3"/>
+      <c r="S17" s="3"/>
+      <c r="T17" s="3"/>
+      <c r="U17" s="3"/>
+      <c r="V17" s="3"/>
+      <c r="W17" s="3"/>
+      <c r="X17" s="3"/>
+      <c r="Y17" s="3"/>
+      <c r="Z17" s="3"/>
+      <c r="AA17" s="3"/>
+      <c r="AB17" s="3"/>
+      <c r="AC17" s="3"/>
+      <c r="AD17" s="3"/>
+      <c r="AE17" s="3"/>
+      <c r="AF17" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:32">
+      <c r="A18" s="4">
+        <v>7540</v>
+      </c>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+      <c r="K18" s="3"/>
+      <c r="L18" s="3"/>
+      <c r="M18" s="3"/>
+      <c r="N18" s="3"/>
+      <c r="O18" s="3"/>
+      <c r="P18" s="3"/>
+      <c r="Q18" s="3"/>
+      <c r="R18" s="3"/>
+      <c r="S18" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="T18" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="U18" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="V18" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="W18" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="X18" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y18" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z18" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA18" s="3"/>
+      <c r="AB18" s="3"/>
+      <c r="AC18" s="3"/>
+      <c r="AD18" s="3"/>
+      <c r="AE18" s="3"/>
+      <c r="AF18" s="3"/>
+    </row>
+    <row r="19" spans="1:32">
+      <c r="A19" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B19" s="4"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="4"/>
+      <c r="I19" s="4"/>
+      <c r="J19" s="4"/>
+      <c r="K19" s="4"/>
+      <c r="L19" s="4"/>
+      <c r="M19" s="4"/>
+      <c r="N19" s="4"/>
+      <c r="O19" s="4"/>
+      <c r="P19" s="4"/>
+      <c r="Q19" s="4"/>
+      <c r="R19" s="4"/>
+      <c r="S19" s="4">
+        <f>COUNTIF(S4:S18,"х")</f>
+        <v>6</v>
+      </c>
+      <c r="T19" s="4">
+        <f t="shared" ref="T19:AF19" si="0">COUNTIF(T4:T18,"х")</f>
+        <v>9</v>
+      </c>
+      <c r="U19" s="4">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="V19" s="4">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="W19" s="4">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="X19" s="4">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="Y19" s="4">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="Z19" s="4">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="AA19" s="4">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="AB19" s="4">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="AC19" s="4">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="AD19" s="4">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="AE19" s="4">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="AF19" s="4">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:AF1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="180" verticalDpi="180" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:AE19"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="2"/>
+    <col min="2" max="31" width="3.7109375" style="2" customWidth="1"/>
+    <col min="32" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:31">
+      <c r="A1" s="5" t="str">
+        <f ca="1">"Не работающие АСДУ на автомобилях за " &amp;  MID(CELL("имяфайла",A1),SEARCH("]",CELL("имяфайла",A1))+1,255)</f>
+        <v>Не работающие АСДУ на автомобилях за Ноябрь 2018</v>
+      </c>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+      <c r="J1" s="5"/>
+      <c r="K1" s="5"/>
+      <c r="L1" s="5"/>
+      <c r="M1" s="5"/>
+      <c r="N1" s="5"/>
+      <c r="O1" s="5"/>
+      <c r="P1" s="5"/>
+      <c r="Q1" s="5"/>
+      <c r="R1" s="5"/>
+      <c r="S1" s="5"/>
+      <c r="T1" s="5"/>
+      <c r="U1" s="5"/>
+      <c r="V1" s="5"/>
+      <c r="W1" s="5"/>
+      <c r="X1" s="5"/>
+      <c r="Y1" s="5"/>
+      <c r="Z1" s="5"/>
+      <c r="AA1" s="5"/>
+      <c r="AB1" s="5"/>
+      <c r="AC1" s="5"/>
+      <c r="AD1" s="5"/>
+      <c r="AE1" s="5"/>
+    </row>
+    <row r="3" spans="1:31">
+      <c r="A3" s="4"/>
+      <c r="B3" s="3">
+        <v>1</v>
+      </c>
+      <c r="C3" s="3">
+        <v>2</v>
+      </c>
+      <c r="D3" s="3">
+        <v>3</v>
+      </c>
+      <c r="E3" s="3">
+        <v>4</v>
+      </c>
+      <c r="F3" s="3">
+        <v>5</v>
+      </c>
+      <c r="G3" s="3">
+        <v>6</v>
+      </c>
+      <c r="H3" s="3">
+        <v>7</v>
+      </c>
+      <c r="I3" s="3">
+        <v>8</v>
+      </c>
+      <c r="J3" s="3">
+        <v>9</v>
+      </c>
+      <c r="K3" s="3">
+        <v>10</v>
+      </c>
+      <c r="L3" s="3">
+        <v>11</v>
+      </c>
+      <c r="M3" s="3">
+        <v>12</v>
+      </c>
+      <c r="N3" s="3">
+        <v>13</v>
+      </c>
+      <c r="O3" s="3">
+        <v>14</v>
+      </c>
+      <c r="P3" s="3">
+        <v>15</v>
+      </c>
+      <c r="Q3" s="3">
+        <v>16</v>
+      </c>
+      <c r="R3" s="3">
+        <v>17</v>
+      </c>
+      <c r="S3" s="4">
+        <v>18</v>
+      </c>
+      <c r="T3" s="4">
+        <v>19</v>
+      </c>
+      <c r="U3" s="4">
+        <v>20</v>
+      </c>
+      <c r="V3" s="4">
+        <v>21</v>
+      </c>
+      <c r="W3" s="4">
+        <v>22</v>
+      </c>
+      <c r="X3" s="4">
+        <v>23</v>
+      </c>
+      <c r="Y3" s="4">
+        <v>24</v>
+      </c>
+      <c r="Z3" s="4">
+        <v>25</v>
+      </c>
+      <c r="AA3" s="4">
+        <v>26</v>
+      </c>
+      <c r="AB3" s="4">
+        <v>27</v>
+      </c>
+      <c r="AC3" s="4">
+        <v>28</v>
+      </c>
+      <c r="AD3" s="4">
+        <v>29</v>
+      </c>
+      <c r="AE3" s="4">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:31">
+      <c r="A4" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="3"/>
+      <c r="N4" s="3"/>
+      <c r="O4" s="3"/>
+      <c r="P4" s="3"/>
+      <c r="Q4" s="3"/>
+      <c r="R4" s="3"/>
+      <c r="S4" s="3"/>
+      <c r="T4" s="3"/>
+      <c r="U4" s="3"/>
+      <c r="V4" s="3"/>
+      <c r="W4" s="3"/>
+      <c r="X4" s="3"/>
+      <c r="Y4" s="3"/>
+      <c r="Z4" s="3"/>
+      <c r="AA4" s="3"/>
+      <c r="AB4" s="3"/>
+      <c r="AC4" s="3"/>
+      <c r="AD4" s="3"/>
+      <c r="AE4" s="3"/>
+    </row>
+    <row r="5" spans="1:31">
+      <c r="A5" s="4">
+        <v>1250</v>
       </c>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
@@ -624,38 +1598,21 @@
       <c r="R5" s="3"/>
       <c r="S5" s="3"/>
       <c r="T5" s="3"/>
-      <c r="U5" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="V5" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="W5" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="X5" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="Y5" s="3" t="s">
-        <v>0</v>
-      </c>
+      <c r="U5" s="3"/>
+      <c r="V5" s="3"/>
+      <c r="W5" s="3"/>
+      <c r="X5" s="3"/>
+      <c r="Y5" s="3"/>
       <c r="Z5" s="3"/>
       <c r="AA5" s="3"/>
-      <c r="AB5" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="AC5" s="3" t="s">
-        <v>0</v>
-      </c>
+      <c r="AB5" s="3"/>
+      <c r="AC5" s="3"/>
       <c r="AD5" s="3"/>
-      <c r="AE5" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="AF5" s="3"/>
-    </row>
-    <row r="6" spans="1:32">
+      <c r="AE5" s="3"/>
+    </row>
+    <row r="6" spans="1:31">
       <c r="A6" s="4">
-        <v>1276</v>
+        <v>1252</v>
       </c>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
@@ -682,26 +1639,15 @@
       <c r="X6" s="3"/>
       <c r="Y6" s="3"/>
       <c r="Z6" s="3"/>
-      <c r="AA6" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="AB6" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="AC6" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="AD6" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="AE6" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="AF6" s="3"/>
-    </row>
-    <row r="7" spans="1:32">
+      <c r="AA6" s="3"/>
+      <c r="AB6" s="3"/>
+      <c r="AC6" s="3"/>
+      <c r="AD6" s="3"/>
+      <c r="AE6" s="3"/>
+    </row>
+    <row r="7" spans="1:31">
       <c r="A7" s="4">
-        <v>1291</v>
+        <v>1276</v>
       </c>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
@@ -721,35 +1667,22 @@
       <c r="Q7" s="3"/>
       <c r="R7" s="3"/>
       <c r="S7" s="3"/>
-      <c r="T7" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="U7" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="V7" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="W7" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="X7" s="3" t="s">
-        <v>0</v>
-      </c>
+      <c r="T7" s="3"/>
+      <c r="U7" s="3"/>
+      <c r="V7" s="3"/>
+      <c r="W7" s="3"/>
+      <c r="X7" s="3"/>
       <c r="Y7" s="3"/>
       <c r="Z7" s="3"/>
       <c r="AA7" s="3"/>
-      <c r="AB7" s="3" t="s">
-        <v>0</v>
-      </c>
+      <c r="AB7" s="3"/>
       <c r="AC7" s="3"/>
       <c r="AD7" s="3"/>
       <c r="AE7" s="3"/>
-      <c r="AF7" s="3"/>
-    </row>
-    <row r="8" spans="1:32">
+    </row>
+    <row r="8" spans="1:31">
       <c r="A8" s="4">
-        <v>2831</v>
+        <v>1291</v>
       </c>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
@@ -769,9 +1702,7 @@
       <c r="Q8" s="3"/>
       <c r="R8" s="3"/>
       <c r="S8" s="3"/>
-      <c r="T8" s="3" t="s">
-        <v>0</v>
-      </c>
+      <c r="T8" s="3"/>
       <c r="U8" s="3"/>
       <c r="V8" s="3"/>
       <c r="W8" s="3"/>
@@ -783,11 +1714,10 @@
       <c r="AC8" s="3"/>
       <c r="AD8" s="3"/>
       <c r="AE8" s="3"/>
-      <c r="AF8" s="3"/>
-    </row>
-    <row r="9" spans="1:32">
+    </row>
+    <row r="9" spans="1:31">
       <c r="A9" s="4">
-        <v>2963</v>
+        <v>2831</v>
       </c>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
@@ -806,38 +1736,23 @@
       <c r="P9" s="3"/>
       <c r="Q9" s="3"/>
       <c r="R9" s="3"/>
-      <c r="S9" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="T9" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="U9" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="V9" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="W9" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="X9" s="3" t="s">
-        <v>0</v>
-      </c>
+      <c r="S9" s="3"/>
+      <c r="T9" s="3"/>
+      <c r="U9" s="3"/>
+      <c r="V9" s="3"/>
+      <c r="W9" s="3"/>
+      <c r="X9" s="3"/>
       <c r="Y9" s="3"/>
-      <c r="Z9" s="3" t="s">
-        <v>0</v>
-      </c>
+      <c r="Z9" s="3"/>
       <c r="AA9" s="3"/>
       <c r="AB9" s="3"/>
       <c r="AC9" s="3"/>
       <c r="AD9" s="3"/>
       <c r="AE9" s="3"/>
-      <c r="AF9" s="3"/>
-    </row>
-    <row r="10" spans="1:32">
+    </row>
+    <row r="10" spans="1:31">
       <c r="A10" s="4">
-        <v>4189</v>
+        <v>2963</v>
       </c>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
@@ -863,21 +1778,16 @@
       <c r="W10" s="3"/>
       <c r="X10" s="3"/>
       <c r="Y10" s="3"/>
-      <c r="Z10" s="3" t="s">
-        <v>0</v>
-      </c>
+      <c r="Z10" s="3"/>
       <c r="AA10" s="3"/>
       <c r="AB10" s="3"/>
-      <c r="AC10" s="3" t="s">
-        <v>0</v>
-      </c>
+      <c r="AC10" s="3"/>
       <c r="AD10" s="3"/>
       <c r="AE10" s="3"/>
-      <c r="AF10" s="3"/>
-    </row>
-    <row r="11" spans="1:32">
+    </row>
+    <row r="11" spans="1:31">
       <c r="A11" s="4">
-        <v>4309</v>
+        <v>4189</v>
       </c>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
@@ -899,9 +1809,7 @@
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
-      <c r="V11" s="3" t="s">
-        <v>0</v>
-      </c>
+      <c r="V11" s="3"/>
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
@@ -911,11 +1819,10 @@
       <c r="AC11" s="3"/>
       <c r="AD11" s="3"/>
       <c r="AE11" s="3"/>
-      <c r="AF11" s="3"/>
-    </row>
-    <row r="12" spans="1:32">
+    </row>
+    <row r="12" spans="1:31">
       <c r="A12" s="4">
-        <v>4729</v>
+        <v>4309</v>
       </c>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
@@ -934,50 +1841,23 @@
       <c r="P12" s="3"/>
       <c r="Q12" s="3"/>
       <c r="R12" s="3"/>
-      <c r="S12" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="T12" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="U12" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="V12" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="W12" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="X12" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="Y12" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="Z12" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="AA12" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="AB12" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="AC12" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="AD12" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="AE12" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="AF12" s="3"/>
-    </row>
-    <row r="13" spans="1:32">
+      <c r="S12" s="3"/>
+      <c r="T12" s="3"/>
+      <c r="U12" s="3"/>
+      <c r="V12" s="3"/>
+      <c r="W12" s="3"/>
+      <c r="X12" s="3"/>
+      <c r="Y12" s="3"/>
+      <c r="Z12" s="3"/>
+      <c r="AA12" s="3"/>
+      <c r="AB12" s="3"/>
+      <c r="AC12" s="3"/>
+      <c r="AD12" s="3"/>
+      <c r="AE12" s="3"/>
+    </row>
+    <row r="13" spans="1:31">
       <c r="A13" s="4">
-        <v>4730</v>
+        <v>4729</v>
       </c>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
@@ -996,48 +1876,23 @@
       <c r="P13" s="3"/>
       <c r="Q13" s="3"/>
       <c r="R13" s="3"/>
-      <c r="S13" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="T13" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="U13" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="V13" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="W13" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="X13" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="Y13" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="Z13" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="AA13" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="AB13" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="AC13" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="AD13" s="3" t="s">
-        <v>0</v>
-      </c>
+      <c r="S13" s="3"/>
+      <c r="T13" s="3"/>
+      <c r="U13" s="3"/>
+      <c r="V13" s="3"/>
+      <c r="W13" s="3"/>
+      <c r="X13" s="3"/>
+      <c r="Y13" s="3"/>
+      <c r="Z13" s="3"/>
+      <c r="AA13" s="3"/>
+      <c r="AB13" s="3"/>
+      <c r="AC13" s="3"/>
+      <c r="AD13" s="3"/>
       <c r="AE13" s="3"/>
-      <c r="AF13" s="3"/>
-    </row>
-    <row r="14" spans="1:32">
+    </row>
+    <row r="14" spans="1:31">
       <c r="A14" s="4">
-        <v>4995</v>
+        <v>4730</v>
       </c>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
@@ -1056,50 +1911,23 @@
       <c r="P14" s="3"/>
       <c r="Q14" s="3"/>
       <c r="R14" s="3"/>
-      <c r="S14" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="T14" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="U14" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="V14" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="W14" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="X14" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="Y14" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="Z14" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="AA14" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="AB14" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="AC14" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="AD14" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="AE14" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="AF14" s="3"/>
-    </row>
-    <row r="15" spans="1:32">
+      <c r="S14" s="3"/>
+      <c r="T14" s="3"/>
+      <c r="U14" s="3"/>
+      <c r="V14" s="3"/>
+      <c r="W14" s="3"/>
+      <c r="X14" s="3"/>
+      <c r="Y14" s="3"/>
+      <c r="Z14" s="3"/>
+      <c r="AA14" s="3"/>
+      <c r="AB14" s="3"/>
+      <c r="AC14" s="3"/>
+      <c r="AD14" s="3"/>
+      <c r="AE14" s="3"/>
+    </row>
+    <row r="15" spans="1:31">
       <c r="A15" s="4">
-        <v>6130</v>
+        <v>4995</v>
       </c>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
@@ -1119,47 +1947,22 @@
       <c r="Q15" s="3"/>
       <c r="R15" s="3"/>
       <c r="S15" s="3"/>
-      <c r="T15" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="U15" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="V15" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="W15" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="X15" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="Y15" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="Z15" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="AA15" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="AB15" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="AC15" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="AD15" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="AE15" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="AF15" s="3"/>
-    </row>
-    <row r="16" spans="1:32">
+      <c r="T15" s="3"/>
+      <c r="U15" s="3"/>
+      <c r="V15" s="3"/>
+      <c r="W15" s="3"/>
+      <c r="X15" s="3"/>
+      <c r="Y15" s="3"/>
+      <c r="Z15" s="3"/>
+      <c r="AA15" s="3"/>
+      <c r="AB15" s="3"/>
+      <c r="AC15" s="3"/>
+      <c r="AD15" s="3"/>
+      <c r="AE15" s="3"/>
+    </row>
+    <row r="16" spans="1:31">
       <c r="A16" s="4">
-        <v>7540</v>
+        <v>6130</v>
       </c>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
@@ -1178,40 +1981,218 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-      <c r="S16" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="T16" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="U16" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="V16" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="W16" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="X16" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="Y16" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="Z16" s="3" t="s">
-        <v>0</v>
-      </c>
+      <c r="S16" s="3"/>
+      <c r="T16" s="3"/>
+      <c r="U16" s="3"/>
+      <c r="V16" s="3"/>
+      <c r="W16" s="3"/>
+      <c r="X16" s="3"/>
+      <c r="Y16" s="3"/>
+      <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
       <c r="AD16" s="3"/>
       <c r="AE16" s="3"/>
-      <c r="AF16" s="3"/>
+    </row>
+    <row r="17" spans="1:31">
+      <c r="A17" s="4">
+        <v>6982</v>
+      </c>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+      <c r="K17" s="3"/>
+      <c r="L17" s="3"/>
+      <c r="M17" s="3"/>
+      <c r="N17" s="3"/>
+      <c r="O17" s="3"/>
+      <c r="P17" s="3"/>
+      <c r="Q17" s="3"/>
+      <c r="R17" s="3"/>
+      <c r="S17" s="3"/>
+      <c r="T17" s="3"/>
+      <c r="U17" s="3"/>
+      <c r="V17" s="3"/>
+      <c r="W17" s="3"/>
+      <c r="X17" s="3"/>
+      <c r="Y17" s="3"/>
+      <c r="Z17" s="3"/>
+      <c r="AA17" s="3"/>
+      <c r="AB17" s="3"/>
+      <c r="AC17" s="3"/>
+      <c r="AD17" s="3"/>
+      <c r="AE17" s="3"/>
+    </row>
+    <row r="18" spans="1:31">
+      <c r="A18" s="4">
+        <v>7540</v>
+      </c>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+      <c r="K18" s="3"/>
+      <c r="L18" s="3"/>
+      <c r="M18" s="3"/>
+      <c r="N18" s="3"/>
+      <c r="O18" s="3"/>
+      <c r="P18" s="3"/>
+      <c r="Q18" s="3"/>
+      <c r="R18" s="3"/>
+      <c r="S18" s="3"/>
+      <c r="T18" s="3"/>
+      <c r="U18" s="3"/>
+      <c r="V18" s="3"/>
+      <c r="W18" s="3"/>
+      <c r="X18" s="3"/>
+      <c r="Y18" s="3"/>
+      <c r="Z18" s="3"/>
+      <c r="AA18" s="3"/>
+      <c r="AB18" s="3"/>
+      <c r="AC18" s="3"/>
+      <c r="AD18" s="3"/>
+      <c r="AE18" s="3"/>
+    </row>
+    <row r="19" spans="1:31">
+      <c r="A19" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B19" s="6">
+        <f t="shared" ref="B19:R19" si="0">COUNTIF(B4:B18,"х")</f>
+        <v>0</v>
+      </c>
+      <c r="C19" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D19" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E19" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F19" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G19" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H19" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I19" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J19" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K19" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L19" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M19" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N19" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O19" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P19" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q19" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R19" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="S19" s="6">
+        <f>COUNTIF(S4:S18,"х")</f>
+        <v>0</v>
+      </c>
+      <c r="T19" s="6">
+        <f t="shared" ref="T19:AE19" si="1">COUNTIF(T4:T18,"х")</f>
+        <v>0</v>
+      </c>
+      <c r="U19" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="V19" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="W19" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="X19" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Y19" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Z19" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AA19" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AB19" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AC19" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AD19" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AE19" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:AF1"/>
+    <mergeCell ref="A1:AE1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="180" verticalDpi="180" r:id="rId1"/>

--- a/Табели/!Табель не работающих АСДУ.xlsx
+++ b/Табели/!Табель не работающих АСДУ.xlsx
@@ -10,12 +10,12 @@
     <sheet name="Октябрь 2018" sheetId="1" r:id="rId1"/>
     <sheet name="Ноябрь 2018" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="125725" iterate="1"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="3">
   <si>
     <t>х</t>
   </si>
@@ -105,13 +105,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -423,41 +423,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:32">
-      <c r="A1" s="5" t="str">
+      <c r="A1" s="7" t="str">
         <f ca="1">"Не работающие АСДУ на автомобилях за " &amp;  MID(CELL("имяфайла",A1),SEARCH("]",CELL("имяфайла",A1))+1,255)</f>
         <v>Не работающие АСДУ на автомобилях за Октябрь 2018</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5"/>
-      <c r="K1" s="5"/>
-      <c r="L1" s="5"/>
-      <c r="M1" s="5"/>
-      <c r="N1" s="5"/>
-      <c r="O1" s="5"/>
-      <c r="P1" s="5"/>
-      <c r="Q1" s="5"/>
-      <c r="R1" s="5"/>
-      <c r="S1" s="5"/>
-      <c r="T1" s="5"/>
-      <c r="U1" s="5"/>
-      <c r="V1" s="5"/>
-      <c r="W1" s="5"/>
-      <c r="X1" s="5"/>
-      <c r="Y1" s="5"/>
-      <c r="Z1" s="5"/>
-      <c r="AA1" s="5"/>
-      <c r="AB1" s="5"/>
-      <c r="AC1" s="5"/>
-      <c r="AD1" s="5"/>
-      <c r="AE1" s="5"/>
-      <c r="AF1" s="5"/>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
+      <c r="K1" s="7"/>
+      <c r="L1" s="7"/>
+      <c r="M1" s="7"/>
+      <c r="N1" s="7"/>
+      <c r="O1" s="7"/>
+      <c r="P1" s="7"/>
+      <c r="Q1" s="7"/>
+      <c r="R1" s="7"/>
+      <c r="S1" s="7"/>
+      <c r="T1" s="7"/>
+      <c r="U1" s="7"/>
+      <c r="V1" s="7"/>
+      <c r="W1" s="7"/>
+      <c r="X1" s="7"/>
+      <c r="Y1" s="7"/>
+      <c r="Z1" s="7"/>
+      <c r="AA1" s="7"/>
+      <c r="AB1" s="7"/>
+      <c r="AC1" s="7"/>
+      <c r="AD1" s="7"/>
+      <c r="AE1" s="7"/>
+      <c r="AF1" s="7"/>
     </row>
     <row r="3" spans="1:32">
       <c r="A3" s="4"/>
@@ -556,7 +556,7 @@
       </c>
     </row>
     <row r="4" spans="1:32">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="6" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="3"/>
@@ -1401,7 +1401,7 @@
   <dimension ref="A1:AE19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -1412,40 +1412,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:31">
-      <c r="A1" s="5" t="str">
+      <c r="A1" s="7" t="str">
         <f ca="1">"Не работающие АСДУ на автомобилях за " &amp;  MID(CELL("имяфайла",A1),SEARCH("]",CELL("имяфайла",A1))+1,255)</f>
         <v>Не работающие АСДУ на автомобилях за Ноябрь 2018</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5"/>
-      <c r="K1" s="5"/>
-      <c r="L1" s="5"/>
-      <c r="M1" s="5"/>
-      <c r="N1" s="5"/>
-      <c r="O1" s="5"/>
-      <c r="P1" s="5"/>
-      <c r="Q1" s="5"/>
-      <c r="R1" s="5"/>
-      <c r="S1" s="5"/>
-      <c r="T1" s="5"/>
-      <c r="U1" s="5"/>
-      <c r="V1" s="5"/>
-      <c r="W1" s="5"/>
-      <c r="X1" s="5"/>
-      <c r="Y1" s="5"/>
-      <c r="Z1" s="5"/>
-      <c r="AA1" s="5"/>
-      <c r="AB1" s="5"/>
-      <c r="AC1" s="5"/>
-      <c r="AD1" s="5"/>
-      <c r="AE1" s="5"/>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
+      <c r="K1" s="7"/>
+      <c r="L1" s="7"/>
+      <c r="M1" s="7"/>
+      <c r="N1" s="7"/>
+      <c r="O1" s="7"/>
+      <c r="P1" s="7"/>
+      <c r="Q1" s="7"/>
+      <c r="R1" s="7"/>
+      <c r="S1" s="7"/>
+      <c r="T1" s="7"/>
+      <c r="U1" s="7"/>
+      <c r="V1" s="7"/>
+      <c r="W1" s="7"/>
+      <c r="X1" s="7"/>
+      <c r="Y1" s="7"/>
+      <c r="Z1" s="7"/>
+      <c r="AA1" s="7"/>
+      <c r="AB1" s="7"/>
+      <c r="AC1" s="7"/>
+      <c r="AD1" s="7"/>
+      <c r="AE1" s="7"/>
     </row>
     <row r="3" spans="1:31">
       <c r="A3" s="4"/>
@@ -1541,10 +1541,12 @@
       </c>
     </row>
     <row r="4" spans="1:31">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="3"/>
+      <c r="B4" s="3" t="s">
+        <v>0</v>
+      </c>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
@@ -1614,7 +1616,9 @@
       <c r="A6" s="4">
         <v>1252</v>
       </c>
-      <c r="B6" s="3"/>
+      <c r="B6" s="3" t="s">
+        <v>0</v>
+      </c>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
@@ -1649,7 +1653,9 @@
       <c r="A7" s="4">
         <v>1276</v>
       </c>
-      <c r="B7" s="3"/>
+      <c r="B7" s="3" t="s">
+        <v>0</v>
+      </c>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
@@ -1929,7 +1935,9 @@
       <c r="A15" s="4">
         <v>4995</v>
       </c>
-      <c r="B15" s="3"/>
+      <c r="B15" s="3" t="s">
+        <v>0</v>
+      </c>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
@@ -1964,7 +1972,9 @@
       <c r="A16" s="4">
         <v>6130</v>
       </c>
-      <c r="B16" s="3"/>
+      <c r="B16" s="3" t="s">
+        <v>0</v>
+      </c>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
@@ -1999,7 +2009,9 @@
       <c r="A17" s="4">
         <v>6982</v>
       </c>
-      <c r="B17" s="3"/>
+      <c r="B17" s="3" t="s">
+        <v>0</v>
+      </c>
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
       <c r="E17" s="3"/>
@@ -2069,123 +2081,123 @@
       <c r="A19" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B19" s="6">
+      <c r="B19" s="5">
         <f t="shared" ref="B19:R19" si="0">COUNTIF(B4:B18,"х")</f>
-        <v>0</v>
-      </c>
-      <c r="C19" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D19" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E19" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F19" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G19" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H19" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I19" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J19" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K19" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L19" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M19" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="N19" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O19" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="P19" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Q19" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R19" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="S19" s="6">
+        <v>6</v>
+      </c>
+      <c r="C19" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D19" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E19" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F19" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G19" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H19" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I19" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J19" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K19" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L19" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M19" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N19" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O19" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P19" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q19" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R19" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="S19" s="5">
         <f>COUNTIF(S4:S18,"х")</f>
         <v>0</v>
       </c>
-      <c r="T19" s="6">
+      <c r="T19" s="5">
         <f t="shared" ref="T19:AE19" si="1">COUNTIF(T4:T18,"х")</f>
         <v>0</v>
       </c>
-      <c r="U19" s="6">
+      <c r="U19" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="V19" s="6">
+      <c r="V19" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="W19" s="6">
+      <c r="W19" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="X19" s="6">
+      <c r="X19" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="Y19" s="6">
+      <c r="Y19" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="Z19" s="6">
+      <c r="Z19" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AA19" s="6">
+      <c r="AA19" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AB19" s="6">
+      <c r="AB19" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AC19" s="6">
+      <c r="AC19" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AD19" s="6">
+      <c r="AD19" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AE19" s="6">
+      <c r="AE19" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>

--- a/Табели/!Табель не работающих АСДУ.xlsx
+++ b/Табели/!Табель не работающих АСДУ.xlsx
@@ -58,15 +58,21 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -89,11 +95,212 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -105,13 +312,70 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -120,6 +384,12 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFFFFCC"/>
+      <color rgb="FFFFFF99"/>
+    </mruColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -411,7 +681,7 @@
   <dimension ref="A1:AF19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B1:R1048576"/>
+      <selection sqref="A1:AF1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -423,44 +693,44 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:32">
-      <c r="A1" s="7" t="str">
+      <c r="A1" s="5" t="str">
         <f ca="1">"Не работающие АСДУ на автомобилях за " &amp;  MID(CELL("имяфайла",A1),SEARCH("]",CELL("имяфайла",A1))+1,255)</f>
         <v>Не работающие АСДУ на автомобилях за Октябрь 2018</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
-      <c r="K1" s="7"/>
-      <c r="L1" s="7"/>
-      <c r="M1" s="7"/>
-      <c r="N1" s="7"/>
-      <c r="O1" s="7"/>
-      <c r="P1" s="7"/>
-      <c r="Q1" s="7"/>
-      <c r="R1" s="7"/>
-      <c r="S1" s="7"/>
-      <c r="T1" s="7"/>
-      <c r="U1" s="7"/>
-      <c r="V1" s="7"/>
-      <c r="W1" s="7"/>
-      <c r="X1" s="7"/>
-      <c r="Y1" s="7"/>
-      <c r="Z1" s="7"/>
-      <c r="AA1" s="7"/>
-      <c r="AB1" s="7"/>
-      <c r="AC1" s="7"/>
-      <c r="AD1" s="7"/>
-      <c r="AE1" s="7"/>
-      <c r="AF1" s="7"/>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+      <c r="J1" s="5"/>
+      <c r="K1" s="5"/>
+      <c r="L1" s="5"/>
+      <c r="M1" s="5"/>
+      <c r="N1" s="5"/>
+      <c r="O1" s="5"/>
+      <c r="P1" s="5"/>
+      <c r="Q1" s="5"/>
+      <c r="R1" s="5"/>
+      <c r="S1" s="5"/>
+      <c r="T1" s="5"/>
+      <c r="U1" s="5"/>
+      <c r="V1" s="5"/>
+      <c r="W1" s="5"/>
+      <c r="X1" s="5"/>
+      <c r="Y1" s="5"/>
+      <c r="Z1" s="5"/>
+      <c r="AA1" s="5"/>
+      <c r="AB1" s="5"/>
+      <c r="AC1" s="5"/>
+      <c r="AD1" s="5"/>
+      <c r="AE1" s="5"/>
+      <c r="AF1" s="5"/>
     </row>
     <row r="3" spans="1:32">
-      <c r="A3" s="4"/>
+      <c r="A3" s="6"/>
       <c r="B3" s="3">
         <v>1</v>
       </c>
@@ -512,51 +782,51 @@
       <c r="R3" s="3">
         <v>17</v>
       </c>
-      <c r="S3" s="4">
+      <c r="S3" s="6">
         <v>18</v>
       </c>
-      <c r="T3" s="4">
+      <c r="T3" s="6">
         <v>19</v>
       </c>
-      <c r="U3" s="4">
+      <c r="U3" s="6">
         <v>20</v>
       </c>
-      <c r="V3" s="4">
+      <c r="V3" s="6">
         <v>21</v>
       </c>
-      <c r="W3" s="4">
+      <c r="W3" s="6">
         <v>22</v>
       </c>
-      <c r="X3" s="4">
+      <c r="X3" s="6">
         <v>23</v>
       </c>
-      <c r="Y3" s="4">
+      <c r="Y3" s="6">
         <v>24</v>
       </c>
-      <c r="Z3" s="4">
+      <c r="Z3" s="6">
         <v>25</v>
       </c>
-      <c r="AA3" s="4">
+      <c r="AA3" s="6">
         <v>26</v>
       </c>
-      <c r="AB3" s="4">
+      <c r="AB3" s="6">
         <v>27</v>
       </c>
-      <c r="AC3" s="4">
+      <c r="AC3" s="6">
         <v>28</v>
       </c>
-      <c r="AD3" s="4">
+      <c r="AD3" s="6">
         <v>29</v>
       </c>
-      <c r="AE3" s="4">
+      <c r="AE3" s="6">
         <v>30</v>
       </c>
-      <c r="AF3" s="4">
+      <c r="AF3" s="6">
         <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:32">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="7" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="3"/>
@@ -594,7 +864,7 @@
       </c>
     </row>
     <row r="5" spans="1:32">
-      <c r="A5" s="4">
+      <c r="A5" s="6">
         <v>1250</v>
       </c>
       <c r="B5" s="3"/>
@@ -656,7 +926,7 @@
       <c r="AF5" s="3"/>
     </row>
     <row r="6" spans="1:32">
-      <c r="A6" s="4">
+      <c r="A6" s="6">
         <v>1252</v>
       </c>
       <c r="B6" s="3"/>
@@ -710,7 +980,7 @@
       </c>
     </row>
     <row r="7" spans="1:32">
-      <c r="A7" s="4">
+      <c r="A7" s="6">
         <v>1276</v>
       </c>
       <c r="B7" s="3"/>
@@ -758,7 +1028,7 @@
       </c>
     </row>
     <row r="8" spans="1:32">
-      <c r="A8" s="4">
+      <c r="A8" s="6">
         <v>1291</v>
       </c>
       <c r="B8" s="3"/>
@@ -806,7 +1076,7 @@
       <c r="AF8" s="3"/>
     </row>
     <row r="9" spans="1:32">
-      <c r="A9" s="4">
+      <c r="A9" s="6">
         <v>2831</v>
       </c>
       <c r="B9" s="3"/>
@@ -844,7 +1114,7 @@
       <c r="AF9" s="3"/>
     </row>
     <row r="10" spans="1:32">
-      <c r="A10" s="4">
+      <c r="A10" s="6">
         <v>2963</v>
       </c>
       <c r="B10" s="3"/>
@@ -894,7 +1164,7 @@
       <c r="AF10" s="3"/>
     </row>
     <row r="11" spans="1:32">
-      <c r="A11" s="4">
+      <c r="A11" s="6">
         <v>4189</v>
       </c>
       <c r="B11" s="3"/>
@@ -934,7 +1204,7 @@
       <c r="AF11" s="3"/>
     </row>
     <row r="12" spans="1:32">
-      <c r="A12" s="4">
+      <c r="A12" s="6">
         <v>4309</v>
       </c>
       <c r="B12" s="3"/>
@@ -972,7 +1242,7 @@
       <c r="AF12" s="3"/>
     </row>
     <row r="13" spans="1:32">
-      <c r="A13" s="4">
+      <c r="A13" s="6">
         <v>4729</v>
       </c>
       <c r="B13" s="3"/>
@@ -1034,7 +1304,7 @@
       <c r="AF13" s="3"/>
     </row>
     <row r="14" spans="1:32">
-      <c r="A14" s="4">
+      <c r="A14" s="6">
         <v>4730</v>
       </c>
       <c r="B14" s="3"/>
@@ -1094,7 +1364,7 @@
       <c r="AF14" s="3"/>
     </row>
     <row r="15" spans="1:32">
-      <c r="A15" s="4">
+      <c r="A15" s="6">
         <v>4995</v>
       </c>
       <c r="B15" s="3"/>
@@ -1158,7 +1428,7 @@
       </c>
     </row>
     <row r="16" spans="1:32">
-      <c r="A16" s="4">
+      <c r="A16" s="6">
         <v>6130</v>
       </c>
       <c r="B16" s="3"/>
@@ -1220,7 +1490,7 @@
       </c>
     </row>
     <row r="17" spans="1:32">
-      <c r="A17" s="4">
+      <c r="A17" s="6">
         <v>6982</v>
       </c>
       <c r="B17" s="3"/>
@@ -1258,7 +1528,7 @@
       </c>
     </row>
     <row r="18" spans="1:32">
-      <c r="A18" s="4">
+      <c r="A18" s="6">
         <v>7540</v>
       </c>
       <c r="B18" s="3"/>
@@ -1310,7 +1580,7 @@
       <c r="AF18" s="3"/>
     </row>
     <row r="19" spans="1:32">
-      <c r="A19" s="4" t="s">
+      <c r="A19" s="6" t="s">
         <v>1</v>
       </c>
       <c r="B19" s="4"/>
@@ -1330,59 +1600,59 @@
       <c r="P19" s="4"/>
       <c r="Q19" s="4"/>
       <c r="R19" s="4"/>
-      <c r="S19" s="4">
+      <c r="S19" s="6">
         <f>COUNTIF(S4:S18,"х")</f>
         <v>6</v>
       </c>
-      <c r="T19" s="4">
+      <c r="T19" s="6">
         <f t="shared" ref="T19:AF19" si="0">COUNTIF(T4:T18,"х")</f>
         <v>9</v>
       </c>
-      <c r="U19" s="4">
+      <c r="U19" s="6">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="V19" s="4">
+      <c r="V19" s="6">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="W19" s="4">
+      <c r="W19" s="6">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="X19" s="4">
+      <c r="X19" s="6">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="Y19" s="4">
+      <c r="Y19" s="6">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="Z19" s="4">
+      <c r="Z19" s="6">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="AA19" s="4">
+      <c r="AA19" s="6">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="AB19" s="4">
+      <c r="AB19" s="6">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="AC19" s="4">
+      <c r="AC19" s="6">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="AD19" s="4">
+      <c r="AD19" s="6">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="AE19" s="4">
+      <c r="AE19" s="6">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="AF19" s="4">
+      <c r="AF19" s="6">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
@@ -1401,7 +1671,7 @@
   <dimension ref="A1:AE19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -1412,176 +1682,177 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:31">
-      <c r="A1" s="7" t="str">
+      <c r="A1" s="5" t="str">
         <f ca="1">"Не работающие АСДУ на автомобилях за " &amp;  MID(CELL("имяфайла",A1),SEARCH("]",CELL("имяфайла",A1))+1,255)</f>
         <v>Не работающие АСДУ на автомобилях за Ноябрь 2018</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
-      <c r="K1" s="7"/>
-      <c r="L1" s="7"/>
-      <c r="M1" s="7"/>
-      <c r="N1" s="7"/>
-      <c r="O1" s="7"/>
-      <c r="P1" s="7"/>
-      <c r="Q1" s="7"/>
-      <c r="R1" s="7"/>
-      <c r="S1" s="7"/>
-      <c r="T1" s="7"/>
-      <c r="U1" s="7"/>
-      <c r="V1" s="7"/>
-      <c r="W1" s="7"/>
-      <c r="X1" s="7"/>
-      <c r="Y1" s="7"/>
-      <c r="Z1" s="7"/>
-      <c r="AA1" s="7"/>
-      <c r="AB1" s="7"/>
-      <c r="AC1" s="7"/>
-      <c r="AD1" s="7"/>
-      <c r="AE1" s="7"/>
-    </row>
-    <row r="3" spans="1:31">
-      <c r="A3" s="4"/>
-      <c r="B3" s="3">
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+      <c r="J1" s="5"/>
+      <c r="K1" s="5"/>
+      <c r="L1" s="5"/>
+      <c r="M1" s="5"/>
+      <c r="N1" s="5"/>
+      <c r="O1" s="5"/>
+      <c r="P1" s="5"/>
+      <c r="Q1" s="5"/>
+      <c r="R1" s="5"/>
+      <c r="S1" s="5"/>
+      <c r="T1" s="5"/>
+      <c r="U1" s="5"/>
+      <c r="V1" s="5"/>
+      <c r="W1" s="5"/>
+      <c r="X1" s="5"/>
+      <c r="Y1" s="5"/>
+      <c r="Z1" s="5"/>
+      <c r="AA1" s="5"/>
+      <c r="AB1" s="5"/>
+      <c r="AC1" s="5"/>
+      <c r="AD1" s="5"/>
+      <c r="AE1" s="5"/>
+    </row>
+    <row r="2" spans="1:31" ht="16.5" thickBot="1"/>
+    <row r="3" spans="1:31" ht="16.5" thickBot="1">
+      <c r="A3" s="15"/>
+      <c r="B3" s="23">
         <v>1</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C3" s="24">
         <v>2</v>
       </c>
-      <c r="D3" s="3">
+      <c r="D3" s="24">
         <v>3</v>
       </c>
-      <c r="E3" s="3">
+      <c r="E3" s="24">
         <v>4</v>
       </c>
-      <c r="F3" s="3">
+      <c r="F3" s="24">
         <v>5</v>
       </c>
-      <c r="G3" s="3">
+      <c r="G3" s="24">
         <v>6</v>
       </c>
-      <c r="H3" s="3">
+      <c r="H3" s="24">
         <v>7</v>
       </c>
-      <c r="I3" s="3">
+      <c r="I3" s="24">
         <v>8</v>
       </c>
-      <c r="J3" s="3">
+      <c r="J3" s="24">
         <v>9</v>
       </c>
-      <c r="K3" s="3">
+      <c r="K3" s="24">
         <v>10</v>
       </c>
-      <c r="L3" s="3">
+      <c r="L3" s="24">
         <v>11</v>
       </c>
-      <c r="M3" s="3">
+      <c r="M3" s="24">
         <v>12</v>
       </c>
-      <c r="N3" s="3">
+      <c r="N3" s="24">
         <v>13</v>
       </c>
-      <c r="O3" s="3">
+      <c r="O3" s="24">
         <v>14</v>
       </c>
-      <c r="P3" s="3">
+      <c r="P3" s="24">
         <v>15</v>
       </c>
-      <c r="Q3" s="3">
+      <c r="Q3" s="24">
         <v>16</v>
       </c>
-      <c r="R3" s="3">
+      <c r="R3" s="24">
         <v>17</v>
       </c>
-      <c r="S3" s="4">
+      <c r="S3" s="25">
         <v>18</v>
       </c>
-      <c r="T3" s="4">
+      <c r="T3" s="25">
         <v>19</v>
       </c>
-      <c r="U3" s="4">
+      <c r="U3" s="25">
         <v>20</v>
       </c>
-      <c r="V3" s="4">
+      <c r="V3" s="25">
         <v>21</v>
       </c>
-      <c r="W3" s="4">
+      <c r="W3" s="25">
         <v>22</v>
       </c>
-      <c r="X3" s="4">
+      <c r="X3" s="25">
         <v>23</v>
       </c>
-      <c r="Y3" s="4">
+      <c r="Y3" s="25">
         <v>24</v>
       </c>
-      <c r="Z3" s="4">
+      <c r="Z3" s="25">
         <v>25</v>
       </c>
-      <c r="AA3" s="4">
+      <c r="AA3" s="25">
         <v>26</v>
       </c>
-      <c r="AB3" s="4">
+      <c r="AB3" s="25">
         <v>27</v>
       </c>
-      <c r="AC3" s="4">
+      <c r="AC3" s="25">
         <v>28</v>
       </c>
-      <c r="AD3" s="4">
+      <c r="AD3" s="25">
         <v>29</v>
       </c>
-      <c r="AE3" s="4">
+      <c r="AE3" s="26">
         <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:31">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
-      <c r="K4" s="3"/>
-      <c r="L4" s="3"/>
-      <c r="M4" s="3"/>
-      <c r="N4" s="3"/>
-      <c r="O4" s="3"/>
-      <c r="P4" s="3"/>
-      <c r="Q4" s="3"/>
-      <c r="R4" s="3"/>
-      <c r="S4" s="3"/>
-      <c r="T4" s="3"/>
-      <c r="U4" s="3"/>
-      <c r="V4" s="3"/>
-      <c r="W4" s="3"/>
-      <c r="X4" s="3"/>
-      <c r="Y4" s="3"/>
-      <c r="Z4" s="3"/>
-      <c r="AA4" s="3"/>
-      <c r="AB4" s="3"/>
-      <c r="AC4" s="3"/>
-      <c r="AD4" s="3"/>
-      <c r="AE4" s="3"/>
+      <c r="B4" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="21"/>
+      <c r="D4" s="21"/>
+      <c r="E4" s="21"/>
+      <c r="F4" s="21"/>
+      <c r="G4" s="21"/>
+      <c r="H4" s="21"/>
+      <c r="I4" s="21"/>
+      <c r="J4" s="21"/>
+      <c r="K4" s="21"/>
+      <c r="L4" s="21"/>
+      <c r="M4" s="21"/>
+      <c r="N4" s="21"/>
+      <c r="O4" s="21"/>
+      <c r="P4" s="21"/>
+      <c r="Q4" s="21"/>
+      <c r="R4" s="21"/>
+      <c r="S4" s="21"/>
+      <c r="T4" s="21"/>
+      <c r="U4" s="21"/>
+      <c r="V4" s="21"/>
+      <c r="W4" s="21"/>
+      <c r="X4" s="21"/>
+      <c r="Y4" s="21"/>
+      <c r="Z4" s="21"/>
+      <c r="AA4" s="21"/>
+      <c r="AB4" s="21"/>
+      <c r="AC4" s="21"/>
+      <c r="AD4" s="21"/>
+      <c r="AE4" s="22"/>
     </row>
     <row r="5" spans="1:31">
-      <c r="A5" s="4">
+      <c r="A5" s="10">
         <v>1250</v>
       </c>
-      <c r="B5" s="3"/>
+      <c r="B5" s="9"/>
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
@@ -1610,13 +1881,13 @@
       <c r="AB5" s="3"/>
       <c r="AC5" s="3"/>
       <c r="AD5" s="3"/>
-      <c r="AE5" s="3"/>
+      <c r="AE5" s="8"/>
     </row>
     <row r="6" spans="1:31">
-      <c r="A6" s="4">
+      <c r="A6" s="10">
         <v>1252</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="9" t="s">
         <v>0</v>
       </c>
       <c r="C6" s="3"/>
@@ -1647,13 +1918,13 @@
       <c r="AB6" s="3"/>
       <c r="AC6" s="3"/>
       <c r="AD6" s="3"/>
-      <c r="AE6" s="3"/>
+      <c r="AE6" s="8"/>
     </row>
     <row r="7" spans="1:31">
-      <c r="A7" s="4">
+      <c r="A7" s="10">
         <v>1276</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="9" t="s">
         <v>0</v>
       </c>
       <c r="C7" s="3"/>
@@ -1684,13 +1955,13 @@
       <c r="AB7" s="3"/>
       <c r="AC7" s="3"/>
       <c r="AD7" s="3"/>
-      <c r="AE7" s="3"/>
+      <c r="AE7" s="8"/>
     </row>
     <row r="8" spans="1:31">
-      <c r="A8" s="4">
+      <c r="A8" s="10">
         <v>1291</v>
       </c>
-      <c r="B8" s="3"/>
+      <c r="B8" s="9"/>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
@@ -1719,13 +1990,13 @@
       <c r="AB8" s="3"/>
       <c r="AC8" s="3"/>
       <c r="AD8" s="3"/>
-      <c r="AE8" s="3"/>
+      <c r="AE8" s="8"/>
     </row>
     <row r="9" spans="1:31">
-      <c r="A9" s="4">
+      <c r="A9" s="10">
         <v>2831</v>
       </c>
-      <c r="B9" s="3"/>
+      <c r="B9" s="9"/>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
@@ -1754,13 +2025,13 @@
       <c r="AB9" s="3"/>
       <c r="AC9" s="3"/>
       <c r="AD9" s="3"/>
-      <c r="AE9" s="3"/>
+      <c r="AE9" s="8"/>
     </row>
     <row r="10" spans="1:31">
-      <c r="A10" s="4">
+      <c r="A10" s="10">
         <v>2963</v>
       </c>
-      <c r="B10" s="3"/>
+      <c r="B10" s="9"/>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
@@ -1789,13 +2060,13 @@
       <c r="AB10" s="3"/>
       <c r="AC10" s="3"/>
       <c r="AD10" s="3"/>
-      <c r="AE10" s="3"/>
+      <c r="AE10" s="8"/>
     </row>
     <row r="11" spans="1:31">
-      <c r="A11" s="4">
+      <c r="A11" s="10">
         <v>4189</v>
       </c>
-      <c r="B11" s="3"/>
+      <c r="B11" s="9"/>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
@@ -1824,13 +2095,13 @@
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
       <c r="AD11" s="3"/>
-      <c r="AE11" s="3"/>
+      <c r="AE11" s="8"/>
     </row>
     <row r="12" spans="1:31">
-      <c r="A12" s="4">
+      <c r="A12" s="10">
         <v>4309</v>
       </c>
-      <c r="B12" s="3"/>
+      <c r="B12" s="9"/>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
@@ -1859,13 +2130,13 @@
       <c r="AB12" s="3"/>
       <c r="AC12" s="3"/>
       <c r="AD12" s="3"/>
-      <c r="AE12" s="3"/>
+      <c r="AE12" s="8"/>
     </row>
     <row r="13" spans="1:31">
-      <c r="A13" s="4">
+      <c r="A13" s="10">
         <v>4729</v>
       </c>
-      <c r="B13" s="3"/>
+      <c r="B13" s="9"/>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
@@ -1894,13 +2165,13 @@
       <c r="AB13" s="3"/>
       <c r="AC13" s="3"/>
       <c r="AD13" s="3"/>
-      <c r="AE13" s="3"/>
+      <c r="AE13" s="8"/>
     </row>
     <row r="14" spans="1:31">
-      <c r="A14" s="4">
+      <c r="A14" s="10">
         <v>4730</v>
       </c>
-      <c r="B14" s="3"/>
+      <c r="B14" s="9"/>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
@@ -1929,13 +2200,13 @@
       <c r="AB14" s="3"/>
       <c r="AC14" s="3"/>
       <c r="AD14" s="3"/>
-      <c r="AE14" s="3"/>
+      <c r="AE14" s="8"/>
     </row>
     <row r="15" spans="1:31">
-      <c r="A15" s="4">
+      <c r="A15" s="10">
         <v>4995</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B15" s="9" t="s">
         <v>0</v>
       </c>
       <c r="C15" s="3"/>
@@ -1966,13 +2237,13 @@
       <c r="AB15" s="3"/>
       <c r="AC15" s="3"/>
       <c r="AD15" s="3"/>
-      <c r="AE15" s="3"/>
+      <c r="AE15" s="8"/>
     </row>
     <row r="16" spans="1:31">
-      <c r="A16" s="4">
+      <c r="A16" s="10">
         <v>6130</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B16" s="9" t="s">
         <v>0</v>
       </c>
       <c r="C16" s="3"/>
@@ -2003,13 +2274,13 @@
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
       <c r="AD16" s="3"/>
-      <c r="AE16" s="3"/>
+      <c r="AE16" s="8"/>
     </row>
     <row r="17" spans="1:31">
-      <c r="A17" s="4">
+      <c r="A17" s="10">
         <v>6982</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="B17" s="9" t="s">
         <v>0</v>
       </c>
       <c r="C17" s="3"/>
@@ -2040,164 +2311,164 @@
       <c r="AB17" s="3"/>
       <c r="AC17" s="3"/>
       <c r="AD17" s="3"/>
-      <c r="AE17" s="3"/>
-    </row>
-    <row r="18" spans="1:31">
-      <c r="A18" s="4">
+      <c r="AE17" s="8"/>
+    </row>
+    <row r="18" spans="1:31" ht="16.5" thickBot="1">
+      <c r="A18" s="11">
         <v>7540</v>
       </c>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
-      <c r="I18" s="3"/>
-      <c r="J18" s="3"/>
-      <c r="K18" s="3"/>
-      <c r="L18" s="3"/>
-      <c r="M18" s="3"/>
-      <c r="N18" s="3"/>
-      <c r="O18" s="3"/>
-      <c r="P18" s="3"/>
-      <c r="Q18" s="3"/>
-      <c r="R18" s="3"/>
-      <c r="S18" s="3"/>
-      <c r="T18" s="3"/>
-      <c r="U18" s="3"/>
-      <c r="V18" s="3"/>
-      <c r="W18" s="3"/>
-      <c r="X18" s="3"/>
-      <c r="Y18" s="3"/>
-      <c r="Z18" s="3"/>
-      <c r="AA18" s="3"/>
-      <c r="AB18" s="3"/>
-      <c r="AC18" s="3"/>
-      <c r="AD18" s="3"/>
-      <c r="AE18" s="3"/>
-    </row>
-    <row r="19" spans="1:31">
-      <c r="A19" s="4" t="s">
+      <c r="B18" s="12"/>
+      <c r="C18" s="13"/>
+      <c r="D18" s="13"/>
+      <c r="E18" s="13"/>
+      <c r="F18" s="13"/>
+      <c r="G18" s="13"/>
+      <c r="H18" s="13"/>
+      <c r="I18" s="13"/>
+      <c r="J18" s="13"/>
+      <c r="K18" s="13"/>
+      <c r="L18" s="13"/>
+      <c r="M18" s="13"/>
+      <c r="N18" s="13"/>
+      <c r="O18" s="13"/>
+      <c r="P18" s="13"/>
+      <c r="Q18" s="13"/>
+      <c r="R18" s="13"/>
+      <c r="S18" s="13"/>
+      <c r="T18" s="13"/>
+      <c r="U18" s="13"/>
+      <c r="V18" s="13"/>
+      <c r="W18" s="13"/>
+      <c r="X18" s="13"/>
+      <c r="Y18" s="13"/>
+      <c r="Z18" s="13"/>
+      <c r="AA18" s="13"/>
+      <c r="AB18" s="13"/>
+      <c r="AC18" s="13"/>
+      <c r="AD18" s="13"/>
+      <c r="AE18" s="14"/>
+    </row>
+    <row r="19" spans="1:31" ht="16.5" thickBot="1">
+      <c r="A19" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="B19" s="5">
+      <c r="B19" s="16">
         <f t="shared" ref="B19:R19" si="0">COUNTIF(B4:B18,"х")</f>
         <v>6</v>
       </c>
-      <c r="C19" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D19" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E19" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F19" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G19" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H19" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I19" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J19" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K19" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L19" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M19" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="N19" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O19" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="P19" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Q19" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R19" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="S19" s="5">
+      <c r="C19" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D19" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E19" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F19" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G19" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H19" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I19" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J19" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K19" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L19" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M19" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N19" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O19" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P19" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q19" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R19" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="S19" s="17">
         <f>COUNTIF(S4:S18,"х")</f>
         <v>0</v>
       </c>
-      <c r="T19" s="5">
+      <c r="T19" s="17">
         <f t="shared" ref="T19:AE19" si="1">COUNTIF(T4:T18,"х")</f>
         <v>0</v>
       </c>
-      <c r="U19" s="5">
+      <c r="U19" s="17">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="V19" s="5">
+      <c r="V19" s="17">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="W19" s="5">
+      <c r="W19" s="17">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="X19" s="5">
+      <c r="X19" s="17">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="Y19" s="5">
+      <c r="Y19" s="17">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="Z19" s="5">
+      <c r="Z19" s="17">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AA19" s="5">
+      <c r="AA19" s="17">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AB19" s="5">
+      <c r="AB19" s="17">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AC19" s="5">
+      <c r="AC19" s="17">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AD19" s="5">
+      <c r="AD19" s="17">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AE19" s="5">
+      <c r="AE19" s="18">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>

--- a/Табели/!Табель не работающих АСДУ.xlsx
+++ b/Табели/!Табель не работающих АСДУ.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="3">
   <si>
     <t>х</t>
   </si>
@@ -312,9 +312,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -376,6 +373,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -693,44 +693,44 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:32">
-      <c r="A1" s="5" t="str">
+      <c r="A1" s="26" t="str">
         <f ca="1">"Не работающие АСДУ на автомобилях за " &amp;  MID(CELL("имяфайла",A1),SEARCH("]",CELL("имяфайла",A1))+1,255)</f>
         <v>Не работающие АСДУ на автомобилях за Октябрь 2018</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5"/>
-      <c r="K1" s="5"/>
-      <c r="L1" s="5"/>
-      <c r="M1" s="5"/>
-      <c r="N1" s="5"/>
-      <c r="O1" s="5"/>
-      <c r="P1" s="5"/>
-      <c r="Q1" s="5"/>
-      <c r="R1" s="5"/>
-      <c r="S1" s="5"/>
-      <c r="T1" s="5"/>
-      <c r="U1" s="5"/>
-      <c r="V1" s="5"/>
-      <c r="W1" s="5"/>
-      <c r="X1" s="5"/>
-      <c r="Y1" s="5"/>
-      <c r="Z1" s="5"/>
-      <c r="AA1" s="5"/>
-      <c r="AB1" s="5"/>
-      <c r="AC1" s="5"/>
-      <c r="AD1" s="5"/>
-      <c r="AE1" s="5"/>
-      <c r="AF1" s="5"/>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
+      <c r="I1" s="26"/>
+      <c r="J1" s="26"/>
+      <c r="K1" s="26"/>
+      <c r="L1" s="26"/>
+      <c r="M1" s="26"/>
+      <c r="N1" s="26"/>
+      <c r="O1" s="26"/>
+      <c r="P1" s="26"/>
+      <c r="Q1" s="26"/>
+      <c r="R1" s="26"/>
+      <c r="S1" s="26"/>
+      <c r="T1" s="26"/>
+      <c r="U1" s="26"/>
+      <c r="V1" s="26"/>
+      <c r="W1" s="26"/>
+      <c r="X1" s="26"/>
+      <c r="Y1" s="26"/>
+      <c r="Z1" s="26"/>
+      <c r="AA1" s="26"/>
+      <c r="AB1" s="26"/>
+      <c r="AC1" s="26"/>
+      <c r="AD1" s="26"/>
+      <c r="AE1" s="26"/>
+      <c r="AF1" s="26"/>
     </row>
     <row r="3" spans="1:32">
-      <c r="A3" s="6"/>
+      <c r="A3" s="5"/>
       <c r="B3" s="3">
         <v>1</v>
       </c>
@@ -782,51 +782,51 @@
       <c r="R3" s="3">
         <v>17</v>
       </c>
-      <c r="S3" s="6">
+      <c r="S3" s="5">
         <v>18</v>
       </c>
-      <c r="T3" s="6">
+      <c r="T3" s="5">
         <v>19</v>
       </c>
-      <c r="U3" s="6">
+      <c r="U3" s="5">
         <v>20</v>
       </c>
-      <c r="V3" s="6">
+      <c r="V3" s="5">
         <v>21</v>
       </c>
-      <c r="W3" s="6">
+      <c r="W3" s="5">
         <v>22</v>
       </c>
-      <c r="X3" s="6">
+      <c r="X3" s="5">
         <v>23</v>
       </c>
-      <c r="Y3" s="6">
+      <c r="Y3" s="5">
         <v>24</v>
       </c>
-      <c r="Z3" s="6">
+      <c r="Z3" s="5">
         <v>25</v>
       </c>
-      <c r="AA3" s="6">
+      <c r="AA3" s="5">
         <v>26</v>
       </c>
-      <c r="AB3" s="6">
+      <c r="AB3" s="5">
         <v>27</v>
       </c>
-      <c r="AC3" s="6">
+      <c r="AC3" s="5">
         <v>28</v>
       </c>
-      <c r="AD3" s="6">
+      <c r="AD3" s="5">
         <v>29</v>
       </c>
-      <c r="AE3" s="6">
+      <c r="AE3" s="5">
         <v>30</v>
       </c>
-      <c r="AF3" s="6">
+      <c r="AF3" s="5">
         <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:32">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="6" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="3"/>
@@ -864,7 +864,7 @@
       </c>
     </row>
     <row r="5" spans="1:32">
-      <c r="A5" s="6">
+      <c r="A5" s="5">
         <v>1250</v>
       </c>
       <c r="B5" s="3"/>
@@ -926,7 +926,7 @@
       <c r="AF5" s="3"/>
     </row>
     <row r="6" spans="1:32">
-      <c r="A6" s="6">
+      <c r="A6" s="5">
         <v>1252</v>
       </c>
       <c r="B6" s="3"/>
@@ -980,7 +980,7 @@
       </c>
     </row>
     <row r="7" spans="1:32">
-      <c r="A7" s="6">
+      <c r="A7" s="5">
         <v>1276</v>
       </c>
       <c r="B7" s="3"/>
@@ -1028,7 +1028,7 @@
       </c>
     </row>
     <row r="8" spans="1:32">
-      <c r="A8" s="6">
+      <c r="A8" s="5">
         <v>1291</v>
       </c>
       <c r="B8" s="3"/>
@@ -1076,7 +1076,7 @@
       <c r="AF8" s="3"/>
     </row>
     <row r="9" spans="1:32">
-      <c r="A9" s="6">
+      <c r="A9" s="5">
         <v>2831</v>
       </c>
       <c r="B9" s="3"/>
@@ -1114,7 +1114,7 @@
       <c r="AF9" s="3"/>
     </row>
     <row r="10" spans="1:32">
-      <c r="A10" s="6">
+      <c r="A10" s="5">
         <v>2963</v>
       </c>
       <c r="B10" s="3"/>
@@ -1164,7 +1164,7 @@
       <c r="AF10" s="3"/>
     </row>
     <row r="11" spans="1:32">
-      <c r="A11" s="6">
+      <c r="A11" s="5">
         <v>4189</v>
       </c>
       <c r="B11" s="3"/>
@@ -1204,7 +1204,7 @@
       <c r="AF11" s="3"/>
     </row>
     <row r="12" spans="1:32">
-      <c r="A12" s="6">
+      <c r="A12" s="5">
         <v>4309</v>
       </c>
       <c r="B12" s="3"/>
@@ -1242,7 +1242,7 @@
       <c r="AF12" s="3"/>
     </row>
     <row r="13" spans="1:32">
-      <c r="A13" s="6">
+      <c r="A13" s="5">
         <v>4729</v>
       </c>
       <c r="B13" s="3"/>
@@ -1304,7 +1304,7 @@
       <c r="AF13" s="3"/>
     </row>
     <row r="14" spans="1:32">
-      <c r="A14" s="6">
+      <c r="A14" s="5">
         <v>4730</v>
       </c>
       <c r="B14" s="3"/>
@@ -1364,7 +1364,7 @@
       <c r="AF14" s="3"/>
     </row>
     <row r="15" spans="1:32">
-      <c r="A15" s="6">
+      <c r="A15" s="5">
         <v>4995</v>
       </c>
       <c r="B15" s="3"/>
@@ -1428,7 +1428,7 @@
       </c>
     </row>
     <row r="16" spans="1:32">
-      <c r="A16" s="6">
+      <c r="A16" s="5">
         <v>6130</v>
       </c>
       <c r="B16" s="3"/>
@@ -1490,7 +1490,7 @@
       </c>
     </row>
     <row r="17" spans="1:32">
-      <c r="A17" s="6">
+      <c r="A17" s="5">
         <v>6982</v>
       </c>
       <c r="B17" s="3"/>
@@ -1528,7 +1528,7 @@
       </c>
     </row>
     <row r="18" spans="1:32">
-      <c r="A18" s="6">
+      <c r="A18" s="5">
         <v>7540</v>
       </c>
       <c r="B18" s="3"/>
@@ -1580,7 +1580,7 @@
       <c r="AF18" s="3"/>
     </row>
     <row r="19" spans="1:32">
-      <c r="A19" s="6" t="s">
+      <c r="A19" s="5" t="s">
         <v>1</v>
       </c>
       <c r="B19" s="4"/>
@@ -1600,59 +1600,59 @@
       <c r="P19" s="4"/>
       <c r="Q19" s="4"/>
       <c r="R19" s="4"/>
-      <c r="S19" s="6">
+      <c r="S19" s="5">
         <f>COUNTIF(S4:S18,"х")</f>
         <v>6</v>
       </c>
-      <c r="T19" s="6">
+      <c r="T19" s="5">
         <f t="shared" ref="T19:AF19" si="0">COUNTIF(T4:T18,"х")</f>
         <v>9</v>
       </c>
-      <c r="U19" s="6">
+      <c r="U19" s="5">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="V19" s="6">
+      <c r="V19" s="5">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="W19" s="6">
+      <c r="W19" s="5">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="X19" s="6">
+      <c r="X19" s="5">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="Y19" s="6">
+      <c r="Y19" s="5">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="Z19" s="6">
+      <c r="Z19" s="5">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="AA19" s="6">
+      <c r="AA19" s="5">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="AB19" s="6">
+      <c r="AB19" s="5">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="AC19" s="6">
+      <c r="AC19" s="5">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="AD19" s="6">
+      <c r="AD19" s="5">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="AE19" s="6">
+      <c r="AE19" s="5">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="AF19" s="6">
+      <c r="AF19" s="5">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
@@ -1668,10 +1668,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AE19"/>
+  <dimension ref="A1:AE20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -1682,178 +1682,186 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:31">
-      <c r="A1" s="5" t="str">
+      <c r="A1" s="26" t="str">
         <f ca="1">"Не работающие АСДУ на автомобилях за " &amp;  MID(CELL("имяфайла",A1),SEARCH("]",CELL("имяфайла",A1))+1,255)</f>
         <v>Не работающие АСДУ на автомобилях за Ноябрь 2018</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5"/>
-      <c r="K1" s="5"/>
-      <c r="L1" s="5"/>
-      <c r="M1" s="5"/>
-      <c r="N1" s="5"/>
-      <c r="O1" s="5"/>
-      <c r="P1" s="5"/>
-      <c r="Q1" s="5"/>
-      <c r="R1" s="5"/>
-      <c r="S1" s="5"/>
-      <c r="T1" s="5"/>
-      <c r="U1" s="5"/>
-      <c r="V1" s="5"/>
-      <c r="W1" s="5"/>
-      <c r="X1" s="5"/>
-      <c r="Y1" s="5"/>
-      <c r="Z1" s="5"/>
-      <c r="AA1" s="5"/>
-      <c r="AB1" s="5"/>
-      <c r="AC1" s="5"/>
-      <c r="AD1" s="5"/>
-      <c r="AE1" s="5"/>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
+      <c r="I1" s="26"/>
+      <c r="J1" s="26"/>
+      <c r="K1" s="26"/>
+      <c r="L1" s="26"/>
+      <c r="M1" s="26"/>
+      <c r="N1" s="26"/>
+      <c r="O1" s="26"/>
+      <c r="P1" s="26"/>
+      <c r="Q1" s="26"/>
+      <c r="R1" s="26"/>
+      <c r="S1" s="26"/>
+      <c r="T1" s="26"/>
+      <c r="U1" s="26"/>
+      <c r="V1" s="26"/>
+      <c r="W1" s="26"/>
+      <c r="X1" s="26"/>
+      <c r="Y1" s="26"/>
+      <c r="Z1" s="26"/>
+      <c r="AA1" s="26"/>
+      <c r="AB1" s="26"/>
+      <c r="AC1" s="26"/>
+      <c r="AD1" s="26"/>
+      <c r="AE1" s="26"/>
     </row>
     <row r="2" spans="1:31" ht="16.5" thickBot="1"/>
     <row r="3" spans="1:31" ht="16.5" thickBot="1">
-      <c r="A3" s="15"/>
-      <c r="B3" s="23">
+      <c r="A3" s="14"/>
+      <c r="B3" s="22">
         <v>1</v>
       </c>
-      <c r="C3" s="24">
+      <c r="C3" s="23">
         <v>2</v>
       </c>
-      <c r="D3" s="24">
+      <c r="D3" s="23">
         <v>3</v>
       </c>
-      <c r="E3" s="24">
+      <c r="E3" s="23">
         <v>4</v>
       </c>
-      <c r="F3" s="24">
+      <c r="F3" s="23">
         <v>5</v>
       </c>
-      <c r="G3" s="24">
+      <c r="G3" s="23">
         <v>6</v>
       </c>
-      <c r="H3" s="24">
+      <c r="H3" s="23">
         <v>7</v>
       </c>
-      <c r="I3" s="24">
+      <c r="I3" s="23">
         <v>8</v>
       </c>
-      <c r="J3" s="24">
+      <c r="J3" s="23">
         <v>9</v>
       </c>
-      <c r="K3" s="24">
+      <c r="K3" s="23">
         <v>10</v>
       </c>
-      <c r="L3" s="24">
+      <c r="L3" s="23">
         <v>11</v>
       </c>
-      <c r="M3" s="24">
+      <c r="M3" s="23">
         <v>12</v>
       </c>
-      <c r="N3" s="24">
+      <c r="N3" s="23">
         <v>13</v>
       </c>
-      <c r="O3" s="24">
+      <c r="O3" s="23">
         <v>14</v>
       </c>
-      <c r="P3" s="24">
+      <c r="P3" s="23">
         <v>15</v>
       </c>
-      <c r="Q3" s="24">
+      <c r="Q3" s="23">
         <v>16</v>
       </c>
-      <c r="R3" s="24">
+      <c r="R3" s="23">
         <v>17</v>
       </c>
-      <c r="S3" s="25">
+      <c r="S3" s="24">
         <v>18</v>
       </c>
-      <c r="T3" s="25">
+      <c r="T3" s="24">
         <v>19</v>
       </c>
-      <c r="U3" s="25">
+      <c r="U3" s="24">
         <v>20</v>
       </c>
-      <c r="V3" s="25">
+      <c r="V3" s="24">
         <v>21</v>
       </c>
-      <c r="W3" s="25">
+      <c r="W3" s="24">
         <v>22</v>
       </c>
-      <c r="X3" s="25">
+      <c r="X3" s="24">
         <v>23</v>
       </c>
-      <c r="Y3" s="25">
+      <c r="Y3" s="24">
         <v>24</v>
       </c>
-      <c r="Z3" s="25">
+      <c r="Z3" s="24">
         <v>25</v>
       </c>
-      <c r="AA3" s="25">
+      <c r="AA3" s="24">
         <v>26</v>
       </c>
-      <c r="AB3" s="25">
+      <c r="AB3" s="24">
         <v>27</v>
       </c>
-      <c r="AC3" s="25">
+      <c r="AC3" s="24">
         <v>28</v>
       </c>
-      <c r="AD3" s="25">
+      <c r="AD3" s="24">
         <v>29</v>
       </c>
-      <c r="AE3" s="26">
+      <c r="AE3" s="25">
         <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:31">
-      <c r="A4" s="19" t="s">
+      <c r="A4" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4" s="21"/>
-      <c r="D4" s="21"/>
-      <c r="E4" s="21"/>
-      <c r="F4" s="21"/>
-      <c r="G4" s="21"/>
-      <c r="H4" s="21"/>
-      <c r="I4" s="21"/>
-      <c r="J4" s="21"/>
-      <c r="K4" s="21"/>
-      <c r="L4" s="21"/>
-      <c r="M4" s="21"/>
-      <c r="N4" s="21"/>
-      <c r="O4" s="21"/>
-      <c r="P4" s="21"/>
-      <c r="Q4" s="21"/>
-      <c r="R4" s="21"/>
-      <c r="S4" s="21"/>
-      <c r="T4" s="21"/>
-      <c r="U4" s="21"/>
-      <c r="V4" s="21"/>
-      <c r="W4" s="21"/>
-      <c r="X4" s="21"/>
-      <c r="Y4" s="21"/>
-      <c r="Z4" s="21"/>
-      <c r="AA4" s="21"/>
-      <c r="AB4" s="21"/>
-      <c r="AC4" s="21"/>
-      <c r="AD4" s="21"/>
-      <c r="AE4" s="22"/>
+      <c r="B4" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="E4" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="F4" s="20"/>
+      <c r="G4" s="20"/>
+      <c r="H4" s="20"/>
+      <c r="I4" s="20"/>
+      <c r="J4" s="20"/>
+      <c r="K4" s="20"/>
+      <c r="L4" s="20"/>
+      <c r="M4" s="20"/>
+      <c r="N4" s="20"/>
+      <c r="O4" s="20"/>
+      <c r="P4" s="20"/>
+      <c r="Q4" s="20"/>
+      <c r="R4" s="20"/>
+      <c r="S4" s="20"/>
+      <c r="T4" s="20"/>
+      <c r="U4" s="20"/>
+      <c r="V4" s="20"/>
+      <c r="W4" s="20"/>
+      <c r="X4" s="20"/>
+      <c r="Y4" s="20"/>
+      <c r="Z4" s="20"/>
+      <c r="AA4" s="20"/>
+      <c r="AB4" s="20"/>
+      <c r="AC4" s="20"/>
+      <c r="AD4" s="20"/>
+      <c r="AE4" s="21"/>
     </row>
     <row r="5" spans="1:31">
-      <c r="A5" s="10">
+      <c r="A5" s="9">
         <v>1250</v>
       </c>
-      <c r="B5" s="9"/>
-      <c r="C5" s="3"/>
+      <c r="B5" s="8"/>
+      <c r="C5" s="3" t="s">
+        <v>0</v>
+      </c>
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
@@ -1881,18 +1889,24 @@
       <c r="AB5" s="3"/>
       <c r="AC5" s="3"/>
       <c r="AD5" s="3"/>
-      <c r="AE5" s="8"/>
+      <c r="AE5" s="7"/>
     </row>
     <row r="6" spans="1:31">
-      <c r="A6" s="10">
+      <c r="A6" s="9">
         <v>1252</v>
       </c>
-      <c r="B6" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
+      <c r="B6" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>0</v>
+      </c>
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
       <c r="H6" s="3"/>
@@ -1918,17 +1932,21 @@
       <c r="AB6" s="3"/>
       <c r="AC6" s="3"/>
       <c r="AD6" s="3"/>
-      <c r="AE6" s="8"/>
+      <c r="AE6" s="7"/>
     </row>
     <row r="7" spans="1:31">
-      <c r="A7" s="10">
+      <c r="A7" s="9">
         <v>1276</v>
       </c>
-      <c r="B7" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
+      <c r="B7" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>0</v>
+      </c>
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
@@ -1955,13 +1973,13 @@
       <c r="AB7" s="3"/>
       <c r="AC7" s="3"/>
       <c r="AD7" s="3"/>
-      <c r="AE7" s="8"/>
+      <c r="AE7" s="7"/>
     </row>
     <row r="8" spans="1:31">
-      <c r="A8" s="10">
+      <c r="A8" s="9">
         <v>1291</v>
       </c>
-      <c r="B8" s="9"/>
+      <c r="B8" s="8"/>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
@@ -1990,13 +2008,13 @@
       <c r="AB8" s="3"/>
       <c r="AC8" s="3"/>
       <c r="AD8" s="3"/>
-      <c r="AE8" s="8"/>
+      <c r="AE8" s="7"/>
     </row>
     <row r="9" spans="1:31">
-      <c r="A9" s="10">
+      <c r="A9" s="9">
         <v>2831</v>
       </c>
-      <c r="B9" s="9"/>
+      <c r="B9" s="8"/>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
@@ -2025,13 +2043,13 @@
       <c r="AB9" s="3"/>
       <c r="AC9" s="3"/>
       <c r="AD9" s="3"/>
-      <c r="AE9" s="8"/>
+      <c r="AE9" s="7"/>
     </row>
     <row r="10" spans="1:31">
-      <c r="A10" s="10">
+      <c r="A10" s="9">
         <v>2963</v>
       </c>
-      <c r="B10" s="9"/>
+      <c r="B10" s="8"/>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
@@ -2060,13 +2078,13 @@
       <c r="AB10" s="3"/>
       <c r="AC10" s="3"/>
       <c r="AD10" s="3"/>
-      <c r="AE10" s="8"/>
+      <c r="AE10" s="7"/>
     </row>
     <row r="11" spans="1:31">
-      <c r="A11" s="10">
+      <c r="A11" s="9">
         <v>4189</v>
       </c>
-      <c r="B11" s="9"/>
+      <c r="B11" s="8"/>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
@@ -2095,13 +2113,13 @@
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
       <c r="AD11" s="3"/>
-      <c r="AE11" s="8"/>
+      <c r="AE11" s="7"/>
     </row>
     <row r="12" spans="1:31">
-      <c r="A12" s="10">
+      <c r="A12" s="9">
         <v>4309</v>
       </c>
-      <c r="B12" s="9"/>
+      <c r="B12" s="8"/>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
@@ -2130,13 +2148,13 @@
       <c r="AB12" s="3"/>
       <c r="AC12" s="3"/>
       <c r="AD12" s="3"/>
-      <c r="AE12" s="8"/>
+      <c r="AE12" s="7"/>
     </row>
     <row r="13" spans="1:31">
-      <c r="A13" s="10">
+      <c r="A13" s="9">
         <v>4729</v>
       </c>
-      <c r="B13" s="9"/>
+      <c r="B13" s="8"/>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
@@ -2165,13 +2183,13 @@
       <c r="AB13" s="3"/>
       <c r="AC13" s="3"/>
       <c r="AD13" s="3"/>
-      <c r="AE13" s="8"/>
+      <c r="AE13" s="7"/>
     </row>
     <row r="14" spans="1:31">
-      <c r="A14" s="10">
+      <c r="A14" s="9">
         <v>4730</v>
       </c>
-      <c r="B14" s="9"/>
+      <c r="B14" s="8"/>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
@@ -2200,17 +2218,21 @@
       <c r="AB14" s="3"/>
       <c r="AC14" s="3"/>
       <c r="AD14" s="3"/>
-      <c r="AE14" s="8"/>
+      <c r="AE14" s="7"/>
     </row>
     <row r="15" spans="1:31">
-      <c r="A15" s="10">
+      <c r="A15" s="9">
         <v>4995</v>
       </c>
-      <c r="B15" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
+      <c r="B15" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>0</v>
+      </c>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
@@ -2237,18 +2259,18 @@
       <c r="AB15" s="3"/>
       <c r="AC15" s="3"/>
       <c r="AD15" s="3"/>
-      <c r="AE15" s="8"/>
+      <c r="AE15" s="7"/>
     </row>
     <row r="16" spans="1:31">
-      <c r="A16" s="10">
-        <v>6130</v>
-      </c>
-      <c r="B16" s="9" t="s">
-        <v>0</v>
-      </c>
+      <c r="A16" s="9">
+        <v>6172</v>
+      </c>
+      <c r="B16" s="8"/>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
+      <c r="E16" s="3" t="s">
+        <v>0</v>
+      </c>
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
       <c r="H16" s="3"/>
@@ -2274,16 +2296,18 @@
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
       <c r="AD16" s="3"/>
-      <c r="AE16" s="8"/>
+      <c r="AE16" s="7"/>
     </row>
     <row r="17" spans="1:31">
-      <c r="A17" s="10">
-        <v>6982</v>
-      </c>
-      <c r="B17" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="C17" s="3"/>
+      <c r="A17" s="9">
+        <v>6130</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>0</v>
+      </c>
       <c r="D17" s="3"/>
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
@@ -2311,164 +2335,203 @@
       <c r="AB17" s="3"/>
       <c r="AC17" s="3"/>
       <c r="AD17" s="3"/>
-      <c r="AE17" s="8"/>
-    </row>
-    <row r="18" spans="1:31" ht="16.5" thickBot="1">
-      <c r="A18" s="11">
+      <c r="AE17" s="7"/>
+    </row>
+    <row r="18" spans="1:31">
+      <c r="A18" s="9">
+        <v>6982</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+      <c r="K18" s="3"/>
+      <c r="L18" s="3"/>
+      <c r="M18" s="3"/>
+      <c r="N18" s="3"/>
+      <c r="O18" s="3"/>
+      <c r="P18" s="3"/>
+      <c r="Q18" s="3"/>
+      <c r="R18" s="3"/>
+      <c r="S18" s="3"/>
+      <c r="T18" s="3"/>
+      <c r="U18" s="3"/>
+      <c r="V18" s="3"/>
+      <c r="W18" s="3"/>
+      <c r="X18" s="3"/>
+      <c r="Y18" s="3"/>
+      <c r="Z18" s="3"/>
+      <c r="AA18" s="3"/>
+      <c r="AB18" s="3"/>
+      <c r="AC18" s="3"/>
+      <c r="AD18" s="3"/>
+      <c r="AE18" s="7"/>
+    </row>
+    <row r="19" spans="1:31" ht="16.5" thickBot="1">
+      <c r="A19" s="10">
         <v>7540</v>
       </c>
-      <c r="B18" s="12"/>
-      <c r="C18" s="13"/>
-      <c r="D18" s="13"/>
-      <c r="E18" s="13"/>
-      <c r="F18" s="13"/>
-      <c r="G18" s="13"/>
-      <c r="H18" s="13"/>
-      <c r="I18" s="13"/>
-      <c r="J18" s="13"/>
-      <c r="K18" s="13"/>
-      <c r="L18" s="13"/>
-      <c r="M18" s="13"/>
-      <c r="N18" s="13"/>
-      <c r="O18" s="13"/>
-      <c r="P18" s="13"/>
-      <c r="Q18" s="13"/>
-      <c r="R18" s="13"/>
-      <c r="S18" s="13"/>
-      <c r="T18" s="13"/>
-      <c r="U18" s="13"/>
-      <c r="V18" s="13"/>
-      <c r="W18" s="13"/>
-      <c r="X18" s="13"/>
-      <c r="Y18" s="13"/>
-      <c r="Z18" s="13"/>
-      <c r="AA18" s="13"/>
-      <c r="AB18" s="13"/>
-      <c r="AC18" s="13"/>
-      <c r="AD18" s="13"/>
-      <c r="AE18" s="14"/>
-    </row>
-    <row r="19" spans="1:31" ht="16.5" thickBot="1">
-      <c r="A19" s="15" t="s">
+      <c r="B19" s="11"/>
+      <c r="C19" s="12"/>
+      <c r="D19" s="12"/>
+      <c r="E19" s="12"/>
+      <c r="F19" s="12"/>
+      <c r="G19" s="12"/>
+      <c r="H19" s="12"/>
+      <c r="I19" s="12"/>
+      <c r="J19" s="12"/>
+      <c r="K19" s="12"/>
+      <c r="L19" s="12"/>
+      <c r="M19" s="12"/>
+      <c r="N19" s="12"/>
+      <c r="O19" s="12"/>
+      <c r="P19" s="12"/>
+      <c r="Q19" s="12"/>
+      <c r="R19" s="12"/>
+      <c r="S19" s="12"/>
+      <c r="T19" s="12"/>
+      <c r="U19" s="12"/>
+      <c r="V19" s="12"/>
+      <c r="W19" s="12"/>
+      <c r="X19" s="12"/>
+      <c r="Y19" s="12"/>
+      <c r="Z19" s="12"/>
+      <c r="AA19" s="12"/>
+      <c r="AB19" s="12"/>
+      <c r="AC19" s="12"/>
+      <c r="AD19" s="12"/>
+      <c r="AE19" s="13"/>
+    </row>
+    <row r="20" spans="1:31" ht="16.5" thickBot="1">
+      <c r="A20" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="B19" s="16">
-        <f t="shared" ref="B19:R19" si="0">COUNTIF(B4:B18,"х")</f>
+      <c r="B20" s="15">
+        <f t="shared" ref="B20:R20" si="0">COUNTIF(B4:B19,"х")</f>
         <v>6</v>
       </c>
-      <c r="C19" s="17">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D19" s="17">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E19" s="17">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F19" s="17">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G19" s="17">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H19" s="17">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I19" s="17">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J19" s="17">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K19" s="17">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L19" s="17">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M19" s="17">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="N19" s="17">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O19" s="17">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="P19" s="17">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Q19" s="17">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R19" s="17">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="S19" s="17">
-        <f>COUNTIF(S4:S18,"х")</f>
-        <v>0</v>
-      </c>
-      <c r="T19" s="17">
-        <f t="shared" ref="T19:AE19" si="1">COUNTIF(T4:T18,"х")</f>
-        <v>0</v>
-      </c>
-      <c r="U19" s="17">
+      <c r="C20" s="16">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="D20" s="16">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="E20" s="16">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="F20" s="16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G20" s="16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H20" s="16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I20" s="16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J20" s="16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K20" s="16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L20" s="16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M20" s="16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N20" s="16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O20" s="16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P20" s="16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q20" s="16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R20" s="16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="S20" s="16">
+        <f>COUNTIF(S4:S19,"х")</f>
+        <v>0</v>
+      </c>
+      <c r="T20" s="16">
+        <f t="shared" ref="T20:AE20" si="1">COUNTIF(T4:T19,"х")</f>
+        <v>0</v>
+      </c>
+      <c r="U20" s="16">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="V19" s="17">
+      <c r="V20" s="16">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="W19" s="17">
+      <c r="W20" s="16">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="X19" s="17">
+      <c r="X20" s="16">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="Y19" s="17">
+      <c r="Y20" s="16">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="Z19" s="17">
+      <c r="Z20" s="16">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AA19" s="17">
+      <c r="AA20" s="16">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AB19" s="17">
+      <c r="AB20" s="16">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AC19" s="17">
+      <c r="AC20" s="16">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AD19" s="17">
+      <c r="AD20" s="16">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AE19" s="18">
+      <c r="AE20" s="17">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>

--- a/Табели/!Табель не работающих АСДУ.xlsx
+++ b/Табели/!Табель не работающих АСДУ.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="3">
   <si>
     <t>х</t>
   </si>
@@ -72,7 +72,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="17">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -154,56 +154,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right style="thin">
         <color indexed="64"/>
@@ -300,7 +250,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -327,52 +277,40 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -693,41 +631,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:32">
-      <c r="A1" s="26" t="str">
+      <c r="A1" s="22" t="str">
         <f ca="1">"Не работающие АСДУ на автомобилях за " &amp;  MID(CELL("имяфайла",A1),SEARCH("]",CELL("имяфайла",A1))+1,255)</f>
         <v>Не работающие АСДУ на автомобилях за Октябрь 2018</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
-      <c r="H1" s="26"/>
-      <c r="I1" s="26"/>
-      <c r="J1" s="26"/>
-      <c r="K1" s="26"/>
-      <c r="L1" s="26"/>
-      <c r="M1" s="26"/>
-      <c r="N1" s="26"/>
-      <c r="O1" s="26"/>
-      <c r="P1" s="26"/>
-      <c r="Q1" s="26"/>
-      <c r="R1" s="26"/>
-      <c r="S1" s="26"/>
-      <c r="T1" s="26"/>
-      <c r="U1" s="26"/>
-      <c r="V1" s="26"/>
-      <c r="W1" s="26"/>
-      <c r="X1" s="26"/>
-      <c r="Y1" s="26"/>
-      <c r="Z1" s="26"/>
-      <c r="AA1" s="26"/>
-      <c r="AB1" s="26"/>
-      <c r="AC1" s="26"/>
-      <c r="AD1" s="26"/>
-      <c r="AE1" s="26"/>
-      <c r="AF1" s="26"/>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="22"/>
+      <c r="J1" s="22"/>
+      <c r="K1" s="22"/>
+      <c r="L1" s="22"/>
+      <c r="M1" s="22"/>
+      <c r="N1" s="22"/>
+      <c r="O1" s="22"/>
+      <c r="P1" s="22"/>
+      <c r="Q1" s="22"/>
+      <c r="R1" s="22"/>
+      <c r="S1" s="22"/>
+      <c r="T1" s="22"/>
+      <c r="U1" s="22"/>
+      <c r="V1" s="22"/>
+      <c r="W1" s="22"/>
+      <c r="X1" s="22"/>
+      <c r="Y1" s="22"/>
+      <c r="Z1" s="22"/>
+      <c r="AA1" s="22"/>
+      <c r="AB1" s="22"/>
+      <c r="AC1" s="22"/>
+      <c r="AD1" s="22"/>
+      <c r="AE1" s="22"/>
+      <c r="AF1" s="22"/>
     </row>
     <row r="3" spans="1:32">
       <c r="A3" s="5"/>
@@ -1668,10 +1606,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AE20"/>
+  <dimension ref="A1:AE12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -1682,177 +1620,177 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:31">
-      <c r="A1" s="26" t="str">
+      <c r="A1" s="22" t="str">
         <f ca="1">"Не работающие АСДУ на автомобилях за " &amp;  MID(CELL("имяфайла",A1),SEARCH("]",CELL("имяфайла",A1))+1,255)</f>
         <v>Не работающие АСДУ на автомобилях за Ноябрь 2018</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
-      <c r="H1" s="26"/>
-      <c r="I1" s="26"/>
-      <c r="J1" s="26"/>
-      <c r="K1" s="26"/>
-      <c r="L1" s="26"/>
-      <c r="M1" s="26"/>
-      <c r="N1" s="26"/>
-      <c r="O1" s="26"/>
-      <c r="P1" s="26"/>
-      <c r="Q1" s="26"/>
-      <c r="R1" s="26"/>
-      <c r="S1" s="26"/>
-      <c r="T1" s="26"/>
-      <c r="U1" s="26"/>
-      <c r="V1" s="26"/>
-      <c r="W1" s="26"/>
-      <c r="X1" s="26"/>
-      <c r="Y1" s="26"/>
-      <c r="Z1" s="26"/>
-      <c r="AA1" s="26"/>
-      <c r="AB1" s="26"/>
-      <c r="AC1" s="26"/>
-      <c r="AD1" s="26"/>
-      <c r="AE1" s="26"/>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="22"/>
+      <c r="J1" s="22"/>
+      <c r="K1" s="22"/>
+      <c r="L1" s="22"/>
+      <c r="M1" s="22"/>
+      <c r="N1" s="22"/>
+      <c r="O1" s="22"/>
+      <c r="P1" s="22"/>
+      <c r="Q1" s="22"/>
+      <c r="R1" s="22"/>
+      <c r="S1" s="22"/>
+      <c r="T1" s="22"/>
+      <c r="U1" s="22"/>
+      <c r="V1" s="22"/>
+      <c r="W1" s="22"/>
+      <c r="X1" s="22"/>
+      <c r="Y1" s="22"/>
+      <c r="Z1" s="22"/>
+      <c r="AA1" s="22"/>
+      <c r="AB1" s="22"/>
+      <c r="AC1" s="22"/>
+      <c r="AD1" s="22"/>
+      <c r="AE1" s="22"/>
     </row>
     <row r="2" spans="1:31" ht="16.5" thickBot="1"/>
     <row r="3" spans="1:31" ht="16.5" thickBot="1">
-      <c r="A3" s="14"/>
-      <c r="B3" s="22">
+      <c r="A3" s="10"/>
+      <c r="B3" s="18">
         <v>1</v>
       </c>
-      <c r="C3" s="23">
+      <c r="C3" s="19">
         <v>2</v>
       </c>
-      <c r="D3" s="23">
+      <c r="D3" s="19">
         <v>3</v>
       </c>
-      <c r="E3" s="23">
+      <c r="E3" s="19">
         <v>4</v>
       </c>
-      <c r="F3" s="23">
+      <c r="F3" s="19">
         <v>5</v>
       </c>
-      <c r="G3" s="23">
+      <c r="G3" s="19">
         <v>6</v>
       </c>
-      <c r="H3" s="23">
+      <c r="H3" s="19">
         <v>7</v>
       </c>
-      <c r="I3" s="23">
+      <c r="I3" s="19">
         <v>8</v>
       </c>
-      <c r="J3" s="23">
+      <c r="J3" s="19">
         <v>9</v>
       </c>
-      <c r="K3" s="23">
+      <c r="K3" s="19">
         <v>10</v>
       </c>
-      <c r="L3" s="23">
+      <c r="L3" s="19">
         <v>11</v>
       </c>
-      <c r="M3" s="23">
+      <c r="M3" s="19">
         <v>12</v>
       </c>
-      <c r="N3" s="23">
+      <c r="N3" s="19">
         <v>13</v>
       </c>
-      <c r="O3" s="23">
+      <c r="O3" s="19">
         <v>14</v>
       </c>
-      <c r="P3" s="23">
+      <c r="P3" s="19">
         <v>15</v>
       </c>
-      <c r="Q3" s="23">
+      <c r="Q3" s="19">
         <v>16</v>
       </c>
-      <c r="R3" s="23">
+      <c r="R3" s="19">
         <v>17</v>
       </c>
-      <c r="S3" s="24">
+      <c r="S3" s="20">
         <v>18</v>
       </c>
-      <c r="T3" s="24">
+      <c r="T3" s="20">
         <v>19</v>
       </c>
-      <c r="U3" s="24">
+      <c r="U3" s="20">
         <v>20</v>
       </c>
-      <c r="V3" s="24">
+      <c r="V3" s="20">
         <v>21</v>
       </c>
-      <c r="W3" s="24">
+      <c r="W3" s="20">
         <v>22</v>
       </c>
-      <c r="X3" s="24">
+      <c r="X3" s="20">
         <v>23</v>
       </c>
-      <c r="Y3" s="24">
+      <c r="Y3" s="20">
         <v>24</v>
       </c>
-      <c r="Z3" s="24">
+      <c r="Z3" s="20">
         <v>25</v>
       </c>
-      <c r="AA3" s="24">
+      <c r="AA3" s="20">
         <v>26</v>
       </c>
-      <c r="AB3" s="24">
+      <c r="AB3" s="20">
         <v>27</v>
       </c>
-      <c r="AC3" s="24">
+      <c r="AC3" s="20">
         <v>28</v>
       </c>
-      <c r="AD3" s="24">
+      <c r="AD3" s="20">
         <v>29</v>
       </c>
-      <c r="AE3" s="25">
+      <c r="AE3" s="21">
         <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:31">
-      <c r="A4" s="18" t="s">
+      <c r="A4" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="D4" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="E4" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="F4" s="20"/>
-      <c r="G4" s="20"/>
-      <c r="H4" s="20"/>
-      <c r="I4" s="20"/>
-      <c r="J4" s="20"/>
-      <c r="K4" s="20"/>
-      <c r="L4" s="20"/>
-      <c r="M4" s="20"/>
-      <c r="N4" s="20"/>
-      <c r="O4" s="20"/>
-      <c r="P4" s="20"/>
-      <c r="Q4" s="20"/>
-      <c r="R4" s="20"/>
-      <c r="S4" s="20"/>
-      <c r="T4" s="20"/>
-      <c r="U4" s="20"/>
-      <c r="V4" s="20"/>
-      <c r="W4" s="20"/>
-      <c r="X4" s="20"/>
-      <c r="Y4" s="20"/>
-      <c r="Z4" s="20"/>
-      <c r="AA4" s="20"/>
-      <c r="AB4" s="20"/>
-      <c r="AC4" s="20"/>
-      <c r="AD4" s="20"/>
-      <c r="AE4" s="21"/>
+      <c r="B4" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="E4" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="F4" s="16"/>
+      <c r="G4" s="16"/>
+      <c r="H4" s="16"/>
+      <c r="I4" s="16"/>
+      <c r="J4" s="16"/>
+      <c r="K4" s="16"/>
+      <c r="L4" s="16"/>
+      <c r="M4" s="16"/>
+      <c r="N4" s="16"/>
+      <c r="O4" s="16"/>
+      <c r="P4" s="16"/>
+      <c r="Q4" s="16"/>
+      <c r="R4" s="16"/>
+      <c r="S4" s="16"/>
+      <c r="T4" s="16"/>
+      <c r="U4" s="16"/>
+      <c r="V4" s="16"/>
+      <c r="W4" s="16"/>
+      <c r="X4" s="16"/>
+      <c r="Y4" s="16"/>
+      <c r="Z4" s="16"/>
+      <c r="AA4" s="16"/>
+      <c r="AB4" s="16"/>
+      <c r="AC4" s="16"/>
+      <c r="AD4" s="16"/>
+      <c r="AE4" s="17"/>
     </row>
     <row r="5" spans="1:31">
       <c r="A5" s="9">
@@ -1864,7 +1802,9 @@
       </c>
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
+      <c r="F5" s="3" t="s">
+        <v>0</v>
+      </c>
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
       <c r="I5" s="3"/>
@@ -1907,7 +1847,9 @@
       <c r="E6" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="F6" s="3"/>
+      <c r="F6" s="3" t="s">
+        <v>0</v>
+      </c>
       <c r="G6" s="3"/>
       <c r="H6" s="3"/>
       <c r="I6" s="3"/>
@@ -1948,7 +1890,9 @@
         <v>0</v>
       </c>
       <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
+      <c r="F7" s="3" t="s">
+        <v>0</v>
+      </c>
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
       <c r="I7" s="3"/>
@@ -1977,11 +1921,17 @@
     </row>
     <row r="8" spans="1:31">
       <c r="A8" s="9">
-        <v>1291</v>
-      </c>
-      <c r="B8" s="8"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
+        <v>4995</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>0</v>
+      </c>
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
@@ -2012,12 +1962,14 @@
     </row>
     <row r="9" spans="1:31">
       <c r="A9" s="9">
-        <v>2831</v>
+        <v>6172</v>
       </c>
       <c r="B9" s="8"/>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
+      <c r="E9" s="3" t="s">
+        <v>0</v>
+      </c>
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
       <c r="H9" s="3"/>
@@ -2047,13 +1999,19 @@
     </row>
     <row r="10" spans="1:31">
       <c r="A10" s="9">
-        <v>2963</v>
-      </c>
-      <c r="B10" s="8"/>
-      <c r="C10" s="3"/>
+        <v>6130</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>0</v>
+      </c>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
+      <c r="F10" s="3" t="s">
+        <v>0</v>
+      </c>
       <c r="G10" s="3"/>
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
@@ -2080,12 +2038,16 @@
       <c r="AD10" s="3"/>
       <c r="AE10" s="7"/>
     </row>
-    <row r="11" spans="1:31">
+    <row r="11" spans="1:31" ht="16.5" thickBot="1">
       <c r="A11" s="9">
-        <v>4189</v>
-      </c>
-      <c r="B11" s="8"/>
-      <c r="C11" s="3"/>
+        <v>6982</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>0</v>
+      </c>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
@@ -2115,424 +2077,128 @@
       <c r="AD11" s="3"/>
       <c r="AE11" s="7"/>
     </row>
-    <row r="12" spans="1:31">
-      <c r="A12" s="9">
-        <v>4309</v>
-      </c>
-      <c r="B12" s="8"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
-      <c r="J12" s="3"/>
-      <c r="K12" s="3"/>
-      <c r="L12" s="3"/>
-      <c r="M12" s="3"/>
-      <c r="N12" s="3"/>
-      <c r="O12" s="3"/>
-      <c r="P12" s="3"/>
-      <c r="Q12" s="3"/>
-      <c r="R12" s="3"/>
-      <c r="S12" s="3"/>
-      <c r="T12" s="3"/>
-      <c r="U12" s="3"/>
-      <c r="V12" s="3"/>
-      <c r="W12" s="3"/>
-      <c r="X12" s="3"/>
-      <c r="Y12" s="3"/>
-      <c r="Z12" s="3"/>
-      <c r="AA12" s="3"/>
-      <c r="AB12" s="3"/>
-      <c r="AC12" s="3"/>
-      <c r="AD12" s="3"/>
-      <c r="AE12" s="7"/>
-    </row>
-    <row r="13" spans="1:31">
-      <c r="A13" s="9">
-        <v>4729</v>
-      </c>
-      <c r="B13" s="8"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
-      <c r="J13" s="3"/>
-      <c r="K13" s="3"/>
-      <c r="L13" s="3"/>
-      <c r="M13" s="3"/>
-      <c r="N13" s="3"/>
-      <c r="O13" s="3"/>
-      <c r="P13" s="3"/>
-      <c r="Q13" s="3"/>
-      <c r="R13" s="3"/>
-      <c r="S13" s="3"/>
-      <c r="T13" s="3"/>
-      <c r="U13" s="3"/>
-      <c r="V13" s="3"/>
-      <c r="W13" s="3"/>
-      <c r="X13" s="3"/>
-      <c r="Y13" s="3"/>
-      <c r="Z13" s="3"/>
-      <c r="AA13" s="3"/>
-      <c r="AB13" s="3"/>
-      <c r="AC13" s="3"/>
-      <c r="AD13" s="3"/>
-      <c r="AE13" s="7"/>
-    </row>
-    <row r="14" spans="1:31">
-      <c r="A14" s="9">
-        <v>4730</v>
-      </c>
-      <c r="B14" s="8"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
-      <c r="J14" s="3"/>
-      <c r="K14" s="3"/>
-      <c r="L14" s="3"/>
-      <c r="M14" s="3"/>
-      <c r="N14" s="3"/>
-      <c r="O14" s="3"/>
-      <c r="P14" s="3"/>
-      <c r="Q14" s="3"/>
-      <c r="R14" s="3"/>
-      <c r="S14" s="3"/>
-      <c r="T14" s="3"/>
-      <c r="U14" s="3"/>
-      <c r="V14" s="3"/>
-      <c r="W14" s="3"/>
-      <c r="X14" s="3"/>
-      <c r="Y14" s="3"/>
-      <c r="Z14" s="3"/>
-      <c r="AA14" s="3"/>
-      <c r="AB14" s="3"/>
-      <c r="AC14" s="3"/>
-      <c r="AD14" s="3"/>
-      <c r="AE14" s="7"/>
-    </row>
-    <row r="15" spans="1:31">
-      <c r="A15" s="9">
-        <v>4995</v>
-      </c>
-      <c r="B15" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
-      <c r="J15" s="3"/>
-      <c r="K15" s="3"/>
-      <c r="L15" s="3"/>
-      <c r="M15" s="3"/>
-      <c r="N15" s="3"/>
-      <c r="O15" s="3"/>
-      <c r="P15" s="3"/>
-      <c r="Q15" s="3"/>
-      <c r="R15" s="3"/>
-      <c r="S15" s="3"/>
-      <c r="T15" s="3"/>
-      <c r="U15" s="3"/>
-      <c r="V15" s="3"/>
-      <c r="W15" s="3"/>
-      <c r="X15" s="3"/>
-      <c r="Y15" s="3"/>
-      <c r="Z15" s="3"/>
-      <c r="AA15" s="3"/>
-      <c r="AB15" s="3"/>
-      <c r="AC15" s="3"/>
-      <c r="AD15" s="3"/>
-      <c r="AE15" s="7"/>
-    </row>
-    <row r="16" spans="1:31">
-      <c r="A16" s="9">
-        <v>6172</v>
-      </c>
-      <c r="B16" s="8"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
-      <c r="I16" s="3"/>
-      <c r="J16" s="3"/>
-      <c r="K16" s="3"/>
-      <c r="L16" s="3"/>
-      <c r="M16" s="3"/>
-      <c r="N16" s="3"/>
-      <c r="O16" s="3"/>
-      <c r="P16" s="3"/>
-      <c r="Q16" s="3"/>
-      <c r="R16" s="3"/>
-      <c r="S16" s="3"/>
-      <c r="T16" s="3"/>
-      <c r="U16" s="3"/>
-      <c r="V16" s="3"/>
-      <c r="W16" s="3"/>
-      <c r="X16" s="3"/>
-      <c r="Y16" s="3"/>
-      <c r="Z16" s="3"/>
-      <c r="AA16" s="3"/>
-      <c r="AB16" s="3"/>
-      <c r="AC16" s="3"/>
-      <c r="AD16" s="3"/>
-      <c r="AE16" s="7"/>
-    </row>
-    <row r="17" spans="1:31">
-      <c r="A17" s="9">
-        <v>6130</v>
-      </c>
-      <c r="B17" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
-      <c r="I17" s="3"/>
-      <c r="J17" s="3"/>
-      <c r="K17" s="3"/>
-      <c r="L17" s="3"/>
-      <c r="M17" s="3"/>
-      <c r="N17" s="3"/>
-      <c r="O17" s="3"/>
-      <c r="P17" s="3"/>
-      <c r="Q17" s="3"/>
-      <c r="R17" s="3"/>
-      <c r="S17" s="3"/>
-      <c r="T17" s="3"/>
-      <c r="U17" s="3"/>
-      <c r="V17" s="3"/>
-      <c r="W17" s="3"/>
-      <c r="X17" s="3"/>
-      <c r="Y17" s="3"/>
-      <c r="Z17" s="3"/>
-      <c r="AA17" s="3"/>
-      <c r="AB17" s="3"/>
-      <c r="AC17" s="3"/>
-      <c r="AD17" s="3"/>
-      <c r="AE17" s="7"/>
-    </row>
-    <row r="18" spans="1:31">
-      <c r="A18" s="9">
-        <v>6982</v>
-      </c>
-      <c r="B18" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
-      <c r="I18" s="3"/>
-      <c r="J18" s="3"/>
-      <c r="K18" s="3"/>
-      <c r="L18" s="3"/>
-      <c r="M18" s="3"/>
-      <c r="N18" s="3"/>
-      <c r="O18" s="3"/>
-      <c r="P18" s="3"/>
-      <c r="Q18" s="3"/>
-      <c r="R18" s="3"/>
-      <c r="S18" s="3"/>
-      <c r="T18" s="3"/>
-      <c r="U18" s="3"/>
-      <c r="V18" s="3"/>
-      <c r="W18" s="3"/>
-      <c r="X18" s="3"/>
-      <c r="Y18" s="3"/>
-      <c r="Z18" s="3"/>
-      <c r="AA18" s="3"/>
-      <c r="AB18" s="3"/>
-      <c r="AC18" s="3"/>
-      <c r="AD18" s="3"/>
-      <c r="AE18" s="7"/>
-    </row>
-    <row r="19" spans="1:31" ht="16.5" thickBot="1">
-      <c r="A19" s="10">
-        <v>7540</v>
-      </c>
-      <c r="B19" s="11"/>
-      <c r="C19" s="12"/>
-      <c r="D19" s="12"/>
-      <c r="E19" s="12"/>
-      <c r="F19" s="12"/>
-      <c r="G19" s="12"/>
-      <c r="H19" s="12"/>
-      <c r="I19" s="12"/>
-      <c r="J19" s="12"/>
-      <c r="K19" s="12"/>
-      <c r="L19" s="12"/>
-      <c r="M19" s="12"/>
-      <c r="N19" s="12"/>
-      <c r="O19" s="12"/>
-      <c r="P19" s="12"/>
-      <c r="Q19" s="12"/>
-      <c r="R19" s="12"/>
-      <c r="S19" s="12"/>
-      <c r="T19" s="12"/>
-      <c r="U19" s="12"/>
-      <c r="V19" s="12"/>
-      <c r="W19" s="12"/>
-      <c r="X19" s="12"/>
-      <c r="Y19" s="12"/>
-      <c r="Z19" s="12"/>
-      <c r="AA19" s="12"/>
-      <c r="AB19" s="12"/>
-      <c r="AC19" s="12"/>
-      <c r="AD19" s="12"/>
-      <c r="AE19" s="13"/>
-    </row>
-    <row r="20" spans="1:31" ht="16.5" thickBot="1">
-      <c r="A20" s="14" t="s">
+    <row r="12" spans="1:31" ht="16.5" thickBot="1">
+      <c r="A12" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B20" s="15">
-        <f t="shared" ref="B20:R20" si="0">COUNTIF(B4:B19,"х")</f>
+      <c r="B12" s="11">
+        <f>COUNTIF(B4:B11,"х")</f>
         <v>6</v>
       </c>
-      <c r="C20" s="16">
-        <f t="shared" si="0"/>
+      <c r="C12" s="12">
+        <f>COUNTIF(C4:C11,"х")</f>
         <v>7</v>
       </c>
-      <c r="D20" s="16">
-        <f t="shared" si="0"/>
+      <c r="D12" s="12">
+        <f>COUNTIF(D4:D11,"х")</f>
         <v>4</v>
       </c>
-      <c r="E20" s="16">
-        <f t="shared" si="0"/>
+      <c r="E12" s="12">
+        <f>COUNTIF(E4:E11,"х")</f>
         <v>3</v>
       </c>
-      <c r="F20" s="16">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G20" s="16">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H20" s="16">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I20" s="16">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J20" s="16">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K20" s="16">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L20" s="16">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M20" s="16">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="N20" s="16">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O20" s="16">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="P20" s="16">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Q20" s="16">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R20" s="16">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="S20" s="16">
-        <f>COUNTIF(S4:S19,"х")</f>
-        <v>0</v>
-      </c>
-      <c r="T20" s="16">
-        <f t="shared" ref="T20:AE20" si="1">COUNTIF(T4:T19,"х")</f>
-        <v>0</v>
-      </c>
-      <c r="U20" s="16">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="V20" s="16">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="W20" s="16">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="X20" s="16">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Y20" s="16">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Z20" s="16">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AA20" s="16">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AB20" s="16">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AC20" s="16">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AD20" s="16">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AE20" s="17">
-        <f t="shared" si="1"/>
+      <c r="F12" s="12">
+        <f>COUNTIF(F4:F11,"х")</f>
+        <v>4</v>
+      </c>
+      <c r="G12" s="12">
+        <f>COUNTIF(G4:G11,"х")</f>
+        <v>0</v>
+      </c>
+      <c r="H12" s="12">
+        <f>COUNTIF(H4:H11,"х")</f>
+        <v>0</v>
+      </c>
+      <c r="I12" s="12">
+        <f>COUNTIF(I4:I11,"х")</f>
+        <v>0</v>
+      </c>
+      <c r="J12" s="12">
+        <f>COUNTIF(J4:J11,"х")</f>
+        <v>0</v>
+      </c>
+      <c r="K12" s="12">
+        <f>COUNTIF(K4:K11,"х")</f>
+        <v>0</v>
+      </c>
+      <c r="L12" s="12">
+        <f>COUNTIF(L4:L11,"х")</f>
+        <v>0</v>
+      </c>
+      <c r="M12" s="12">
+        <f>COUNTIF(M4:M11,"х")</f>
+        <v>0</v>
+      </c>
+      <c r="N12" s="12">
+        <f>COUNTIF(N4:N11,"х")</f>
+        <v>0</v>
+      </c>
+      <c r="O12" s="12">
+        <f>COUNTIF(O4:O11,"х")</f>
+        <v>0</v>
+      </c>
+      <c r="P12" s="12">
+        <f>COUNTIF(P4:P11,"х")</f>
+        <v>0</v>
+      </c>
+      <c r="Q12" s="12">
+        <f>COUNTIF(Q4:Q11,"х")</f>
+        <v>0</v>
+      </c>
+      <c r="R12" s="12">
+        <f>COUNTIF(R4:R11,"х")</f>
+        <v>0</v>
+      </c>
+      <c r="S12" s="12">
+        <f>COUNTIF(S4:S11,"х")</f>
+        <v>0</v>
+      </c>
+      <c r="T12" s="12">
+        <f>COUNTIF(T4:T11,"х")</f>
+        <v>0</v>
+      </c>
+      <c r="U12" s="12">
+        <f>COUNTIF(U4:U11,"х")</f>
+        <v>0</v>
+      </c>
+      <c r="V12" s="12">
+        <f>COUNTIF(V4:V11,"х")</f>
+        <v>0</v>
+      </c>
+      <c r="W12" s="12">
+        <f>COUNTIF(W4:W11,"х")</f>
+        <v>0</v>
+      </c>
+      <c r="X12" s="12">
+        <f>COUNTIF(X4:X11,"х")</f>
+        <v>0</v>
+      </c>
+      <c r="Y12" s="12">
+        <f>COUNTIF(Y4:Y11,"х")</f>
+        <v>0</v>
+      </c>
+      <c r="Z12" s="12">
+        <f>COUNTIF(Z4:Z11,"х")</f>
+        <v>0</v>
+      </c>
+      <c r="AA12" s="12">
+        <f>COUNTIF(AA4:AA11,"х")</f>
+        <v>0</v>
+      </c>
+      <c r="AB12" s="12">
+        <f>COUNTIF(AB4:AB11,"х")</f>
+        <v>0</v>
+      </c>
+      <c r="AC12" s="12">
+        <f>COUNTIF(AC4:AC11,"х")</f>
+        <v>0</v>
+      </c>
+      <c r="AD12" s="12">
+        <f>COUNTIF(AD4:AD11,"х")</f>
+        <v>0</v>
+      </c>
+      <c r="AE12" s="13">
+        <f>COUNTIF(AE4:AE11,"х")</f>
         <v>0</v>
       </c>
     </row>

--- a/Табели/!Табель не работающих АСДУ.xlsx
+++ b/Табели/!Табель не работающих АСДУ.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="3">
   <si>
     <t>х</t>
   </si>
@@ -1609,7 +1609,7 @@
   <dimension ref="A1:AE12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -1766,8 +1766,12 @@
         <v>0</v>
       </c>
       <c r="F4" s="16"/>
-      <c r="G4" s="16"/>
-      <c r="H4" s="16"/>
+      <c r="G4" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="H4" s="16" t="s">
+        <v>0</v>
+      </c>
       <c r="I4" s="16"/>
       <c r="J4" s="16"/>
       <c r="K4" s="16"/>
@@ -1850,7 +1854,9 @@
       <c r="F6" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="G6" s="3"/>
+      <c r="G6" s="3" t="s">
+        <v>0</v>
+      </c>
       <c r="H6" s="3"/>
       <c r="I6" s="3"/>
       <c r="J6" s="3"/>
@@ -1894,7 +1900,9 @@
         <v>0</v>
       </c>
       <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
+      <c r="H7" s="3" t="s">
+        <v>0</v>
+      </c>
       <c r="I7" s="3"/>
       <c r="J7" s="3"/>
       <c r="K7" s="3"/>
@@ -2012,8 +2020,12 @@
       <c r="F10" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
+      <c r="G10" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>0</v>
+      </c>
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
       <c r="K10" s="3"/>
@@ -2082,123 +2094,123 @@
         <v>1</v>
       </c>
       <c r="B12" s="11">
-        <f>COUNTIF(B4:B11,"х")</f>
+        <f t="shared" ref="B12:AE12" si="0">COUNTIF(B4:B11,"х")</f>
         <v>6</v>
       </c>
       <c r="C12" s="12">
-        <f>COUNTIF(C4:C11,"х")</f>
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="D12" s="12">
-        <f>COUNTIF(D4:D11,"х")</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="E12" s="12">
-        <f>COUNTIF(E4:E11,"х")</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="F12" s="12">
-        <f>COUNTIF(F4:F11,"х")</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="G12" s="12">
-        <f>COUNTIF(G4:G11,"х")</f>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>3</v>
       </c>
       <c r="H12" s="12">
-        <f>COUNTIF(H4:H11,"х")</f>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>3</v>
       </c>
       <c r="I12" s="12">
-        <f>COUNTIF(I4:I11,"х")</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J12" s="12">
-        <f>COUNTIF(J4:J11,"х")</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="K12" s="12">
-        <f>COUNTIF(K4:K11,"х")</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="L12" s="12">
-        <f>COUNTIF(L4:L11,"х")</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M12" s="12">
-        <f>COUNTIF(M4:M11,"х")</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="N12" s="12">
-        <f>COUNTIF(N4:N11,"х")</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="O12" s="12">
-        <f>COUNTIF(O4:O11,"х")</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="P12" s="12">
-        <f>COUNTIF(P4:P11,"х")</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="Q12" s="12">
-        <f>COUNTIF(Q4:Q11,"х")</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="R12" s="12">
-        <f>COUNTIF(R4:R11,"х")</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="S12" s="12">
-        <f>COUNTIF(S4:S11,"х")</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="T12" s="12">
-        <f>COUNTIF(T4:T11,"х")</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="U12" s="12">
-        <f>COUNTIF(U4:U11,"х")</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="V12" s="12">
-        <f>COUNTIF(V4:V11,"х")</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="W12" s="12">
-        <f>COUNTIF(W4:W11,"х")</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="X12" s="12">
-        <f>COUNTIF(X4:X11,"х")</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="Y12" s="12">
-        <f>COUNTIF(Y4:Y11,"х")</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="Z12" s="12">
-        <f>COUNTIF(Z4:Z11,"х")</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AA12" s="12">
-        <f>COUNTIF(AA4:AA11,"х")</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AB12" s="12">
-        <f>COUNTIF(AB4:AB11,"х")</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AC12" s="12">
-        <f>COUNTIF(AC4:AC11,"х")</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AD12" s="12">
-        <f>COUNTIF(AD4:AD11,"х")</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="AE12" s="13">
-        <f>COUNTIF(AE4:AE11,"х")</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>

--- a/Табели/!Табель не работающих АСДУ.xlsx
+++ b/Табели/!Табель не работающих АСДУ.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="3">
   <si>
     <t>х</t>
   </si>
@@ -1609,7 +1609,7 @@
   <dimension ref="A1:AE12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -1772,8 +1772,12 @@
       <c r="H4" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="I4" s="16"/>
-      <c r="J4" s="16"/>
+      <c r="I4" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="J4" s="16" t="s">
+        <v>0</v>
+      </c>
       <c r="K4" s="16"/>
       <c r="L4" s="16"/>
       <c r="M4" s="16"/>
@@ -1903,8 +1907,12 @@
       <c r="H7" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="I7" s="3"/>
-      <c r="J7" s="3"/>
+      <c r="I7" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>0</v>
+      </c>
       <c r="K7" s="3"/>
       <c r="L7" s="3"/>
       <c r="M7" s="3"/>
@@ -2026,8 +2034,12 @@
       <c r="H10" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="I10" s="3"/>
-      <c r="J10" s="3"/>
+      <c r="I10" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>0</v>
+      </c>
       <c r="K10" s="3"/>
       <c r="L10" s="3"/>
       <c r="M10" s="3"/>
@@ -2065,8 +2077,12 @@
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
-      <c r="I11" s="3"/>
-      <c r="J11" s="3"/>
+      <c r="I11" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="J11" s="3" t="s">
+        <v>0</v>
+      </c>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
@@ -2123,11 +2139,11 @@
       </c>
       <c r="I12" s="12">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J12" s="12">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K12" s="12">
         <f t="shared" si="0"/>

--- a/Табели/!Табель не работающих АСДУ.xlsx
+++ b/Табели/!Табель не работающих АСДУ.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="3">
   <si>
     <t>х</t>
   </si>
@@ -1606,10 +1606,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AE12"/>
+  <dimension ref="A1:AE13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+      <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -1778,8 +1778,12 @@
       <c r="J4" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="K4" s="16"/>
-      <c r="L4" s="16"/>
+      <c r="K4" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="L4" s="16" t="s">
+        <v>0</v>
+      </c>
       <c r="M4" s="16"/>
       <c r="N4" s="16"/>
       <c r="O4" s="16"/>
@@ -1913,8 +1917,12 @@
       <c r="J7" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="K7" s="3"/>
-      <c r="L7" s="3"/>
+      <c r="K7" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="L7" s="3" t="s">
+        <v>0</v>
+      </c>
       <c r="M7" s="3"/>
       <c r="N7" s="3"/>
       <c r="O7" s="3"/>
@@ -1937,24 +1945,20 @@
     </row>
     <row r="8" spans="1:31">
       <c r="A8" s="9">
-        <v>4995</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>0</v>
-      </c>
+        <v>2961</v>
+      </c>
+      <c r="B8" s="8"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
       <c r="H8" s="3"/>
       <c r="I8" s="3"/>
       <c r="J8" s="3"/>
-      <c r="K8" s="3"/>
+      <c r="K8" s="3" t="s">
+        <v>0</v>
+      </c>
       <c r="L8" s="3"/>
       <c r="M8" s="3"/>
       <c r="N8" s="3"/>
@@ -1978,21 +1982,29 @@
     </row>
     <row r="9" spans="1:31">
       <c r="A9" s="9">
-        <v>6172</v>
-      </c>
-      <c r="B9" s="8"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3" t="s">
-        <v>0</v>
-      </c>
+        <v>4995</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E9" s="3"/>
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
       <c r="H9" s="3"/>
       <c r="I9" s="3"/>
       <c r="J9" s="3"/>
-      <c r="K9" s="3"/>
-      <c r="L9" s="3"/>
+      <c r="K9" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="L9" s="3" t="s">
+        <v>0</v>
+      </c>
       <c r="M9" s="3"/>
       <c r="N9" s="3"/>
       <c r="O9" s="3"/>
@@ -2015,31 +2027,19 @@
     </row>
     <row r="10" spans="1:31">
       <c r="A10" s="9">
-        <v>6130</v>
-      </c>
-      <c r="B10" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>0</v>
-      </c>
+        <v>6172</v>
+      </c>
+      <c r="B10" s="8"/>
+      <c r="C10" s="3"/>
       <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="I10" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="J10" s="3" t="s">
-        <v>0</v>
-      </c>
+      <c r="E10" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
       <c r="K10" s="3"/>
       <c r="L10" s="3"/>
       <c r="M10" s="3"/>
@@ -2062,9 +2062,9 @@
       <c r="AD10" s="3"/>
       <c r="AE10" s="7"/>
     </row>
-    <row r="11" spans="1:31" ht="16.5" thickBot="1">
+    <row r="11" spans="1:31">
       <c r="A11" s="9">
-        <v>6982</v>
+        <v>6130</v>
       </c>
       <c r="B11" s="8" t="s">
         <v>0</v>
@@ -2074,17 +2074,27 @@
       </c>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
+      <c r="F11" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>0</v>
+      </c>
       <c r="I11" s="3" t="s">
         <v>0</v>
       </c>
       <c r="J11" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="K11" s="3"/>
-      <c r="L11" s="3"/>
+      <c r="K11" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="L11" s="3" t="s">
+        <v>0</v>
+      </c>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
@@ -2106,126 +2116,173 @@
       <c r="AE11" s="7"/>
     </row>
     <row r="12" spans="1:31" ht="16.5" thickBot="1">
-      <c r="A12" s="10" t="s">
+      <c r="A12" s="9">
+        <v>6982</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="J12" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="K12" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="L12" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="M12" s="3"/>
+      <c r="N12" s="3"/>
+      <c r="O12" s="3"/>
+      <c r="P12" s="3"/>
+      <c r="Q12" s="3"/>
+      <c r="R12" s="3"/>
+      <c r="S12" s="3"/>
+      <c r="T12" s="3"/>
+      <c r="U12" s="3"/>
+      <c r="V12" s="3"/>
+      <c r="W12" s="3"/>
+      <c r="X12" s="3"/>
+      <c r="Y12" s="3"/>
+      <c r="Z12" s="3"/>
+      <c r="AA12" s="3"/>
+      <c r="AB12" s="3"/>
+      <c r="AC12" s="3"/>
+      <c r="AD12" s="3"/>
+      <c r="AE12" s="7"/>
+    </row>
+    <row r="13" spans="1:31" ht="16.5" thickBot="1">
+      <c r="A13" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B12" s="11">
-        <f t="shared" ref="B12:AE12" si="0">COUNTIF(B4:B11,"х")</f>
+      <c r="B13" s="11">
+        <f t="shared" ref="B13:AE13" si="0">COUNTIF(B4:B12,"х")</f>
         <v>6</v>
       </c>
-      <c r="C12" s="12">
+      <c r="C13" s="12">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="D12" s="12">
+      <c r="D13" s="12">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="E12" s="12">
+      <c r="E13" s="12">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="F12" s="12">
+      <c r="F13" s="12">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="G12" s="12">
+      <c r="G13" s="12">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="H12" s="12">
+      <c r="H13" s="12">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="I12" s="12">
+      <c r="I13" s="12">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="J12" s="12">
+      <c r="J13" s="12">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="K12" s="12">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L12" s="12">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M12" s="12">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="N12" s="12">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O12" s="12">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="P12" s="12">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Q12" s="12">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R12" s="12">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="S12" s="12">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="T12" s="12">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="U12" s="12">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="V12" s="12">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="W12" s="12">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="X12" s="12">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Y12" s="12">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Z12" s="12">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AA12" s="12">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AB12" s="12">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AC12" s="12">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AD12" s="12">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AE12" s="13">
+      <c r="K13" s="12">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="L13" s="12">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="M13" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N13" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O13" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P13" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q13" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R13" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="S13" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T13" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="U13" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="V13" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W13" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="X13" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Y13" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Z13" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AA13" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AB13" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AC13" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AD13" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AE13" s="13">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>

--- a/Табели/!Табель не работающих АСДУ.xlsx
+++ b/Табели/!Табель не работающих АСДУ.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="3">
   <si>
     <t>х</t>
   </si>
@@ -1606,10 +1606,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AE13"/>
+  <dimension ref="A1:AE14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L13" sqref="L13"/>
+      <selection activeCell="N14" sqref="N14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -1784,7 +1784,9 @@
       <c r="L4" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="M4" s="16"/>
+      <c r="M4" s="16" t="s">
+        <v>0</v>
+      </c>
       <c r="N4" s="16"/>
       <c r="O4" s="16"/>
       <c r="P4" s="16"/>
@@ -1923,8 +1925,12 @@
       <c r="L7" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="M7" s="3"/>
-      <c r="N7" s="3"/>
+      <c r="M7" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="N7" s="3" t="s">
+        <v>0</v>
+      </c>
       <c r="O7" s="3"/>
       <c r="P7" s="3"/>
       <c r="Q7" s="3"/>
@@ -1982,30 +1988,22 @@
     </row>
     <row r="9" spans="1:31">
       <c r="A9" s="9">
-        <v>4995</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>0</v>
-      </c>
+        <v>2962</v>
+      </c>
+      <c r="B9" s="8"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
       <c r="H9" s="3"/>
       <c r="I9" s="3"/>
       <c r="J9" s="3"/>
-      <c r="K9" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="L9" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="M9" s="3"/>
+      <c r="K9" s="3"/>
+      <c r="L9" s="3"/>
+      <c r="M9" s="3" t="s">
+        <v>0</v>
+      </c>
       <c r="N9" s="3"/>
       <c r="O9" s="3"/>
       <c r="P9" s="3"/>
@@ -2027,21 +2025,29 @@
     </row>
     <row r="10" spans="1:31">
       <c r="A10" s="9">
-        <v>6172</v>
-      </c>
-      <c r="B10" s="8"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3" t="s">
-        <v>0</v>
-      </c>
+        <v>4995</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E10" s="3"/>
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
-      <c r="K10" s="3"/>
-      <c r="L10" s="3"/>
+      <c r="K10" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="L10" s="3" t="s">
+        <v>0</v>
+      </c>
       <c r="M10" s="3"/>
       <c r="N10" s="3"/>
       <c r="O10" s="3"/>
@@ -2064,37 +2070,21 @@
     </row>
     <row r="11" spans="1:31">
       <c r="A11" s="9">
-        <v>6130</v>
-      </c>
-      <c r="B11" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>0</v>
-      </c>
+        <v>6172</v>
+      </c>
+      <c r="B11" s="8"/>
+      <c r="C11" s="3"/>
       <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="G11" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="H11" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="I11" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="J11" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="K11" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="L11" s="3" t="s">
-        <v>0</v>
-      </c>
+      <c r="E11" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="K11" s="3"/>
+      <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
@@ -2115,9 +2105,9 @@
       <c r="AD11" s="3"/>
       <c r="AE11" s="7"/>
     </row>
-    <row r="12" spans="1:31" ht="16.5" thickBot="1">
+    <row r="12" spans="1:31">
       <c r="A12" s="9">
-        <v>6982</v>
+        <v>6130</v>
       </c>
       <c r="B12" s="8" t="s">
         <v>0</v>
@@ -2127,9 +2117,15 @@
       </c>
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
+      <c r="F12" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>0</v>
+      </c>
       <c r="I12" s="3" t="s">
         <v>0</v>
       </c>
@@ -2142,8 +2138,12 @@
       <c r="L12" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="M12" s="3"/>
-      <c r="N12" s="3"/>
+      <c r="M12" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="N12" s="3" t="s">
+        <v>0</v>
+      </c>
       <c r="O12" s="3"/>
       <c r="P12" s="3"/>
       <c r="Q12" s="3"/>
@@ -2163,126 +2163,177 @@
       <c r="AE12" s="7"/>
     </row>
     <row r="13" spans="1:31" ht="16.5" thickBot="1">
-      <c r="A13" s="10" t="s">
+      <c r="A13" s="9">
+        <v>6982</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="J13" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="K13" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="L13" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="M13" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="N13" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="O13" s="3"/>
+      <c r="P13" s="3"/>
+      <c r="Q13" s="3"/>
+      <c r="R13" s="3"/>
+      <c r="S13" s="3"/>
+      <c r="T13" s="3"/>
+      <c r="U13" s="3"/>
+      <c r="V13" s="3"/>
+      <c r="W13" s="3"/>
+      <c r="X13" s="3"/>
+      <c r="Y13" s="3"/>
+      <c r="Z13" s="3"/>
+      <c r="AA13" s="3"/>
+      <c r="AB13" s="3"/>
+      <c r="AC13" s="3"/>
+      <c r="AD13" s="3"/>
+      <c r="AE13" s="7"/>
+    </row>
+    <row r="14" spans="1:31" ht="16.5" thickBot="1">
+      <c r="A14" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B13" s="11">
-        <f t="shared" ref="B13:AE13" si="0">COUNTIF(B4:B12,"х")</f>
+      <c r="B14" s="11">
+        <f t="shared" ref="B14:AE14" si="0">COUNTIF(B4:B13,"х")</f>
         <v>6</v>
       </c>
-      <c r="C13" s="12">
+      <c r="C14" s="12">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="D13" s="12">
+      <c r="D14" s="12">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="E13" s="12">
+      <c r="E14" s="12">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="F13" s="12">
+      <c r="F14" s="12">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="G13" s="12">
+      <c r="G14" s="12">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="H13" s="12">
+      <c r="H14" s="12">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="I13" s="12">
+      <c r="I14" s="12">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="J13" s="12">
+      <c r="J14" s="12">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="K13" s="12">
+      <c r="K14" s="12">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="L13" s="12">
+      <c r="L14" s="12">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="M13" s="12">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="N13" s="12">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O13" s="12">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="P13" s="12">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Q13" s="12">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R13" s="12">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="S13" s="12">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="T13" s="12">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="U13" s="12">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="V13" s="12">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="W13" s="12">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="X13" s="12">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Y13" s="12">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Z13" s="12">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AA13" s="12">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AB13" s="12">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AC13" s="12">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AD13" s="12">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AE13" s="13">
+      <c r="M14" s="12">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="N14" s="12">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="O14" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P14" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q14" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R14" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="S14" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T14" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="U14" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="V14" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W14" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="X14" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Y14" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Z14" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AA14" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AB14" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AC14" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AD14" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AE14" s="13">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>

--- a/Табели/!Табель не работающих АСДУ.xlsx
+++ b/Табели/!Табель не работающих АСДУ.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="4">
   <si>
     <t>х</t>
   </si>
@@ -24,6 +24,9 @@
   </si>
   <si>
     <t>0593</t>
+  </si>
+  <si>
+    <t>0682</t>
   </si>
 </sst>
 </file>
@@ -1606,10 +1609,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AE14"/>
+  <dimension ref="A1:AE16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N14" sqref="N14"/>
+      <selection activeCell="P4" sqref="P4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -1788,8 +1791,12 @@
         <v>0</v>
       </c>
       <c r="N4" s="16"/>
-      <c r="O4" s="16"/>
-      <c r="P4" s="16"/>
+      <c r="O4" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="P4" s="16" t="s">
+        <v>0</v>
+      </c>
       <c r="Q4" s="16"/>
       <c r="R4" s="16"/>
       <c r="S4" s="16"/>
@@ -1807,66 +1814,56 @@
       <c r="AE4" s="17"/>
     </row>
     <row r="5" spans="1:31">
-      <c r="A5" s="9">
-        <v>1250</v>
-      </c>
-      <c r="B5" s="8"/>
-      <c r="C5" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
-      <c r="K5" s="3"/>
-      <c r="L5" s="3"/>
-      <c r="M5" s="3"/>
-      <c r="N5" s="3"/>
-      <c r="O5" s="3"/>
-      <c r="P5" s="3"/>
-      <c r="Q5" s="3"/>
-      <c r="R5" s="3"/>
-      <c r="S5" s="3"/>
-      <c r="T5" s="3"/>
-      <c r="U5" s="3"/>
-      <c r="V5" s="3"/>
-      <c r="W5" s="3"/>
-      <c r="X5" s="3"/>
-      <c r="Y5" s="3"/>
-      <c r="Z5" s="3"/>
-      <c r="AA5" s="3"/>
-      <c r="AB5" s="3"/>
-      <c r="AC5" s="3"/>
-      <c r="AD5" s="3"/>
-      <c r="AE5" s="7"/>
+      <c r="A5" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="15"/>
+      <c r="C5" s="16"/>
+      <c r="D5" s="16"/>
+      <c r="E5" s="16"/>
+      <c r="F5" s="16"/>
+      <c r="G5" s="16"/>
+      <c r="H5" s="16"/>
+      <c r="I5" s="16"/>
+      <c r="J5" s="16"/>
+      <c r="K5" s="16"/>
+      <c r="L5" s="16"/>
+      <c r="M5" s="16"/>
+      <c r="N5" s="16"/>
+      <c r="O5" s="16"/>
+      <c r="P5" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="16"/>
+      <c r="R5" s="16"/>
+      <c r="S5" s="16"/>
+      <c r="T5" s="16"/>
+      <c r="U5" s="16"/>
+      <c r="V5" s="16"/>
+      <c r="W5" s="16"/>
+      <c r="X5" s="16"/>
+      <c r="Y5" s="16"/>
+      <c r="Z5" s="16"/>
+      <c r="AA5" s="16"/>
+      <c r="AB5" s="16"/>
+      <c r="AC5" s="16"/>
+      <c r="AD5" s="16"/>
+      <c r="AE5" s="17"/>
     </row>
     <row r="6" spans="1:31">
       <c r="A6" s="9">
-        <v>1252</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>0</v>
-      </c>
+        <v>1250</v>
+      </c>
+      <c r="B6" s="8"/>
       <c r="C6" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D6" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>0</v>
-      </c>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
       <c r="F6" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="G6" s="3" t="s">
-        <v>0</v>
-      </c>
+      <c r="G6" s="3"/>
       <c r="H6" s="3"/>
       <c r="I6" s="3"/>
       <c r="J6" s="3"/>
@@ -1894,7 +1891,7 @@
     </row>
     <row r="7" spans="1:31">
       <c r="A7" s="9">
-        <v>1276</v>
+        <v>1252</v>
       </c>
       <c r="B7" s="8" t="s">
         <v>0</v>
@@ -1905,32 +1902,22 @@
       <c r="D7" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="E7" s="3"/>
+      <c r="E7" s="3" t="s">
+        <v>0</v>
+      </c>
       <c r="F7" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="I7" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="J7" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="K7" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="L7" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="M7" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="N7" s="3" t="s">
-        <v>0</v>
-      </c>
+      <c r="G7" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="3"/>
+      <c r="M7" s="3"/>
+      <c r="N7" s="3"/>
       <c r="O7" s="3"/>
       <c r="P7" s="3"/>
       <c r="Q7" s="3"/>
@@ -1951,23 +1938,43 @@
     </row>
     <row r="8" spans="1:31">
       <c r="A8" s="9">
-        <v>2961</v>
-      </c>
-      <c r="B8" s="8"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
+        <v>1276</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>0</v>
+      </c>
       <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
+      <c r="F8" s="3" t="s">
+        <v>0</v>
+      </c>
       <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
-      <c r="J8" s="3"/>
+      <c r="H8" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>0</v>
+      </c>
       <c r="K8" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="L8" s="3"/>
-      <c r="M8" s="3"/>
-      <c r="N8" s="3"/>
+      <c r="L8" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="M8" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="N8" s="3" t="s">
+        <v>0</v>
+      </c>
       <c r="O8" s="3"/>
       <c r="P8" s="3"/>
       <c r="Q8" s="3"/>
@@ -1988,7 +1995,7 @@
     </row>
     <row r="9" spans="1:31">
       <c r="A9" s="9">
-        <v>2962</v>
+        <v>2961</v>
       </c>
       <c r="B9" s="8"/>
       <c r="C9" s="3"/>
@@ -1999,11 +2006,11 @@
       <c r="H9" s="3"/>
       <c r="I9" s="3"/>
       <c r="J9" s="3"/>
-      <c r="K9" s="3"/>
+      <c r="K9" s="3" t="s">
+        <v>0</v>
+      </c>
       <c r="L9" s="3"/>
-      <c r="M9" s="3" t="s">
-        <v>0</v>
-      </c>
+      <c r="M9" s="3"/>
       <c r="N9" s="3"/>
       <c r="O9" s="3"/>
       <c r="P9" s="3"/>
@@ -2025,30 +2032,22 @@
     </row>
     <row r="10" spans="1:31">
       <c r="A10" s="9">
-        <v>4995</v>
-      </c>
-      <c r="B10" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>0</v>
-      </c>
+        <v>2962</v>
+      </c>
+      <c r="B10" s="8"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
-      <c r="K10" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="L10" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="M10" s="3"/>
+      <c r="K10" s="3"/>
+      <c r="L10" s="3"/>
+      <c r="M10" s="3" t="s">
+        <v>0</v>
+      </c>
       <c r="N10" s="3"/>
       <c r="O10" s="3"/>
       <c r="P10" s="3"/>
@@ -2070,14 +2069,12 @@
     </row>
     <row r="11" spans="1:31">
       <c r="A11" s="9">
-        <v>6172</v>
+        <v>4729</v>
       </c>
       <c r="B11" s="8"/>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
-      <c r="E11" s="3" t="s">
-        <v>0</v>
-      </c>
+      <c r="E11" s="3"/>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
@@ -2088,7 +2085,9 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
-      <c r="P11" s="3"/>
+      <c r="P11" s="3" t="s">
+        <v>0</v>
+      </c>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
@@ -2107,7 +2106,7 @@
     </row>
     <row r="12" spans="1:31">
       <c r="A12" s="9">
-        <v>6130</v>
+        <v>4995</v>
       </c>
       <c r="B12" s="8" t="s">
         <v>0</v>
@@ -2115,35 +2114,23 @@
       <c r="C12" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D12" s="3"/>
+      <c r="D12" s="3" t="s">
+        <v>0</v>
+      </c>
       <c r="E12" s="3"/>
-      <c r="F12" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="G12" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="H12" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="I12" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="J12" s="3" t="s">
-        <v>0</v>
-      </c>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
       <c r="K12" s="3" t="s">
         <v>0</v>
       </c>
       <c r="L12" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="M12" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="N12" s="3" t="s">
-        <v>0</v>
-      </c>
+      <c r="M12" s="3"/>
+      <c r="N12" s="3"/>
       <c r="O12" s="3"/>
       <c r="P12" s="3"/>
       <c r="Q12" s="3"/>
@@ -2162,39 +2149,25 @@
       <c r="AD12" s="3"/>
       <c r="AE12" s="7"/>
     </row>
-    <row r="13" spans="1:31" ht="16.5" thickBot="1">
+    <row r="13" spans="1:31">
       <c r="A13" s="9">
-        <v>6982</v>
-      </c>
-      <c r="B13" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>0</v>
-      </c>
+        <v>6172</v>
+      </c>
+      <c r="B13" s="8"/>
+      <c r="C13" s="3"/>
       <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
+      <c r="E13" s="3" t="s">
+        <v>0</v>
+      </c>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
-      <c r="I13" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="J13" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="K13" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="L13" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="M13" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="N13" s="3" t="s">
-        <v>0</v>
-      </c>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="K13" s="3"/>
+      <c r="L13" s="3"/>
+      <c r="M13" s="3"/>
+      <c r="N13" s="3"/>
       <c r="O13" s="3"/>
       <c r="P13" s="3"/>
       <c r="Q13" s="3"/>
@@ -2213,127 +2186,243 @@
       <c r="AD13" s="3"/>
       <c r="AE13" s="7"/>
     </row>
-    <row r="14" spans="1:31" ht="16.5" thickBot="1">
-      <c r="A14" s="10" t="s">
+    <row r="14" spans="1:31">
+      <c r="A14" s="9">
+        <v>6130</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="P14" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="3"/>
+      <c r="R14" s="3"/>
+      <c r="S14" s="3"/>
+      <c r="T14" s="3"/>
+      <c r="U14" s="3"/>
+      <c r="V14" s="3"/>
+      <c r="W14" s="3"/>
+      <c r="X14" s="3"/>
+      <c r="Y14" s="3"/>
+      <c r="Z14" s="3"/>
+      <c r="AA14" s="3"/>
+      <c r="AB14" s="3"/>
+      <c r="AC14" s="3"/>
+      <c r="AD14" s="3"/>
+      <c r="AE14" s="7"/>
+    </row>
+    <row r="15" spans="1:31" ht="16.5" thickBot="1">
+      <c r="A15" s="9">
+        <v>6982</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="K15" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="L15" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="M15" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="N15" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="O15" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="P15" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="3"/>
+      <c r="R15" s="3"/>
+      <c r="S15" s="3"/>
+      <c r="T15" s="3"/>
+      <c r="U15" s="3"/>
+      <c r="V15" s="3"/>
+      <c r="W15" s="3"/>
+      <c r="X15" s="3"/>
+      <c r="Y15" s="3"/>
+      <c r="Z15" s="3"/>
+      <c r="AA15" s="3"/>
+      <c r="AB15" s="3"/>
+      <c r="AC15" s="3"/>
+      <c r="AD15" s="3"/>
+      <c r="AE15" s="7"/>
+    </row>
+    <row r="16" spans="1:31" ht="16.5" thickBot="1">
+      <c r="A16" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B14" s="11">
-        <f t="shared" ref="B14:AE14" si="0">COUNTIF(B4:B13,"х")</f>
+      <c r="B16" s="11">
+        <f t="shared" ref="B16:AE16" si="0">COUNTIF(B4:B15,"х")</f>
         <v>6</v>
       </c>
-      <c r="C14" s="12">
+      <c r="C16" s="12">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="D14" s="12">
+      <c r="D16" s="12">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="E14" s="12">
+      <c r="E16" s="12">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="F14" s="12">
+      <c r="F16" s="12">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="G14" s="12">
+      <c r="G16" s="12">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="H14" s="12">
+      <c r="H16" s="12">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="I14" s="12">
+      <c r="I16" s="12">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="J14" s="12">
+      <c r="J16" s="12">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="K14" s="12">
+      <c r="K16" s="12">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="L14" s="12">
+      <c r="L16" s="12">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="M14" s="12">
+      <c r="M16" s="12">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="N14" s="12">
+      <c r="N16" s="12">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="O14" s="12">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="P14" s="12">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Q14" s="12">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R14" s="12">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="S14" s="12">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="T14" s="12">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="U14" s="12">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="V14" s="12">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="W14" s="12">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="X14" s="12">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Y14" s="12">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Z14" s="12">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AA14" s="12">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AB14" s="12">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AC14" s="12">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AD14" s="12">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AE14" s="13">
+      <c r="O16" s="12">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="P16" s="12">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="Q16" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R16" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="S16" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T16" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="U16" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="V16" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W16" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="X16" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Y16" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Z16" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AA16" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AB16" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AC16" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AD16" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AE16" s="13">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>

--- a/Табели/!Табель не работающих АСДУ.xlsx
+++ b/Табели/!Табель не работающих АСДУ.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="4">
   <si>
     <t>х</t>
   </si>
@@ -1612,7 +1612,7 @@
   <dimension ref="A1:AE16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P4" sqref="P4"/>
+      <selection activeCell="Q16" sqref="Q16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -1797,7 +1797,9 @@
       <c r="P4" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="Q4" s="16"/>
+      <c r="Q4" s="16" t="s">
+        <v>0</v>
+      </c>
       <c r="R4" s="16"/>
       <c r="S4" s="16"/>
       <c r="T4" s="16"/>
@@ -2088,7 +2090,9 @@
       <c r="P11" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="Q11" s="3"/>
+      <c r="Q11" s="3" t="s">
+        <v>0</v>
+      </c>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
@@ -2231,7 +2235,9 @@
       <c r="P14" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="Q14" s="3"/>
+      <c r="Q14" s="3" t="s">
+        <v>0</v>
+      </c>
       <c r="R14" s="3"/>
       <c r="S14" s="3"/>
       <c r="T14" s="3"/>
@@ -2286,7 +2292,9 @@
       <c r="P15" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="Q15" s="3"/>
+      <c r="Q15" s="3" t="s">
+        <v>0</v>
+      </c>
       <c r="R15" s="3"/>
       <c r="S15" s="3"/>
       <c r="T15" s="3"/>
@@ -2368,7 +2376,7 @@
       </c>
       <c r="Q16" s="12">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="R16" s="12">
         <f t="shared" si="0"/>

--- a/Табели/!Табель не работающих АСДУ.xlsx
+++ b/Табели/!Табель не работающих АСДУ.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="5">
   <si>
     <t>х</t>
   </si>
@@ -27,6 +27,9 @@
   </si>
   <si>
     <t>0682</t>
+  </si>
+  <si>
+    <t>0683</t>
   </si>
 </sst>
 </file>
@@ -1609,10 +1612,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AE16"/>
+  <dimension ref="A1:AE18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q16" sqref="Q16"/>
+      <selection activeCell="S18" sqref="S18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -1800,8 +1803,12 @@
       <c r="Q4" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="R4" s="16"/>
-      <c r="S4" s="16"/>
+      <c r="R4" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="S4" s="16" t="s">
+        <v>0</v>
+      </c>
       <c r="T4" s="16"/>
       <c r="U4" s="16"/>
       <c r="V4" s="16"/>
@@ -1837,7 +1844,9 @@
         <v>0</v>
       </c>
       <c r="Q5" s="16"/>
-      <c r="R5" s="16"/>
+      <c r="R5" s="16" t="s">
+        <v>0</v>
+      </c>
       <c r="S5" s="16"/>
       <c r="T5" s="16"/>
       <c r="U5" s="16"/>
@@ -1853,66 +1862,56 @@
       <c r="AE5" s="17"/>
     </row>
     <row r="6" spans="1:31">
-      <c r="A6" s="9">
-        <v>1250</v>
-      </c>
-      <c r="B6" s="8"/>
-      <c r="C6" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
-      <c r="J6" s="3"/>
-      <c r="K6" s="3"/>
-      <c r="L6" s="3"/>
-      <c r="M6" s="3"/>
-      <c r="N6" s="3"/>
-      <c r="O6" s="3"/>
-      <c r="P6" s="3"/>
-      <c r="Q6" s="3"/>
-      <c r="R6" s="3"/>
-      <c r="S6" s="3"/>
-      <c r="T6" s="3"/>
-      <c r="U6" s="3"/>
-      <c r="V6" s="3"/>
-      <c r="W6" s="3"/>
-      <c r="X6" s="3"/>
-      <c r="Y6" s="3"/>
-      <c r="Z6" s="3"/>
-      <c r="AA6" s="3"/>
-      <c r="AB6" s="3"/>
-      <c r="AC6" s="3"/>
-      <c r="AD6" s="3"/>
-      <c r="AE6" s="7"/>
+      <c r="A6" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="15"/>
+      <c r="C6" s="16"/>
+      <c r="D6" s="16"/>
+      <c r="E6" s="16"/>
+      <c r="F6" s="16"/>
+      <c r="G6" s="16"/>
+      <c r="H6" s="16"/>
+      <c r="I6" s="16"/>
+      <c r="J6" s="16"/>
+      <c r="K6" s="16"/>
+      <c r="L6" s="16"/>
+      <c r="M6" s="16"/>
+      <c r="N6" s="16"/>
+      <c r="O6" s="16"/>
+      <c r="P6" s="16"/>
+      <c r="Q6" s="16"/>
+      <c r="R6" s="16"/>
+      <c r="S6" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="T6" s="16"/>
+      <c r="U6" s="16"/>
+      <c r="V6" s="16"/>
+      <c r="W6" s="16"/>
+      <c r="X6" s="16"/>
+      <c r="Y6" s="16"/>
+      <c r="Z6" s="16"/>
+      <c r="AA6" s="16"/>
+      <c r="AB6" s="16"/>
+      <c r="AC6" s="16"/>
+      <c r="AD6" s="16"/>
+      <c r="AE6" s="17"/>
     </row>
     <row r="7" spans="1:31">
       <c r="A7" s="9">
-        <v>1252</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>0</v>
-      </c>
+        <v>1250</v>
+      </c>
+      <c r="B7" s="8"/>
       <c r="C7" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D7" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>0</v>
-      </c>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
       <c r="F7" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="G7" s="3" t="s">
-        <v>0</v>
-      </c>
+      <c r="G7" s="3"/>
       <c r="H7" s="3"/>
       <c r="I7" s="3"/>
       <c r="J7" s="3"/>
@@ -1940,7 +1939,7 @@
     </row>
     <row r="8" spans="1:31">
       <c r="A8" s="9">
-        <v>1276</v>
+        <v>1252</v>
       </c>
       <c r="B8" s="8" t="s">
         <v>0</v>
@@ -1951,32 +1950,22 @@
       <c r="D8" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="E8" s="3"/>
+      <c r="E8" s="3" t="s">
+        <v>0</v>
+      </c>
       <c r="F8" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="I8" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="J8" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="K8" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="L8" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="M8" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="N8" s="3" t="s">
-        <v>0</v>
-      </c>
+      <c r="G8" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3"/>
+      <c r="M8" s="3"/>
+      <c r="N8" s="3"/>
       <c r="O8" s="3"/>
       <c r="P8" s="3"/>
       <c r="Q8" s="3"/>
@@ -1997,23 +1986,43 @@
     </row>
     <row r="9" spans="1:31">
       <c r="A9" s="9">
-        <v>2961</v>
-      </c>
-      <c r="B9" s="8"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
+        <v>1276</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>0</v>
+      </c>
       <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
+      <c r="F9" s="3" t="s">
+        <v>0</v>
+      </c>
       <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
-      <c r="I9" s="3"/>
-      <c r="J9" s="3"/>
+      <c r="H9" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>0</v>
+      </c>
       <c r="K9" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="L9" s="3"/>
-      <c r="M9" s="3"/>
-      <c r="N9" s="3"/>
+      <c r="L9" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="M9" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="N9" s="3" t="s">
+        <v>0</v>
+      </c>
       <c r="O9" s="3"/>
       <c r="P9" s="3"/>
       <c r="Q9" s="3"/>
@@ -2034,7 +2043,7 @@
     </row>
     <row r="10" spans="1:31">
       <c r="A10" s="9">
-        <v>2962</v>
+        <v>2961</v>
       </c>
       <c r="B10" s="8"/>
       <c r="C10" s="3"/>
@@ -2045,17 +2054,19 @@
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
-      <c r="K10" s="3"/>
+      <c r="K10" s="3" t="s">
+        <v>0</v>
+      </c>
       <c r="L10" s="3"/>
-      <c r="M10" s="3" t="s">
-        <v>0</v>
-      </c>
+      <c r="M10" s="3"/>
       <c r="N10" s="3"/>
       <c r="O10" s="3"/>
       <c r="P10" s="3"/>
       <c r="Q10" s="3"/>
       <c r="R10" s="3"/>
-      <c r="S10" s="3"/>
+      <c r="S10" s="3" t="s">
+        <v>0</v>
+      </c>
       <c r="T10" s="3"/>
       <c r="U10" s="3"/>
       <c r="V10" s="3"/>
@@ -2071,7 +2082,7 @@
     </row>
     <row r="11" spans="1:31">
       <c r="A11" s="9">
-        <v>4729</v>
+        <v>2962</v>
       </c>
       <c r="B11" s="8"/>
       <c r="C11" s="3"/>
@@ -2084,15 +2095,13 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
-      <c r="M11" s="3"/>
+      <c r="M11" s="3" t="s">
+        <v>0</v>
+      </c>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
-      <c r="P11" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q11" s="3" t="s">
-        <v>0</v>
-      </c>
+      <c r="P11" s="3"/>
+      <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
@@ -2110,36 +2119,34 @@
     </row>
     <row r="12" spans="1:31">
       <c r="A12" s="9">
-        <v>4995</v>
-      </c>
-      <c r="B12" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>0</v>
-      </c>
+        <v>4729</v>
+      </c>
+      <c r="B12" s="8"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
-      <c r="K12" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="L12" s="3" t="s">
-        <v>0</v>
-      </c>
+      <c r="K12" s="3"/>
+      <c r="L12" s="3"/>
       <c r="M12" s="3"/>
       <c r="N12" s="3"/>
       <c r="O12" s="3"/>
-      <c r="P12" s="3"/>
-      <c r="Q12" s="3"/>
-      <c r="R12" s="3"/>
-      <c r="S12" s="3"/>
+      <c r="P12" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="R12" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="S12" s="3" t="s">
+        <v>0</v>
+      </c>
       <c r="T12" s="3"/>
       <c r="U12" s="3"/>
       <c r="V12" s="3"/>
@@ -2155,21 +2162,29 @@
     </row>
     <row r="13" spans="1:31">
       <c r="A13" s="9">
-        <v>6172</v>
-      </c>
-      <c r="B13" s="8"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3" t="s">
-        <v>0</v>
-      </c>
+        <v>4995</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E13" s="3"/>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
       <c r="I13" s="3"/>
       <c r="J13" s="3"/>
-      <c r="K13" s="3"/>
-      <c r="L13" s="3"/>
+      <c r="K13" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="L13" s="3" t="s">
+        <v>0</v>
+      </c>
       <c r="M13" s="3"/>
       <c r="N13" s="3"/>
       <c r="O13" s="3"/>
@@ -2192,52 +2207,26 @@
     </row>
     <row r="14" spans="1:31">
       <c r="A14" s="9">
-        <v>6130</v>
-      </c>
-      <c r="B14" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>0</v>
-      </c>
+        <v>6172</v>
+      </c>
+      <c r="B14" s="8"/>
+      <c r="C14" s="3"/>
       <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="K14" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="L14" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="M14" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="N14" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="O14" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="P14" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q14" s="3" t="s">
-        <v>0</v>
-      </c>
+      <c r="E14" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="K14" s="3"/>
+      <c r="L14" s="3"/>
+      <c r="M14" s="3"/>
+      <c r="N14" s="3"/>
+      <c r="O14" s="3"/>
+      <c r="P14" s="3"/>
+      <c r="Q14" s="3"/>
       <c r="R14" s="3"/>
       <c r="S14" s="3"/>
       <c r="T14" s="3"/>
@@ -2253,50 +2242,30 @@
       <c r="AD14" s="3"/>
       <c r="AE14" s="7"/>
     </row>
-    <row r="15" spans="1:31" ht="16.5" thickBot="1">
+    <row r="15" spans="1:31">
       <c r="A15" s="9">
-        <v>6982</v>
-      </c>
-      <c r="B15" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>0</v>
-      </c>
+        <v>6129</v>
+      </c>
+      <c r="B15" s="8"/>
+      <c r="C15" s="3"/>
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
       <c r="H15" s="3"/>
-      <c r="I15" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="J15" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="K15" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="L15" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="M15" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="N15" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="O15" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="P15" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q15" s="3" t="s">
-        <v>0</v>
-      </c>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+      <c r="K15" s="3"/>
+      <c r="L15" s="3"/>
+      <c r="M15" s="3"/>
+      <c r="N15" s="3"/>
+      <c r="O15" s="3"/>
+      <c r="P15" s="3"/>
+      <c r="Q15" s="3"/>
       <c r="R15" s="3"/>
-      <c r="S15" s="3"/>
+      <c r="S15" s="3" t="s">
+        <v>0</v>
+      </c>
       <c r="T15" s="3"/>
       <c r="U15" s="3"/>
       <c r="V15" s="3"/>
@@ -2310,127 +2279,255 @@
       <c r="AD15" s="3"/>
       <c r="AE15" s="7"/>
     </row>
-    <row r="16" spans="1:31" ht="16.5" thickBot="1">
-      <c r="A16" s="10" t="s">
+    <row r="16" spans="1:31">
+      <c r="A16" s="9">
+        <v>6130</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="I16" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="J16" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="K16" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="L16" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="M16" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="N16" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="O16" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="P16" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q16" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="R16" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="S16" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="T16" s="3"/>
+      <c r="U16" s="3"/>
+      <c r="V16" s="3"/>
+      <c r="W16" s="3"/>
+      <c r="X16" s="3"/>
+      <c r="Y16" s="3"/>
+      <c r="Z16" s="3"/>
+      <c r="AA16" s="3"/>
+      <c r="AB16" s="3"/>
+      <c r="AC16" s="3"/>
+      <c r="AD16" s="3"/>
+      <c r="AE16" s="7"/>
+    </row>
+    <row r="17" spans="1:31" ht="16.5" thickBot="1">
+      <c r="A17" s="9">
+        <v>6982</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="J17" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="K17" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="L17" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="M17" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="N17" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="O17" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="P17" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="R17" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="S17" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="T17" s="3"/>
+      <c r="U17" s="3"/>
+      <c r="V17" s="3"/>
+      <c r="W17" s="3"/>
+      <c r="X17" s="3"/>
+      <c r="Y17" s="3"/>
+      <c r="Z17" s="3"/>
+      <c r="AA17" s="3"/>
+      <c r="AB17" s="3"/>
+      <c r="AC17" s="3"/>
+      <c r="AD17" s="3"/>
+      <c r="AE17" s="7"/>
+    </row>
+    <row r="18" spans="1:31" ht="16.5" thickBot="1">
+      <c r="A18" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B16" s="11">
-        <f t="shared" ref="B16:AE16" si="0">COUNTIF(B4:B15,"х")</f>
+      <c r="B18" s="11">
+        <f t="shared" ref="B18:AE18" si="0">COUNTIF(B4:B17,"х")</f>
         <v>6</v>
       </c>
-      <c r="C16" s="12">
+      <c r="C18" s="12">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="D16" s="12">
+      <c r="D18" s="12">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="E16" s="12">
+      <c r="E18" s="12">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="F16" s="12">
+      <c r="F18" s="12">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="G16" s="12">
+      <c r="G18" s="12">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="H16" s="12">
+      <c r="H18" s="12">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="I16" s="12">
+      <c r="I18" s="12">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="J16" s="12">
+      <c r="J18" s="12">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="K16" s="12">
+      <c r="K18" s="12">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="L16" s="12">
+      <c r="L18" s="12">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="M16" s="12">
+      <c r="M18" s="12">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="N16" s="12">
+      <c r="N18" s="12">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="O16" s="12">
+      <c r="O18" s="12">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="P16" s="12">
+      <c r="P18" s="12">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="Q16" s="12">
+      <c r="Q18" s="12">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="R16" s="12">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="S16" s="12">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="T16" s="12">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="U16" s="12">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="V16" s="12">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="W16" s="12">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="X16" s="12">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Y16" s="12">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Z16" s="12">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AA16" s="12">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AB16" s="12">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AC16" s="12">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AD16" s="12">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AE16" s="13">
+      <c r="R18" s="12">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="S18" s="12">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="T18" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="U18" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="V18" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W18" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="X18" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Y18" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Z18" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AA18" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AB18" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AC18" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AD18" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AE18" s="13">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>

--- a/Табели/!Табель не работающих АСДУ.xlsx
+++ b/Табели/!Табель не работающих АСДУ.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="5">
   <si>
     <t>х</t>
   </si>
@@ -78,7 +78,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -252,11 +252,53 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -320,6 +362,18 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1612,10 +1666,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AE18"/>
+  <dimension ref="A1:AE20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S18" sqref="S18"/>
+      <selection activeCell="T18" sqref="T18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -1809,7 +1863,9 @@
       <c r="S4" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="T4" s="16"/>
+      <c r="T4" s="16" t="s">
+        <v>0</v>
+      </c>
       <c r="U4" s="16"/>
       <c r="V4" s="16"/>
       <c r="W4" s="16"/>
@@ -2028,7 +2084,9 @@
       <c r="Q9" s="3"/>
       <c r="R9" s="3"/>
       <c r="S9" s="3"/>
-      <c r="T9" s="3"/>
+      <c r="T9" s="3" t="s">
+        <v>0</v>
+      </c>
       <c r="U9" s="3"/>
       <c r="V9" s="3"/>
       <c r="W9" s="3"/>
@@ -2147,7 +2205,9 @@
       <c r="S12" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="T12" s="3"/>
+      <c r="T12" s="3" t="s">
+        <v>0</v>
+      </c>
       <c r="U12" s="3"/>
       <c r="V12" s="3"/>
       <c r="W12" s="3"/>
@@ -2333,7 +2393,9 @@
       <c r="S16" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="T16" s="3"/>
+      <c r="T16" s="3" t="s">
+        <v>0</v>
+      </c>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
@@ -2346,11 +2408,11 @@
       <c r="AD16" s="3"/>
       <c r="AE16" s="7"/>
     </row>
-    <row r="17" spans="1:31" ht="16.5" thickBot="1">
+    <row r="17" spans="1:31">
       <c r="A17" s="9">
         <v>6982</v>
       </c>
-      <c r="B17" s="8" t="s">
+      <c r="B17" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C17" s="3" t="s">
@@ -2394,7 +2456,9 @@
       <c r="S17" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="T17" s="3"/>
+      <c r="T17" s="3" t="s">
+        <v>0</v>
+      </c>
       <c r="U17" s="3"/>
       <c r="V17" s="3"/>
       <c r="W17" s="3"/>
@@ -2407,128 +2471,218 @@
       <c r="AD17" s="3"/>
       <c r="AE17" s="7"/>
     </row>
-    <row r="18" spans="1:31" ht="16.5" thickBot="1">
-      <c r="A18" s="10" t="s">
+    <row r="18" spans="1:31">
+      <c r="A18" s="9">
+        <v>9281</v>
+      </c>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+      <c r="K18" s="3"/>
+      <c r="L18" s="3"/>
+      <c r="M18" s="3"/>
+      <c r="N18" s="3"/>
+      <c r="O18" s="3"/>
+      <c r="P18" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="R18" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="S18" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="T18" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="U18" s="3"/>
+      <c r="V18" s="3"/>
+      <c r="W18" s="3"/>
+      <c r="X18" s="3"/>
+      <c r="Y18" s="3"/>
+      <c r="Z18" s="3"/>
+      <c r="AA18" s="3"/>
+      <c r="AB18" s="3"/>
+      <c r="AC18" s="3"/>
+      <c r="AD18" s="3"/>
+      <c r="AE18" s="7"/>
+    </row>
+    <row r="19" spans="1:31" ht="16.5" thickBot="1">
+      <c r="A19" s="23">
+        <v>9553</v>
+      </c>
+      <c r="B19" s="24"/>
+      <c r="C19" s="25"/>
+      <c r="D19" s="25"/>
+      <c r="E19" s="25"/>
+      <c r="F19" s="25"/>
+      <c r="G19" s="25"/>
+      <c r="H19" s="25"/>
+      <c r="I19" s="25"/>
+      <c r="J19" s="25"/>
+      <c r="K19" s="25"/>
+      <c r="L19" s="25"/>
+      <c r="M19" s="25"/>
+      <c r="N19" s="25"/>
+      <c r="O19" s="25"/>
+      <c r="P19" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q19" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="R19" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="S19" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="T19" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="U19" s="25"/>
+      <c r="V19" s="25"/>
+      <c r="W19" s="25"/>
+      <c r="X19" s="25"/>
+      <c r="Y19" s="25"/>
+      <c r="Z19" s="25"/>
+      <c r="AA19" s="25"/>
+      <c r="AB19" s="25"/>
+      <c r="AC19" s="25"/>
+      <c r="AD19" s="25"/>
+      <c r="AE19" s="26"/>
+    </row>
+    <row r="20" spans="1:31" ht="16.5" thickBot="1">
+      <c r="A20" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B18" s="11">
-        <f t="shared" ref="B18:AE18" si="0">COUNTIF(B4:B17,"х")</f>
+      <c r="B20" s="11">
+        <f>COUNTIF(B4:B19,"х")</f>
         <v>6</v>
       </c>
-      <c r="C18" s="12">
-        <f t="shared" si="0"/>
+      <c r="C20" s="11">
+        <f t="shared" ref="C20:T20" si="0">COUNTIF(C4:C19,"х")</f>
         <v>7</v>
       </c>
-      <c r="D18" s="12">
+      <c r="D20" s="11">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="E18" s="12">
+      <c r="E20" s="11">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="F18" s="12">
+      <c r="F20" s="11">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="G18" s="12">
+      <c r="G20" s="11">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="H18" s="12">
+      <c r="H20" s="11">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="I18" s="12">
+      <c r="I20" s="11">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="J18" s="12">
+      <c r="J20" s="11">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="K18" s="12">
+      <c r="K20" s="11">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="L18" s="12">
+      <c r="L20" s="11">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="M18" s="12">
+      <c r="M20" s="11">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="N18" s="12">
+      <c r="N20" s="11">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="O18" s="12">
+      <c r="O20" s="11">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="P18" s="12">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="Q18" s="12">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="R18" s="12">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="S18" s="12">
+      <c r="P20" s="11">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="T18" s="12">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="U18" s="12">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="V18" s="12">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="W18" s="12">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="X18" s="12">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Y18" s="12">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Z18" s="12">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AA18" s="12">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AB18" s="12">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AC18" s="12">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AD18" s="12">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AE18" s="13">
-        <f t="shared" si="0"/>
+      <c r="Q20" s="11">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="R20" s="11">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="S20" s="11">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="T20" s="11">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="U20" s="12">
+        <f>COUNTIF(U4:U19,"х")</f>
+        <v>0</v>
+      </c>
+      <c r="V20" s="12">
+        <f t="shared" ref="V20" si="1">COUNTIF(V4:V19,"х")</f>
+        <v>0</v>
+      </c>
+      <c r="W20" s="12">
+        <f t="shared" ref="W20" si="2">COUNTIF(W4:W19,"х")</f>
+        <v>0</v>
+      </c>
+      <c r="X20" s="12">
+        <f t="shared" ref="X20" si="3">COUNTIF(X4:X19,"х")</f>
+        <v>0</v>
+      </c>
+      <c r="Y20" s="12">
+        <f t="shared" ref="Y20" si="4">COUNTIF(Y4:Y19,"х")</f>
+        <v>0</v>
+      </c>
+      <c r="Z20" s="12">
+        <f t="shared" ref="Z20" si="5">COUNTIF(Z4:Z19,"х")</f>
+        <v>0</v>
+      </c>
+      <c r="AA20" s="12">
+        <f t="shared" ref="AA20" si="6">COUNTIF(AA4:AA19,"х")</f>
+        <v>0</v>
+      </c>
+      <c r="AB20" s="12">
+        <f t="shared" ref="AB20" si="7">COUNTIF(AB4:AB19,"х")</f>
+        <v>0</v>
+      </c>
+      <c r="AC20" s="12">
+        <f t="shared" ref="AC20" si="8">COUNTIF(AC4:AC19,"х")</f>
+        <v>0</v>
+      </c>
+      <c r="AD20" s="12">
+        <f t="shared" ref="AD20" si="9">COUNTIF(AD4:AD19,"х")</f>
+        <v>0</v>
+      </c>
+      <c r="AE20" s="13">
+        <f t="shared" ref="AE20" si="10">COUNTIF(AE4:AE19,"х")</f>
         <v>0</v>
       </c>
     </row>

--- a/Табели/!Табель не работающих АСДУ.xlsx
+++ b/Табели/!Табель не работающих АСДУ.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="5">
   <si>
     <t>х</t>
   </si>
@@ -361,9 +361,6 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -374,6 +371,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -691,41 +691,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:32">
-      <c r="A1" s="22" t="str">
+      <c r="A1" s="26" t="str">
         <f ca="1">"Не работающие АСДУ на автомобилях за " &amp;  MID(CELL("имяфайла",A1),SEARCH("]",CELL("имяфайла",A1))+1,255)</f>
         <v>Не работающие АСДУ на автомобилях за Октябрь 2018</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
-      <c r="H1" s="22"/>
-      <c r="I1" s="22"/>
-      <c r="J1" s="22"/>
-      <c r="K1" s="22"/>
-      <c r="L1" s="22"/>
-      <c r="M1" s="22"/>
-      <c r="N1" s="22"/>
-      <c r="O1" s="22"/>
-      <c r="P1" s="22"/>
-      <c r="Q1" s="22"/>
-      <c r="R1" s="22"/>
-      <c r="S1" s="22"/>
-      <c r="T1" s="22"/>
-      <c r="U1" s="22"/>
-      <c r="V1" s="22"/>
-      <c r="W1" s="22"/>
-      <c r="X1" s="22"/>
-      <c r="Y1" s="22"/>
-      <c r="Z1" s="22"/>
-      <c r="AA1" s="22"/>
-      <c r="AB1" s="22"/>
-      <c r="AC1" s="22"/>
-      <c r="AD1" s="22"/>
-      <c r="AE1" s="22"/>
-      <c r="AF1" s="22"/>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
+      <c r="I1" s="26"/>
+      <c r="J1" s="26"/>
+      <c r="K1" s="26"/>
+      <c r="L1" s="26"/>
+      <c r="M1" s="26"/>
+      <c r="N1" s="26"/>
+      <c r="O1" s="26"/>
+      <c r="P1" s="26"/>
+      <c r="Q1" s="26"/>
+      <c r="R1" s="26"/>
+      <c r="S1" s="26"/>
+      <c r="T1" s="26"/>
+      <c r="U1" s="26"/>
+      <c r="V1" s="26"/>
+      <c r="W1" s="26"/>
+      <c r="X1" s="26"/>
+      <c r="Y1" s="26"/>
+      <c r="Z1" s="26"/>
+      <c r="AA1" s="26"/>
+      <c r="AB1" s="26"/>
+      <c r="AC1" s="26"/>
+      <c r="AD1" s="26"/>
+      <c r="AE1" s="26"/>
+      <c r="AF1" s="26"/>
     </row>
     <row r="3" spans="1:32">
       <c r="A3" s="5"/>
@@ -1666,10 +1666,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AE20"/>
+  <dimension ref="A1:AE21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T18" sqref="T18"/>
+      <selection activeCell="U13" sqref="U13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -1680,40 +1680,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:31">
-      <c r="A1" s="22" t="str">
+      <c r="A1" s="26" t="str">
         <f ca="1">"Не работающие АСДУ на автомобилях за " &amp;  MID(CELL("имяфайла",A1),SEARCH("]",CELL("имяфайла",A1))+1,255)</f>
         <v>Не работающие АСДУ на автомобилях за Ноябрь 2018</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
-      <c r="H1" s="22"/>
-      <c r="I1" s="22"/>
-      <c r="J1" s="22"/>
-      <c r="K1" s="22"/>
-      <c r="L1" s="22"/>
-      <c r="M1" s="22"/>
-      <c r="N1" s="22"/>
-      <c r="O1" s="22"/>
-      <c r="P1" s="22"/>
-      <c r="Q1" s="22"/>
-      <c r="R1" s="22"/>
-      <c r="S1" s="22"/>
-      <c r="T1" s="22"/>
-      <c r="U1" s="22"/>
-      <c r="V1" s="22"/>
-      <c r="W1" s="22"/>
-      <c r="X1" s="22"/>
-      <c r="Y1" s="22"/>
-      <c r="Z1" s="22"/>
-      <c r="AA1" s="22"/>
-      <c r="AB1" s="22"/>
-      <c r="AC1" s="22"/>
-      <c r="AD1" s="22"/>
-      <c r="AE1" s="22"/>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
+      <c r="I1" s="26"/>
+      <c r="J1" s="26"/>
+      <c r="K1" s="26"/>
+      <c r="L1" s="26"/>
+      <c r="M1" s="26"/>
+      <c r="N1" s="26"/>
+      <c r="O1" s="26"/>
+      <c r="P1" s="26"/>
+      <c r="Q1" s="26"/>
+      <c r="R1" s="26"/>
+      <c r="S1" s="26"/>
+      <c r="T1" s="26"/>
+      <c r="U1" s="26"/>
+      <c r="V1" s="26"/>
+      <c r="W1" s="26"/>
+      <c r="X1" s="26"/>
+      <c r="Y1" s="26"/>
+      <c r="Z1" s="26"/>
+      <c r="AA1" s="26"/>
+      <c r="AB1" s="26"/>
+      <c r="AC1" s="26"/>
+      <c r="AD1" s="26"/>
+      <c r="AE1" s="26"/>
     </row>
     <row r="2" spans="1:31" ht="16.5" thickBot="1"/>
     <row r="3" spans="1:31" ht="16.5" thickBot="1">
@@ -1867,7 +1867,9 @@
         <v>0</v>
       </c>
       <c r="U4" s="16"/>
-      <c r="V4" s="16"/>
+      <c r="V4" s="16" t="s">
+        <v>0</v>
+      </c>
       <c r="W4" s="16"/>
       <c r="X4" s="16"/>
       <c r="Y4" s="16"/>
@@ -2087,8 +2089,12 @@
       <c r="T9" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="U9" s="3"/>
-      <c r="V9" s="3"/>
+      <c r="U9" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="V9" s="3" t="s">
+        <v>0</v>
+      </c>
       <c r="W9" s="3"/>
       <c r="X9" s="3"/>
       <c r="Y9" s="3"/>
@@ -2208,8 +2214,12 @@
       <c r="T12" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="U12" s="3"/>
-      <c r="V12" s="3"/>
+      <c r="U12" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="V12" s="3" t="s">
+        <v>0</v>
+      </c>
       <c r="W12" s="3"/>
       <c r="X12" s="3"/>
       <c r="Y12" s="3"/>
@@ -2253,7 +2263,9 @@
       <c r="R13" s="3"/>
       <c r="S13" s="3"/>
       <c r="T13" s="3"/>
-      <c r="U13" s="3"/>
+      <c r="U13" s="3" t="s">
+        <v>0</v>
+      </c>
       <c r="V13" s="3"/>
       <c r="W13" s="3"/>
       <c r="X13" s="3"/>
@@ -2267,14 +2279,12 @@
     </row>
     <row r="14" spans="1:31">
       <c r="A14" s="9">
-        <v>6172</v>
+        <v>5721</v>
       </c>
       <c r="B14" s="8"/>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
-      <c r="E14" s="3" t="s">
-        <v>0</v>
-      </c>
+      <c r="E14" s="3"/>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
@@ -2291,7 +2301,9 @@
       <c r="S14" s="3"/>
       <c r="T14" s="3"/>
       <c r="U14" s="3"/>
-      <c r="V14" s="3"/>
+      <c r="V14" s="3" t="s">
+        <v>0</v>
+      </c>
       <c r="W14" s="3"/>
       <c r="X14" s="3"/>
       <c r="Y14" s="3"/>
@@ -2304,12 +2316,14 @@
     </row>
     <row r="15" spans="1:31">
       <c r="A15" s="9">
-        <v>6129</v>
+        <v>6172</v>
       </c>
       <c r="B15" s="8"/>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
+      <c r="E15" s="3" t="s">
+        <v>0</v>
+      </c>
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
       <c r="H15" s="3"/>
@@ -2323,9 +2337,7 @@
       <c r="P15" s="3"/>
       <c r="Q15" s="3"/>
       <c r="R15" s="3"/>
-      <c r="S15" s="3" t="s">
-        <v>0</v>
-      </c>
+      <c r="S15" s="3"/>
       <c r="T15" s="3"/>
       <c r="U15" s="3"/>
       <c r="V15" s="3"/>
@@ -2341,61 +2353,29 @@
     </row>
     <row r="16" spans="1:31">
       <c r="A16" s="9">
-        <v>6130</v>
-      </c>
-      <c r="B16" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>0</v>
-      </c>
+        <v>6129</v>
+      </c>
+      <c r="B16" s="8"/>
+      <c r="C16" s="3"/>
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
-      <c r="F16" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="G16" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="H16" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="I16" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="J16" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="K16" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="L16" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="M16" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="N16" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="O16" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="P16" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q16" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="R16" s="3" t="s">
-        <v>0</v>
-      </c>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+      <c r="K16" s="3"/>
+      <c r="L16" s="3"/>
+      <c r="M16" s="3"/>
+      <c r="N16" s="3"/>
+      <c r="O16" s="3"/>
+      <c r="P16" s="3"/>
+      <c r="Q16" s="3"/>
+      <c r="R16" s="3"/>
       <c r="S16" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="T16" s="3" t="s">
-        <v>0</v>
-      </c>
+      <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
@@ -2410,9 +2390,9 @@
     </row>
     <row r="17" spans="1:31">
       <c r="A17" s="9">
-        <v>6982</v>
-      </c>
-      <c r="B17" s="3" t="s">
+        <v>6130</v>
+      </c>
+      <c r="B17" s="8" t="s">
         <v>0</v>
       </c>
       <c r="C17" s="3" t="s">
@@ -2420,9 +2400,15 @@
       </c>
       <c r="D17" s="3"/>
       <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
+      <c r="F17" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>0</v>
+      </c>
       <c r="I17" s="3" t="s">
         <v>0</v>
       </c>
@@ -2459,8 +2445,12 @@
       <c r="T17" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="U17" s="3"/>
-      <c r="V17" s="3"/>
+      <c r="U17" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="V17" s="3" t="s">
+        <v>0</v>
+      </c>
       <c r="W17" s="3"/>
       <c r="X17" s="3"/>
       <c r="Y17" s="3"/>
@@ -2473,22 +2463,40 @@
     </row>
     <row r="18" spans="1:31">
       <c r="A18" s="9">
-        <v>9281</v>
-      </c>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
+        <v>6982</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>0</v>
+      </c>
       <c r="D18" s="3"/>
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
       <c r="G18" s="3"/>
       <c r="H18" s="3"/>
-      <c r="I18" s="3"/>
-      <c r="J18" s="3"/>
-      <c r="K18" s="3"/>
-      <c r="L18" s="3"/>
-      <c r="M18" s="3"/>
-      <c r="N18" s="3"/>
-      <c r="O18" s="3"/>
+      <c r="I18" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="J18" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="K18" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="L18" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="M18" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="N18" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="O18" s="3" t="s">
+        <v>0</v>
+      </c>
       <c r="P18" s="3" t="s">
         <v>0</v>
       </c>
@@ -2504,8 +2512,12 @@
       <c r="T18" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="U18" s="3"/>
-      <c r="V18" s="3"/>
+      <c r="U18" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="V18" s="3" t="s">
+        <v>0</v>
+      </c>
       <c r="W18" s="3"/>
       <c r="X18" s="3"/>
       <c r="Y18" s="3"/>
@@ -2516,173 +2528,226 @@
       <c r="AD18" s="3"/>
       <c r="AE18" s="7"/>
     </row>
-    <row r="19" spans="1:31" ht="16.5" thickBot="1">
-      <c r="A19" s="23">
+    <row r="19" spans="1:31">
+      <c r="A19" s="9">
+        <v>9281</v>
+      </c>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
+      <c r="K19" s="3"/>
+      <c r="L19" s="3"/>
+      <c r="M19" s="3"/>
+      <c r="N19" s="3"/>
+      <c r="O19" s="3"/>
+      <c r="P19" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q19" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="R19" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="S19" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="T19" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="U19" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="V19" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="W19" s="3"/>
+      <c r="X19" s="3"/>
+      <c r="Y19" s="3"/>
+      <c r="Z19" s="3"/>
+      <c r="AA19" s="3"/>
+      <c r="AB19" s="3"/>
+      <c r="AC19" s="3"/>
+      <c r="AD19" s="3"/>
+      <c r="AE19" s="7"/>
+    </row>
+    <row r="20" spans="1:31" ht="16.5" thickBot="1">
+      <c r="A20" s="22">
         <v>9553</v>
       </c>
-      <c r="B19" s="24"/>
-      <c r="C19" s="25"/>
-      <c r="D19" s="25"/>
-      <c r="E19" s="25"/>
-      <c r="F19" s="25"/>
-      <c r="G19" s="25"/>
-      <c r="H19" s="25"/>
-      <c r="I19" s="25"/>
-      <c r="J19" s="25"/>
-      <c r="K19" s="25"/>
-      <c r="L19" s="25"/>
-      <c r="M19" s="25"/>
-      <c r="N19" s="25"/>
-      <c r="O19" s="25"/>
-      <c r="P19" s="25" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q19" s="25" t="s">
-        <v>0</v>
-      </c>
-      <c r="R19" s="25" t="s">
-        <v>0</v>
-      </c>
-      <c r="S19" s="25" t="s">
-        <v>0</v>
-      </c>
-      <c r="T19" s="25" t="s">
-        <v>0</v>
-      </c>
-      <c r="U19" s="25"/>
-      <c r="V19" s="25"/>
-      <c r="W19" s="25"/>
-      <c r="X19" s="25"/>
-      <c r="Y19" s="25"/>
-      <c r="Z19" s="25"/>
-      <c r="AA19" s="25"/>
-      <c r="AB19" s="25"/>
-      <c r="AC19" s="25"/>
-      <c r="AD19" s="25"/>
-      <c r="AE19" s="26"/>
-    </row>
-    <row r="20" spans="1:31" ht="16.5" thickBot="1">
-      <c r="A20" s="10" t="s">
+      <c r="B20" s="23"/>
+      <c r="C20" s="24"/>
+      <c r="D20" s="24"/>
+      <c r="E20" s="24"/>
+      <c r="F20" s="24"/>
+      <c r="G20" s="24"/>
+      <c r="H20" s="24"/>
+      <c r="I20" s="24"/>
+      <c r="J20" s="24"/>
+      <c r="K20" s="24"/>
+      <c r="L20" s="24"/>
+      <c r="M20" s="24"/>
+      <c r="N20" s="24"/>
+      <c r="O20" s="24"/>
+      <c r="P20" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="R20" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="S20" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="T20" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="U20" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="V20" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="W20" s="24"/>
+      <c r="X20" s="24"/>
+      <c r="Y20" s="24"/>
+      <c r="Z20" s="24"/>
+      <c r="AA20" s="24"/>
+      <c r="AB20" s="24"/>
+      <c r="AC20" s="24"/>
+      <c r="AD20" s="24"/>
+      <c r="AE20" s="25"/>
+    </row>
+    <row r="21" spans="1:31" ht="16.5" thickBot="1">
+      <c r="A21" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B20" s="11">
-        <f>COUNTIF(B4:B19,"х")</f>
+      <c r="B21" s="11">
+        <f>COUNTIF(B4:B20,"х")</f>
         <v>6</v>
       </c>
-      <c r="C20" s="11">
-        <f t="shared" ref="C20:T20" si="0">COUNTIF(C4:C19,"х")</f>
+      <c r="C21" s="11">
+        <f t="shared" ref="C21:T21" si="0">COUNTIF(C4:C20,"х")</f>
         <v>7</v>
       </c>
-      <c r="D20" s="11">
+      <c r="D21" s="11">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="E20" s="11">
+      <c r="E21" s="11">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="F20" s="11">
+      <c r="F21" s="11">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="G20" s="11">
+      <c r="G21" s="11">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="H20" s="11">
+      <c r="H21" s="11">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="I20" s="11">
+      <c r="I21" s="11">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="J20" s="11">
+      <c r="J21" s="11">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="K20" s="11">
+      <c r="K21" s="11">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="L20" s="11">
+      <c r="L21" s="11">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="M20" s="11">
+      <c r="M21" s="11">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="N20" s="11">
+      <c r="N21" s="11">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="O20" s="11">
+      <c r="O21" s="11">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="P20" s="11">
+      <c r="P21" s="11">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="Q20" s="11">
+      <c r="Q21" s="11">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="R20" s="11">
+      <c r="R21" s="11">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="S20" s="11">
+      <c r="S21" s="11">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="T20" s="11">
+      <c r="T21" s="11">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="U20" s="12">
-        <f>COUNTIF(U4:U19,"х")</f>
-        <v>0</v>
-      </c>
-      <c r="V20" s="12">
-        <f t="shared" ref="V20" si="1">COUNTIF(V4:V19,"х")</f>
-        <v>0</v>
-      </c>
-      <c r="W20" s="12">
-        <f t="shared" ref="W20" si="2">COUNTIF(W4:W19,"х")</f>
-        <v>0</v>
-      </c>
-      <c r="X20" s="12">
-        <f t="shared" ref="X20" si="3">COUNTIF(X4:X19,"х")</f>
-        <v>0</v>
-      </c>
-      <c r="Y20" s="12">
-        <f t="shared" ref="Y20" si="4">COUNTIF(Y4:Y19,"х")</f>
-        <v>0</v>
-      </c>
-      <c r="Z20" s="12">
-        <f t="shared" ref="Z20" si="5">COUNTIF(Z4:Z19,"х")</f>
-        <v>0</v>
-      </c>
-      <c r="AA20" s="12">
-        <f t="shared" ref="AA20" si="6">COUNTIF(AA4:AA19,"х")</f>
-        <v>0</v>
-      </c>
-      <c r="AB20" s="12">
-        <f t="shared" ref="AB20" si="7">COUNTIF(AB4:AB19,"х")</f>
-        <v>0</v>
-      </c>
-      <c r="AC20" s="12">
-        <f t="shared" ref="AC20" si="8">COUNTIF(AC4:AC19,"х")</f>
-        <v>0</v>
-      </c>
-      <c r="AD20" s="12">
-        <f t="shared" ref="AD20" si="9">COUNTIF(AD4:AD19,"х")</f>
-        <v>0</v>
-      </c>
-      <c r="AE20" s="13">
-        <f t="shared" ref="AE20" si="10">COUNTIF(AE4:AE19,"х")</f>
+      <c r="U21" s="12">
+        <f>COUNTIF(U4:U20,"х")</f>
+        <v>7</v>
+      </c>
+      <c r="V21" s="12">
+        <f t="shared" ref="V21" si="1">COUNTIF(V4:V20,"х")</f>
+        <v>8</v>
+      </c>
+      <c r="W21" s="12">
+        <f t="shared" ref="W21" si="2">COUNTIF(W4:W20,"х")</f>
+        <v>0</v>
+      </c>
+      <c r="X21" s="12">
+        <f t="shared" ref="X21" si="3">COUNTIF(X4:X20,"х")</f>
+        <v>0</v>
+      </c>
+      <c r="Y21" s="12">
+        <f t="shared" ref="Y21" si="4">COUNTIF(Y4:Y20,"х")</f>
+        <v>0</v>
+      </c>
+      <c r="Z21" s="12">
+        <f t="shared" ref="Z21" si="5">COUNTIF(Z4:Z20,"х")</f>
+        <v>0</v>
+      </c>
+      <c r="AA21" s="12">
+        <f t="shared" ref="AA21" si="6">COUNTIF(AA4:AA20,"х")</f>
+        <v>0</v>
+      </c>
+      <c r="AB21" s="12">
+        <f t="shared" ref="AB21" si="7">COUNTIF(AB4:AB20,"х")</f>
+        <v>0</v>
+      </c>
+      <c r="AC21" s="12">
+        <f t="shared" ref="AC21" si="8">COUNTIF(AC4:AC20,"х")</f>
+        <v>0</v>
+      </c>
+      <c r="AD21" s="12">
+        <f t="shared" ref="AD21" si="9">COUNTIF(AD4:AD20,"х")</f>
+        <v>0</v>
+      </c>
+      <c r="AE21" s="13">
+        <f t="shared" ref="AE21" si="10">COUNTIF(AE4:AE20,"х")</f>
         <v>0</v>
       </c>
     </row>

--- a/Табели/!Табель не работающих АСДУ.xlsx
+++ b/Табели/!Табель не работающих АСДУ.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="5">
   <si>
     <t>х</t>
   </si>
@@ -349,12 +349,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -373,6 +367,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1666,10 +1664,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AE21"/>
+  <dimension ref="A1:AE23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="U13" sqref="U13"/>
+      <selection activeCell="Y14" sqref="Y14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -1716,96 +1714,96 @@
       <c r="AE1" s="26"/>
     </row>
     <row r="2" spans="1:31" ht="16.5" thickBot="1"/>
-    <row r="3" spans="1:31" ht="16.5" thickBot="1">
+    <row r="3" spans="1:31" s="25" customFormat="1" ht="16.5" thickBot="1">
       <c r="A3" s="10"/>
-      <c r="B3" s="18">
+      <c r="B3" s="24">
         <v>1</v>
       </c>
-      <c r="C3" s="19">
+      <c r="C3" s="18">
         <v>2</v>
       </c>
-      <c r="D3" s="19">
+      <c r="D3" s="18">
         <v>3</v>
       </c>
-      <c r="E3" s="19">
+      <c r="E3" s="18">
         <v>4</v>
       </c>
-      <c r="F3" s="19">
+      <c r="F3" s="18">
         <v>5</v>
       </c>
-      <c r="G3" s="19">
+      <c r="G3" s="18">
         <v>6</v>
       </c>
-      <c r="H3" s="19">
+      <c r="H3" s="18">
         <v>7</v>
       </c>
-      <c r="I3" s="19">
+      <c r="I3" s="18">
         <v>8</v>
       </c>
-      <c r="J3" s="19">
+      <c r="J3" s="18">
         <v>9</v>
       </c>
-      <c r="K3" s="19">
+      <c r="K3" s="18">
         <v>10</v>
       </c>
-      <c r="L3" s="19">
+      <c r="L3" s="18">
         <v>11</v>
       </c>
-      <c r="M3" s="19">
+      <c r="M3" s="18">
         <v>12</v>
       </c>
-      <c r="N3" s="19">
+      <c r="N3" s="18">
         <v>13</v>
       </c>
-      <c r="O3" s="19">
+      <c r="O3" s="18">
         <v>14</v>
       </c>
-      <c r="P3" s="19">
+      <c r="P3" s="18">
         <v>15</v>
       </c>
-      <c r="Q3" s="19">
+      <c r="Q3" s="18">
         <v>16</v>
       </c>
-      <c r="R3" s="19">
+      <c r="R3" s="18">
         <v>17</v>
       </c>
-      <c r="S3" s="20">
+      <c r="S3" s="18">
         <v>18</v>
       </c>
-      <c r="T3" s="20">
+      <c r="T3" s="18">
         <v>19</v>
       </c>
-      <c r="U3" s="20">
+      <c r="U3" s="18">
         <v>20</v>
       </c>
-      <c r="V3" s="20">
+      <c r="V3" s="18">
         <v>21</v>
       </c>
-      <c r="W3" s="20">
+      <c r="W3" s="18">
         <v>22</v>
       </c>
-      <c r="X3" s="20">
+      <c r="X3" s="18">
         <v>23</v>
       </c>
-      <c r="Y3" s="20">
+      <c r="Y3" s="18">
         <v>24</v>
       </c>
-      <c r="Z3" s="20">
+      <c r="Z3" s="18">
         <v>25</v>
       </c>
-      <c r="AA3" s="20">
+      <c r="AA3" s="18">
         <v>26</v>
       </c>
-      <c r="AB3" s="20">
+      <c r="AB3" s="18">
         <v>27</v>
       </c>
-      <c r="AC3" s="20">
+      <c r="AC3" s="18">
         <v>28</v>
       </c>
-      <c r="AD3" s="20">
+      <c r="AD3" s="18">
         <v>29</v>
       </c>
-      <c r="AE3" s="21">
+      <c r="AE3" s="19">
         <v>30</v>
       </c>
     </row>
@@ -1870,9 +1868,15 @@
       <c r="V4" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="W4" s="16"/>
-      <c r="X4" s="16"/>
-      <c r="Y4" s="16"/>
+      <c r="W4" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="X4" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y4" s="16" t="s">
+        <v>0</v>
+      </c>
       <c r="Z4" s="16"/>
       <c r="AA4" s="16"/>
       <c r="AB4" s="16"/>
@@ -2095,9 +2099,15 @@
       <c r="V9" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="W9" s="3"/>
-      <c r="X9" s="3"/>
-      <c r="Y9" s="3"/>
+      <c r="W9" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="X9" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y9" s="3" t="s">
+        <v>0</v>
+      </c>
       <c r="Z9" s="3"/>
       <c r="AA9" s="3"/>
       <c r="AB9" s="3"/>
@@ -2220,9 +2230,15 @@
       <c r="V12" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="W12" s="3"/>
-      <c r="X12" s="3"/>
-      <c r="Y12" s="3"/>
+      <c r="W12" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="X12" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y12" s="3" t="s">
+        <v>0</v>
+      </c>
       <c r="Z12" s="3"/>
       <c r="AA12" s="3"/>
       <c r="AB12" s="3"/>
@@ -2232,29 +2248,19 @@
     </row>
     <row r="13" spans="1:31">
       <c r="A13" s="9">
-        <v>4995</v>
-      </c>
-      <c r="B13" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>0</v>
-      </c>
+        <v>4730</v>
+      </c>
+      <c r="B13" s="8"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
       <c r="I13" s="3"/>
       <c r="J13" s="3"/>
-      <c r="K13" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="L13" s="3" t="s">
-        <v>0</v>
-      </c>
+      <c r="K13" s="3"/>
+      <c r="L13" s="3"/>
       <c r="M13" s="3"/>
       <c r="N13" s="3"/>
       <c r="O13" s="3"/>
@@ -2263,13 +2269,13 @@
       <c r="R13" s="3"/>
       <c r="S13" s="3"/>
       <c r="T13" s="3"/>
-      <c r="U13" s="3" t="s">
-        <v>0</v>
-      </c>
+      <c r="U13" s="3"/>
       <c r="V13" s="3"/>
       <c r="W13" s="3"/>
       <c r="X13" s="3"/>
-      <c r="Y13" s="3"/>
+      <c r="Y13" s="3" t="s">
+        <v>0</v>
+      </c>
       <c r="Z13" s="3"/>
       <c r="AA13" s="3"/>
       <c r="AB13" s="3"/>
@@ -2279,19 +2285,29 @@
     </row>
     <row r="14" spans="1:31">
       <c r="A14" s="9">
-        <v>5721</v>
-      </c>
-      <c r="B14" s="8"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
+        <v>4995</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>0</v>
+      </c>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
       <c r="J14" s="3"/>
-      <c r="K14" s="3"/>
-      <c r="L14" s="3"/>
+      <c r="K14" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3" t="s">
+        <v>0</v>
+      </c>
       <c r="M14" s="3"/>
       <c r="N14" s="3"/>
       <c r="O14" s="3"/>
@@ -2300,10 +2316,10 @@
       <c r="R14" s="3"/>
       <c r="S14" s="3"/>
       <c r="T14" s="3"/>
-      <c r="U14" s="3"/>
-      <c r="V14" s="3" t="s">
-        <v>0</v>
-      </c>
+      <c r="U14" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="V14" s="3"/>
       <c r="W14" s="3"/>
       <c r="X14" s="3"/>
       <c r="Y14" s="3"/>
@@ -2316,14 +2332,12 @@
     </row>
     <row r="15" spans="1:31">
       <c r="A15" s="9">
-        <v>6172</v>
+        <v>5721</v>
       </c>
       <c r="B15" s="8"/>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
-      <c r="E15" s="3" t="s">
-        <v>0</v>
-      </c>
+      <c r="E15" s="3"/>
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
       <c r="H15" s="3"/>
@@ -2340,7 +2354,9 @@
       <c r="S15" s="3"/>
       <c r="T15" s="3"/>
       <c r="U15" s="3"/>
-      <c r="V15" s="3"/>
+      <c r="V15" s="3" t="s">
+        <v>0</v>
+      </c>
       <c r="W15" s="3"/>
       <c r="X15" s="3"/>
       <c r="Y15" s="3"/>
@@ -2353,12 +2369,14 @@
     </row>
     <row r="16" spans="1:31">
       <c r="A16" s="9">
-        <v>6129</v>
+        <v>6172</v>
       </c>
       <c r="B16" s="8"/>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
+      <c r="E16" s="3" t="s">
+        <v>0</v>
+      </c>
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
       <c r="H16" s="3"/>
@@ -2372,9 +2390,7 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-      <c r="S16" s="3" t="s">
-        <v>0</v>
-      </c>
+      <c r="S16" s="3"/>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
@@ -2390,67 +2406,31 @@
     </row>
     <row r="17" spans="1:31">
       <c r="A17" s="9">
-        <v>6130</v>
-      </c>
-      <c r="B17" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>0</v>
-      </c>
+        <v>6129</v>
+      </c>
+      <c r="B17" s="8"/>
+      <c r="C17" s="3"/>
       <c r="D17" s="3"/>
       <c r="E17" s="3"/>
-      <c r="F17" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="G17" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="H17" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="I17" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="J17" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="K17" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="L17" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="M17" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="N17" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="O17" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="P17" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q17" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="R17" s="3" t="s">
-        <v>0</v>
-      </c>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+      <c r="K17" s="3"/>
+      <c r="L17" s="3"/>
+      <c r="M17" s="3"/>
+      <c r="N17" s="3"/>
+      <c r="O17" s="3"/>
+      <c r="P17" s="3"/>
+      <c r="Q17" s="3"/>
+      <c r="R17" s="3"/>
       <c r="S17" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="T17" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="U17" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="V17" s="3" t="s">
-        <v>0</v>
-      </c>
+      <c r="T17" s="3"/>
+      <c r="U17" s="3"/>
+      <c r="V17" s="3"/>
       <c r="W17" s="3"/>
       <c r="X17" s="3"/>
       <c r="Y17" s="3"/>
@@ -2463,9 +2443,9 @@
     </row>
     <row r="18" spans="1:31">
       <c r="A18" s="9">
-        <v>6982</v>
-      </c>
-      <c r="B18" s="3" t="s">
+        <v>6130</v>
+      </c>
+      <c r="B18" s="8" t="s">
         <v>0</v>
       </c>
       <c r="C18" s="3" t="s">
@@ -2473,9 +2453,15 @@
       </c>
       <c r="D18" s="3"/>
       <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
+      <c r="F18" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>0</v>
+      </c>
       <c r="I18" s="3" t="s">
         <v>0</v>
       </c>
@@ -2530,22 +2516,40 @@
     </row>
     <row r="19" spans="1:31">
       <c r="A19" s="9">
-        <v>9281</v>
-      </c>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
+        <v>6982</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>0</v>
+      </c>
       <c r="D19" s="3"/>
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
       <c r="G19" s="3"/>
       <c r="H19" s="3"/>
-      <c r="I19" s="3"/>
-      <c r="J19" s="3"/>
-      <c r="K19" s="3"/>
-      <c r="L19" s="3"/>
-      <c r="M19" s="3"/>
-      <c r="N19" s="3"/>
-      <c r="O19" s="3"/>
+      <c r="I19" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="J19" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="K19" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="L19" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="M19" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="N19" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="O19" s="3" t="s">
+        <v>0</v>
+      </c>
       <c r="P19" s="3" t="s">
         <v>0</v>
       </c>
@@ -2567,9 +2571,15 @@
       <c r="V19" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="W19" s="3"/>
-      <c r="X19" s="3"/>
-      <c r="Y19" s="3"/>
+      <c r="W19" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="X19" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y19" s="3" t="s">
+        <v>0</v>
+      </c>
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
@@ -2577,177 +2587,275 @@
       <c r="AD19" s="3"/>
       <c r="AE19" s="7"/>
     </row>
-    <row r="20" spans="1:31" ht="16.5" thickBot="1">
-      <c r="A20" s="22">
+    <row r="20" spans="1:31">
+      <c r="A20" s="9">
+        <v>7945</v>
+      </c>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
+      <c r="K20" s="3"/>
+      <c r="L20" s="3"/>
+      <c r="M20" s="3"/>
+      <c r="N20" s="3"/>
+      <c r="O20" s="3"/>
+      <c r="P20" s="3"/>
+      <c r="Q20" s="3"/>
+      <c r="R20" s="3"/>
+      <c r="S20" s="3"/>
+      <c r="T20" s="3"/>
+      <c r="U20" s="3"/>
+      <c r="V20" s="3"/>
+      <c r="W20" s="3"/>
+      <c r="X20" s="3"/>
+      <c r="Y20" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z20" s="3"/>
+      <c r="AA20" s="3"/>
+      <c r="AB20" s="3"/>
+      <c r="AC20" s="3"/>
+      <c r="AD20" s="3"/>
+      <c r="AE20" s="7"/>
+    </row>
+    <row r="21" spans="1:31">
+      <c r="A21" s="9">
+        <v>9281</v>
+      </c>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="3"/>
+      <c r="K21" s="3"/>
+      <c r="L21" s="3"/>
+      <c r="M21" s="3"/>
+      <c r="N21" s="3"/>
+      <c r="O21" s="3"/>
+      <c r="P21" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q21" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="R21" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="S21" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="T21" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="U21" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="V21" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="W21" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="X21" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y21" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z21" s="3"/>
+      <c r="AA21" s="3"/>
+      <c r="AB21" s="3"/>
+      <c r="AC21" s="3"/>
+      <c r="AD21" s="3"/>
+      <c r="AE21" s="7"/>
+    </row>
+    <row r="22" spans="1:31" ht="16.5" thickBot="1">
+      <c r="A22" s="20">
         <v>9553</v>
       </c>
-      <c r="B20" s="23"/>
-      <c r="C20" s="24"/>
-      <c r="D20" s="24"/>
-      <c r="E20" s="24"/>
-      <c r="F20" s="24"/>
-      <c r="G20" s="24"/>
-      <c r="H20" s="24"/>
-      <c r="I20" s="24"/>
-      <c r="J20" s="24"/>
-      <c r="K20" s="24"/>
-      <c r="L20" s="24"/>
-      <c r="M20" s="24"/>
-      <c r="N20" s="24"/>
-      <c r="O20" s="24"/>
-      <c r="P20" s="24" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q20" s="24" t="s">
-        <v>0</v>
-      </c>
-      <c r="R20" s="24" t="s">
-        <v>0</v>
-      </c>
-      <c r="S20" s="24" t="s">
-        <v>0</v>
-      </c>
-      <c r="T20" s="24" t="s">
-        <v>0</v>
-      </c>
-      <c r="U20" s="24" t="s">
-        <v>0</v>
-      </c>
-      <c r="V20" s="24" t="s">
-        <v>0</v>
-      </c>
-      <c r="W20" s="24"/>
-      <c r="X20" s="24"/>
-      <c r="Y20" s="24"/>
-      <c r="Z20" s="24"/>
-      <c r="AA20" s="24"/>
-      <c r="AB20" s="24"/>
-      <c r="AC20" s="24"/>
-      <c r="AD20" s="24"/>
-      <c r="AE20" s="25"/>
-    </row>
-    <row r="21" spans="1:31" ht="16.5" thickBot="1">
-      <c r="A21" s="10" t="s">
+      <c r="B22" s="21"/>
+      <c r="C22" s="22"/>
+      <c r="D22" s="22"/>
+      <c r="E22" s="22"/>
+      <c r="F22" s="22"/>
+      <c r="G22" s="22"/>
+      <c r="H22" s="22"/>
+      <c r="I22" s="22"/>
+      <c r="J22" s="22"/>
+      <c r="K22" s="22"/>
+      <c r="L22" s="22"/>
+      <c r="M22" s="22"/>
+      <c r="N22" s="22"/>
+      <c r="O22" s="22"/>
+      <c r="P22" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="R22" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="S22" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="T22" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="U22" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="V22" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="W22" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="X22" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y22" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z22" s="22"/>
+      <c r="AA22" s="22"/>
+      <c r="AB22" s="22"/>
+      <c r="AC22" s="22"/>
+      <c r="AD22" s="22"/>
+      <c r="AE22" s="23"/>
+    </row>
+    <row r="23" spans="1:31" ht="16.5" thickBot="1">
+      <c r="A23" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B21" s="11">
-        <f>COUNTIF(B4:B20,"х")</f>
+      <c r="B23" s="11">
+        <f>COUNTIF(B4:B22,"х")</f>
         <v>6</v>
       </c>
-      <c r="C21" s="11">
-        <f t="shared" ref="C21:T21" si="0">COUNTIF(C4:C20,"х")</f>
+      <c r="C23" s="11">
+        <f t="shared" ref="C23:T23" si="0">COUNTIF(C4:C22,"х")</f>
         <v>7</v>
       </c>
-      <c r="D21" s="11">
+      <c r="D23" s="11">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="E21" s="11">
+      <c r="E23" s="11">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="F21" s="11">
+      <c r="F23" s="11">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="G21" s="11">
+      <c r="G23" s="11">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="H21" s="11">
+      <c r="H23" s="11">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="I21" s="11">
+      <c r="I23" s="11">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="J21" s="11">
+      <c r="J23" s="11">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="K21" s="11">
+      <c r="K23" s="11">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="L21" s="11">
+      <c r="L23" s="11">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="M21" s="11">
+      <c r="M23" s="11">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="N21" s="11">
+      <c r="N23" s="11">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="O21" s="11">
+      <c r="O23" s="11">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="P21" s="11">
+      <c r="P23" s="11">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="Q21" s="11">
+      <c r="Q23" s="11">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="R21" s="11">
+      <c r="R23" s="11">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="S21" s="11">
+      <c r="S23" s="11">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="T21" s="11">
+      <c r="T23" s="11">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="U21" s="12">
-        <f>COUNTIF(U4:U20,"х")</f>
+      <c r="U23" s="12">
+        <f>COUNTIF(U4:U22,"х")</f>
         <v>7</v>
       </c>
-      <c r="V21" s="12">
-        <f t="shared" ref="V21" si="1">COUNTIF(V4:V20,"х")</f>
+      <c r="V23" s="12">
+        <f t="shared" ref="V23" si="1">COUNTIF(V4:V22,"х")</f>
         <v>8</v>
       </c>
-      <c r="W21" s="12">
-        <f t="shared" ref="W21" si="2">COUNTIF(W4:W20,"х")</f>
-        <v>0</v>
-      </c>
-      <c r="X21" s="12">
-        <f t="shared" ref="X21" si="3">COUNTIF(X4:X20,"х")</f>
-        <v>0</v>
-      </c>
-      <c r="Y21" s="12">
-        <f t="shared" ref="Y21" si="4">COUNTIF(Y4:Y20,"х")</f>
-        <v>0</v>
-      </c>
-      <c r="Z21" s="12">
-        <f t="shared" ref="Z21" si="5">COUNTIF(Z4:Z20,"х")</f>
-        <v>0</v>
-      </c>
-      <c r="AA21" s="12">
-        <f t="shared" ref="AA21" si="6">COUNTIF(AA4:AA20,"х")</f>
-        <v>0</v>
-      </c>
-      <c r="AB21" s="12">
-        <f t="shared" ref="AB21" si="7">COUNTIF(AB4:AB20,"х")</f>
-        <v>0</v>
-      </c>
-      <c r="AC21" s="12">
-        <f t="shared" ref="AC21" si="8">COUNTIF(AC4:AC20,"х")</f>
-        <v>0</v>
-      </c>
-      <c r="AD21" s="12">
-        <f t="shared" ref="AD21" si="9">COUNTIF(AD4:AD20,"х")</f>
-        <v>0</v>
-      </c>
-      <c r="AE21" s="13">
-        <f t="shared" ref="AE21" si="10">COUNTIF(AE4:AE20,"х")</f>
+      <c r="W23" s="12">
+        <f t="shared" ref="W23" si="2">COUNTIF(W4:W22,"х")</f>
+        <v>6</v>
+      </c>
+      <c r="X23" s="12">
+        <f t="shared" ref="X23" si="3">COUNTIF(X4:X22,"х")</f>
+        <v>6</v>
+      </c>
+      <c r="Y23" s="12">
+        <f t="shared" ref="Y23" si="4">COUNTIF(Y4:Y22,"х")</f>
+        <v>8</v>
+      </c>
+      <c r="Z23" s="12">
+        <f t="shared" ref="Z23" si="5">COUNTIF(Z4:Z22,"х")</f>
+        <v>0</v>
+      </c>
+      <c r="AA23" s="12">
+        <f t="shared" ref="AA23" si="6">COUNTIF(AA4:AA22,"х")</f>
+        <v>0</v>
+      </c>
+      <c r="AB23" s="12">
+        <f t="shared" ref="AB23" si="7">COUNTIF(AB4:AB22,"х")</f>
+        <v>0</v>
+      </c>
+      <c r="AC23" s="12">
+        <f t="shared" ref="AC23" si="8">COUNTIF(AC4:AC22,"х")</f>
+        <v>0</v>
+      </c>
+      <c r="AD23" s="12">
+        <f t="shared" ref="AD23" si="9">COUNTIF(AD4:AD22,"х")</f>
+        <v>0</v>
+      </c>
+      <c r="AE23" s="13">
+        <f t="shared" ref="AE23" si="10">COUNTIF(AE4:AE22,"х")</f>
         <v>0</v>
       </c>
     </row>
@@ -2755,7 +2863,7 @@
   <mergeCells count="1">
     <mergeCell ref="A1:AE1"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="180" verticalDpi="180" r:id="rId1"/>
+  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="180" verticalDpi="180" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Табели/!Табель не работающих АСДУ.xlsx
+++ b/Табели/!Табель не работающих АСДУ.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="5">
   <si>
     <t>х</t>
   </si>
@@ -1667,7 +1667,7 @@
   <dimension ref="A1:AE23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Y14" sqref="Y14"/>
+      <selection activeCell="Z13" sqref="Z13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -1877,7 +1877,9 @@
       <c r="Y4" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="Z4" s="16"/>
+      <c r="Z4" s="16" t="s">
+        <v>0</v>
+      </c>
       <c r="AA4" s="16"/>
       <c r="AB4" s="16"/>
       <c r="AC4" s="16"/>
@@ -2108,7 +2110,9 @@
       <c r="Y9" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="Z9" s="3"/>
+      <c r="Z9" s="3" t="s">
+        <v>0</v>
+      </c>
       <c r="AA9" s="3"/>
       <c r="AB9" s="3"/>
       <c r="AC9" s="3"/>
@@ -2239,7 +2243,9 @@
       <c r="Y12" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="Z12" s="3"/>
+      <c r="Z12" s="3" t="s">
+        <v>0</v>
+      </c>
       <c r="AA12" s="3"/>
       <c r="AB12" s="3"/>
       <c r="AC12" s="3"/>
@@ -2276,7 +2282,9 @@
       <c r="Y13" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="Z13" s="3"/>
+      <c r="Z13" s="3" t="s">
+        <v>0</v>
+      </c>
       <c r="AA13" s="3"/>
       <c r="AB13" s="3"/>
       <c r="AC13" s="3"/>
@@ -2580,7 +2588,9 @@
       <c r="Y19" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="Z19" s="3"/>
+      <c r="Z19" s="3" t="s">
+        <v>0</v>
+      </c>
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
@@ -2617,7 +2627,9 @@
       <c r="Y20" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="Z20" s="3"/>
+      <c r="Z20" s="3" t="s">
+        <v>0</v>
+      </c>
       <c r="AA20" s="3"/>
       <c r="AB20" s="3"/>
       <c r="AC20" s="3"/>
@@ -2672,7 +2684,9 @@
       <c r="Y21" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="Z21" s="3"/>
+      <c r="Z21" s="3" t="s">
+        <v>0</v>
+      </c>
       <c r="AA21" s="3"/>
       <c r="AB21" s="3"/>
       <c r="AC21" s="3"/>
@@ -2727,7 +2741,9 @@
       <c r="Y22" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="Z22" s="22"/>
+      <c r="Z22" s="22" t="s">
+        <v>0</v>
+      </c>
       <c r="AA22" s="22"/>
       <c r="AB22" s="22"/>
       <c r="AC22" s="22"/>
@@ -2836,7 +2852,7 @@
       </c>
       <c r="Z23" s="12">
         <f t="shared" ref="Z23" si="5">COUNTIF(Z4:Z22,"х")</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AA23" s="12">
         <f t="shared" ref="AA23" si="6">COUNTIF(AA4:AA22,"х")</f>

--- a/Табели/!Табель не работающих АСДУ.xlsx
+++ b/Табели/!Табель не работающих АСДУ.xlsx
@@ -10,12 +10,15 @@
     <sheet name="Октябрь 2018" sheetId="1" r:id="rId1"/>
     <sheet name="Ноябрь 2018" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Ноябрь 2018'!$A$2:$AE$23</definedName>
+  </definedNames>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="5">
   <si>
     <t>х</t>
   </si>
@@ -1667,7 +1670,7 @@
   <dimension ref="A1:AE23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Z13" sqref="Z13"/>
+      <selection activeCell="AA12" sqref="AA12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -1880,7 +1883,9 @@
       <c r="Z4" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="AA4" s="16"/>
+      <c r="AA4" s="16" t="s">
+        <v>0</v>
+      </c>
       <c r="AB4" s="16"/>
       <c r="AC4" s="16"/>
       <c r="AD4" s="16"/>
@@ -2113,7 +2118,9 @@
       <c r="Z9" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="AA9" s="3"/>
+      <c r="AA9" s="3" t="s">
+        <v>0</v>
+      </c>
       <c r="AB9" s="3"/>
       <c r="AC9" s="3"/>
       <c r="AD9" s="3"/>
@@ -2246,7 +2253,9 @@
       <c r="Z12" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="AA12" s="3"/>
+      <c r="AA12" s="3" t="s">
+        <v>0</v>
+      </c>
       <c r="AB12" s="3"/>
       <c r="AC12" s="3"/>
       <c r="AD12" s="3"/>
@@ -2285,7 +2294,9 @@
       <c r="Z13" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="AA13" s="3"/>
+      <c r="AA13" s="3" t="s">
+        <v>0</v>
+      </c>
       <c r="AB13" s="3"/>
       <c r="AC13" s="3"/>
       <c r="AD13" s="3"/>
@@ -2591,7 +2602,9 @@
       <c r="Z19" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="AA19" s="3"/>
+      <c r="AA19" s="3" t="s">
+        <v>0</v>
+      </c>
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
       <c r="AD19" s="3"/>
@@ -2630,7 +2643,9 @@
       <c r="Z20" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="AA20" s="3"/>
+      <c r="AA20" s="3" t="s">
+        <v>0</v>
+      </c>
       <c r="AB20" s="3"/>
       <c r="AC20" s="3"/>
       <c r="AD20" s="3"/>
@@ -2687,7 +2702,9 @@
       <c r="Z21" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="AA21" s="3"/>
+      <c r="AA21" s="3" t="s">
+        <v>0</v>
+      </c>
       <c r="AB21" s="3"/>
       <c r="AC21" s="3"/>
       <c r="AD21" s="3"/>
@@ -2744,7 +2761,9 @@
       <c r="Z22" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="AA22" s="22"/>
+      <c r="AA22" s="22" t="s">
+        <v>0</v>
+      </c>
       <c r="AB22" s="22"/>
       <c r="AC22" s="22"/>
       <c r="AD22" s="22"/>
@@ -2856,7 +2875,7 @@
       </c>
       <c r="AA23" s="12">
         <f t="shared" ref="AA23" si="6">COUNTIF(AA4:AA22,"х")</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AB23" s="12">
         <f t="shared" ref="AB23" si="7">COUNTIF(AB4:AB22,"х")</f>
@@ -2876,6 +2895,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A2:AE23"/>
   <mergeCells count="1">
     <mergeCell ref="A1:AE1"/>
   </mergeCells>

--- a/Табели/!Табель не работающих АСДУ.xlsx
+++ b/Табели/!Табель не работающих АСДУ.xlsx
@@ -11,14 +11,14 @@
     <sheet name="Ноябрь 2018" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Ноябрь 2018'!$A$2:$AE$23</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Ноябрь 2018'!$A$2:$AE$24</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="5">
   <si>
     <t>х</t>
   </si>
@@ -1667,10 +1667,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AE23"/>
+  <dimension ref="A1:AE24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AA12" sqref="AA12"/>
+      <selection activeCell="AB11" sqref="AB11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -1886,7 +1886,9 @@
       <c r="AA4" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="AB4" s="16"/>
+      <c r="AB4" s="16" t="s">
+        <v>0</v>
+      </c>
       <c r="AC4" s="16"/>
       <c r="AD4" s="16"/>
       <c r="AE4" s="17"/>
@@ -2121,14 +2123,16 @@
       <c r="AA9" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="AB9" s="3"/>
+      <c r="AB9" s="3" t="s">
+        <v>0</v>
+      </c>
       <c r="AC9" s="3"/>
       <c r="AD9" s="3"/>
       <c r="AE9" s="7"/>
     </row>
     <row r="10" spans="1:31">
       <c r="A10" s="9">
-        <v>2961</v>
+        <v>1291</v>
       </c>
       <c r="B10" s="8"/>
       <c r="C10" s="3"/>
@@ -2139,9 +2143,7 @@
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
-      <c r="K10" s="3" t="s">
-        <v>0</v>
-      </c>
+      <c r="K10" s="3"/>
       <c r="L10" s="3"/>
       <c r="M10" s="3"/>
       <c r="N10" s="3"/>
@@ -2149,9 +2151,7 @@
       <c r="P10" s="3"/>
       <c r="Q10" s="3"/>
       <c r="R10" s="3"/>
-      <c r="S10" s="3" t="s">
-        <v>0</v>
-      </c>
+      <c r="S10" s="3"/>
       <c r="T10" s="3"/>
       <c r="U10" s="3"/>
       <c r="V10" s="3"/>
@@ -2160,14 +2160,16 @@
       <c r="Y10" s="3"/>
       <c r="Z10" s="3"/>
       <c r="AA10" s="3"/>
-      <c r="AB10" s="3"/>
+      <c r="AB10" s="3" t="s">
+        <v>0</v>
+      </c>
       <c r="AC10" s="3"/>
       <c r="AD10" s="3"/>
       <c r="AE10" s="7"/>
     </row>
     <row r="11" spans="1:31">
       <c r="A11" s="9">
-        <v>2962</v>
+        <v>2961</v>
       </c>
       <c r="B11" s="8"/>
       <c r="C11" s="3"/>
@@ -2178,17 +2180,19 @@
       <c r="H11" s="3"/>
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
-      <c r="K11" s="3"/>
+      <c r="K11" s="3" t="s">
+        <v>0</v>
+      </c>
       <c r="L11" s="3"/>
-      <c r="M11" s="3" t="s">
-        <v>0</v>
-      </c>
+      <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-      <c r="S11" s="3"/>
+      <c r="S11" s="3" t="s">
+        <v>0</v>
+      </c>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
@@ -2204,7 +2208,7 @@
     </row>
     <row r="12" spans="1:31">
       <c r="A12" s="9">
-        <v>4729</v>
+        <v>2962</v>
       </c>
       <c r="B12" s="8"/>
       <c r="C12" s="3"/>
@@ -2217,45 +2221,23 @@
       <c r="J12" s="3"/>
       <c r="K12" s="3"/>
       <c r="L12" s="3"/>
-      <c r="M12" s="3"/>
+      <c r="M12" s="3" t="s">
+        <v>0</v>
+      </c>
       <c r="N12" s="3"/>
       <c r="O12" s="3"/>
-      <c r="P12" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q12" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="R12" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="S12" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="T12" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="U12" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="V12" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="W12" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="X12" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="Y12" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="Z12" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="AA12" s="3" t="s">
-        <v>0</v>
-      </c>
+      <c r="P12" s="3"/>
+      <c r="Q12" s="3"/>
+      <c r="R12" s="3"/>
+      <c r="S12" s="3"/>
+      <c r="T12" s="3"/>
+      <c r="U12" s="3"/>
+      <c r="V12" s="3"/>
+      <c r="W12" s="3"/>
+      <c r="X12" s="3"/>
+      <c r="Y12" s="3"/>
+      <c r="Z12" s="3"/>
+      <c r="AA12" s="3"/>
       <c r="AB12" s="3"/>
       <c r="AC12" s="3"/>
       <c r="AD12" s="3"/>
@@ -2263,7 +2245,7 @@
     </row>
     <row r="13" spans="1:31">
       <c r="A13" s="9">
-        <v>4730</v>
+        <v>4729</v>
       </c>
       <c r="B13" s="8"/>
       <c r="C13" s="3"/>
@@ -2279,15 +2261,33 @@
       <c r="M13" s="3"/>
       <c r="N13" s="3"/>
       <c r="O13" s="3"/>
-      <c r="P13" s="3"/>
-      <c r="Q13" s="3"/>
-      <c r="R13" s="3"/>
-      <c r="S13" s="3"/>
-      <c r="T13" s="3"/>
-      <c r="U13" s="3"/>
-      <c r="V13" s="3"/>
-      <c r="W13" s="3"/>
-      <c r="X13" s="3"/>
+      <c r="P13" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="R13" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="S13" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="T13" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="U13" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="V13" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="W13" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="X13" s="3" t="s">
+        <v>0</v>
+      </c>
       <c r="Y13" s="3" t="s">
         <v>0</v>
       </c>
@@ -2297,36 +2297,28 @@
       <c r="AA13" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="AB13" s="3"/>
+      <c r="AB13" s="3" t="s">
+        <v>0</v>
+      </c>
       <c r="AC13" s="3"/>
       <c r="AD13" s="3"/>
       <c r="AE13" s="7"/>
     </row>
     <row r="14" spans="1:31">
       <c r="A14" s="9">
-        <v>4995</v>
-      </c>
-      <c r="B14" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>0</v>
-      </c>
+        <v>4730</v>
+      </c>
+      <c r="B14" s="8"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
       <c r="J14" s="3"/>
-      <c r="K14" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="L14" s="3" t="s">
-        <v>0</v>
-      </c>
+      <c r="K14" s="3"/>
+      <c r="L14" s="3"/>
       <c r="M14" s="3"/>
       <c r="N14" s="3"/>
       <c r="O14" s="3"/>
@@ -2335,35 +2327,51 @@
       <c r="R14" s="3"/>
       <c r="S14" s="3"/>
       <c r="T14" s="3"/>
-      <c r="U14" s="3" t="s">
-        <v>0</v>
-      </c>
+      <c r="U14" s="3"/>
       <c r="V14" s="3"/>
       <c r="W14" s="3"/>
       <c r="X14" s="3"/>
-      <c r="Y14" s="3"/>
-      <c r="Z14" s="3"/>
-      <c r="AA14" s="3"/>
-      <c r="AB14" s="3"/>
+      <c r="Y14" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z14" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA14" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="AB14" s="3" t="s">
+        <v>0</v>
+      </c>
       <c r="AC14" s="3"/>
       <c r="AD14" s="3"/>
       <c r="AE14" s="7"/>
     </row>
     <row r="15" spans="1:31">
       <c r="A15" s="9">
-        <v>5721</v>
-      </c>
-      <c r="B15" s="8"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
+        <v>4995</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>0</v>
+      </c>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
       <c r="H15" s="3"/>
       <c r="I15" s="3"/>
       <c r="J15" s="3"/>
-      <c r="K15" s="3"/>
-      <c r="L15" s="3"/>
+      <c r="K15" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="L15" s="3" t="s">
+        <v>0</v>
+      </c>
       <c r="M15" s="3"/>
       <c r="N15" s="3"/>
       <c r="O15" s="3"/>
@@ -2372,10 +2380,10 @@
       <c r="R15" s="3"/>
       <c r="S15" s="3"/>
       <c r="T15" s="3"/>
-      <c r="U15" s="3"/>
-      <c r="V15" s="3" t="s">
-        <v>0</v>
-      </c>
+      <c r="U15" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="V15" s="3"/>
       <c r="W15" s="3"/>
       <c r="X15" s="3"/>
       <c r="Y15" s="3"/>
@@ -2388,14 +2396,12 @@
     </row>
     <row r="16" spans="1:31">
       <c r="A16" s="9">
-        <v>6172</v>
+        <v>5721</v>
       </c>
       <c r="B16" s="8"/>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
-      <c r="E16" s="3" t="s">
-        <v>0</v>
-      </c>
+      <c r="E16" s="3"/>
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
       <c r="H16" s="3"/>
@@ -2412,7 +2418,9 @@
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
-      <c r="V16" s="3"/>
+      <c r="V16" s="3" t="s">
+        <v>0</v>
+      </c>
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
@@ -2425,12 +2433,14 @@
     </row>
     <row r="17" spans="1:31">
       <c r="A17" s="9">
-        <v>6129</v>
+        <v>6172</v>
       </c>
       <c r="B17" s="8"/>
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
+      <c r="E17" s="3" t="s">
+        <v>0</v>
+      </c>
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
       <c r="H17" s="3"/>
@@ -2444,9 +2454,7 @@
       <c r="P17" s="3"/>
       <c r="Q17" s="3"/>
       <c r="R17" s="3"/>
-      <c r="S17" s="3" t="s">
-        <v>0</v>
-      </c>
+      <c r="S17" s="3"/>
       <c r="T17" s="3"/>
       <c r="U17" s="3"/>
       <c r="V17" s="3"/>
@@ -2462,67 +2470,31 @@
     </row>
     <row r="18" spans="1:31">
       <c r="A18" s="9">
-        <v>6130</v>
-      </c>
-      <c r="B18" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>0</v>
-      </c>
+        <v>6129</v>
+      </c>
+      <c r="B18" s="8"/>
+      <c r="C18" s="3"/>
       <c r="D18" s="3"/>
       <c r="E18" s="3"/>
-      <c r="F18" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="G18" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="H18" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="I18" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="J18" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="K18" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="L18" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="M18" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="N18" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="O18" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="P18" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q18" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="R18" s="3" t="s">
-        <v>0</v>
-      </c>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+      <c r="K18" s="3"/>
+      <c r="L18" s="3"/>
+      <c r="M18" s="3"/>
+      <c r="N18" s="3"/>
+      <c r="O18" s="3"/>
+      <c r="P18" s="3"/>
+      <c r="Q18" s="3"/>
+      <c r="R18" s="3"/>
       <c r="S18" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="T18" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="U18" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="V18" s="3" t="s">
-        <v>0</v>
-      </c>
+      <c r="T18" s="3"/>
+      <c r="U18" s="3"/>
+      <c r="V18" s="3"/>
       <c r="W18" s="3"/>
       <c r="X18" s="3"/>
       <c r="Y18" s="3"/>
@@ -2535,9 +2507,9 @@
     </row>
     <row r="19" spans="1:31">
       <c r="A19" s="9">
-        <v>6982</v>
-      </c>
-      <c r="B19" s="3" t="s">
+        <v>6130</v>
+      </c>
+      <c r="B19" s="8" t="s">
         <v>0</v>
       </c>
       <c r="C19" s="3" t="s">
@@ -2545,9 +2517,15 @@
       </c>
       <c r="D19" s="3"/>
       <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
+      <c r="F19" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="H19" s="3" t="s">
+        <v>0</v>
+      </c>
       <c r="I19" s="3" t="s">
         <v>0</v>
       </c>
@@ -2590,21 +2568,11 @@
       <c r="V19" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="W19" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="X19" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="Y19" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="Z19" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="AA19" s="3" t="s">
-        <v>0</v>
-      </c>
+      <c r="W19" s="3"/>
+      <c r="X19" s="3"/>
+      <c r="Y19" s="3"/>
+      <c r="Z19" s="3"/>
+      <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
       <c r="AD19" s="3"/>
@@ -2612,31 +2580,67 @@
     </row>
     <row r="20" spans="1:31">
       <c r="A20" s="9">
-        <v>7945</v>
-      </c>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
+        <v>6982</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>0</v>
+      </c>
       <c r="D20" s="3"/>
       <c r="E20" s="3"/>
       <c r="F20" s="3"/>
       <c r="G20" s="3"/>
       <c r="H20" s="3"/>
-      <c r="I20" s="3"/>
-      <c r="J20" s="3"/>
-      <c r="K20" s="3"/>
-      <c r="L20" s="3"/>
-      <c r="M20" s="3"/>
-      <c r="N20" s="3"/>
-      <c r="O20" s="3"/>
-      <c r="P20" s="3"/>
-      <c r="Q20" s="3"/>
-      <c r="R20" s="3"/>
-      <c r="S20" s="3"/>
-      <c r="T20" s="3"/>
-      <c r="U20" s="3"/>
-      <c r="V20" s="3"/>
-      <c r="W20" s="3"/>
-      <c r="X20" s="3"/>
+      <c r="I20" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="J20" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="K20" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="L20" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="M20" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="N20" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="O20" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="P20" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="R20" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="S20" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="T20" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="U20" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="V20" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="W20" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="X20" s="3" t="s">
+        <v>0</v>
+      </c>
       <c r="Y20" s="3" t="s">
         <v>0</v>
       </c>
@@ -2646,14 +2650,16 @@
       <c r="AA20" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="AB20" s="3"/>
+      <c r="AB20" s="3" t="s">
+        <v>0</v>
+      </c>
       <c r="AC20" s="3"/>
       <c r="AD20" s="3"/>
       <c r="AE20" s="7"/>
     </row>
     <row r="21" spans="1:31">
       <c r="A21" s="9">
-        <v>9281</v>
+        <v>7945</v>
       </c>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
@@ -2669,33 +2675,15 @@
       <c r="M21" s="3"/>
       <c r="N21" s="3"/>
       <c r="O21" s="3"/>
-      <c r="P21" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q21" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="R21" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="S21" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="T21" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="U21" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="V21" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="W21" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="X21" s="3" t="s">
-        <v>0</v>
-      </c>
+      <c r="P21" s="3"/>
+      <c r="Q21" s="3"/>
+      <c r="R21" s="3"/>
+      <c r="S21" s="3"/>
+      <c r="T21" s="3"/>
+      <c r="U21" s="3"/>
+      <c r="V21" s="3"/>
+      <c r="W21" s="3"/>
+      <c r="X21" s="3"/>
       <c r="Y21" s="3" t="s">
         <v>0</v>
       </c>
@@ -2710,192 +2698,255 @@
       <c r="AD21" s="3"/>
       <c r="AE21" s="7"/>
     </row>
-    <row r="22" spans="1:31" ht="16.5" thickBot="1">
-      <c r="A22" s="20">
+    <row r="22" spans="1:31">
+      <c r="A22" s="9">
+        <v>9281</v>
+      </c>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
+      <c r="J22" s="3"/>
+      <c r="K22" s="3"/>
+      <c r="L22" s="3"/>
+      <c r="M22" s="3"/>
+      <c r="N22" s="3"/>
+      <c r="O22" s="3"/>
+      <c r="P22" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="R22" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="S22" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="T22" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="U22" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="V22" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="W22" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="X22" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y22" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z22" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA22" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="AB22" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC22" s="3"/>
+      <c r="AD22" s="3"/>
+      <c r="AE22" s="7"/>
+    </row>
+    <row r="23" spans="1:31" ht="16.5" thickBot="1">
+      <c r="A23" s="20">
         <v>9553</v>
       </c>
-      <c r="B22" s="21"/>
-      <c r="C22" s="22"/>
-      <c r="D22" s="22"/>
-      <c r="E22" s="22"/>
-      <c r="F22" s="22"/>
-      <c r="G22" s="22"/>
-      <c r="H22" s="22"/>
-      <c r="I22" s="22"/>
-      <c r="J22" s="22"/>
-      <c r="K22" s="22"/>
-      <c r="L22" s="22"/>
-      <c r="M22" s="22"/>
-      <c r="N22" s="22"/>
-      <c r="O22" s="22"/>
-      <c r="P22" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q22" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="R22" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="S22" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="T22" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="U22" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="V22" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="W22" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="X22" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="Y22" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="Z22" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="AA22" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="AB22" s="22"/>
-      <c r="AC22" s="22"/>
-      <c r="AD22" s="22"/>
-      <c r="AE22" s="23"/>
-    </row>
-    <row r="23" spans="1:31" ht="16.5" thickBot="1">
-      <c r="A23" s="10" t="s">
+      <c r="B23" s="21"/>
+      <c r="C23" s="22"/>
+      <c r="D23" s="22"/>
+      <c r="E23" s="22"/>
+      <c r="F23" s="22"/>
+      <c r="G23" s="22"/>
+      <c r="H23" s="22"/>
+      <c r="I23" s="22"/>
+      <c r="J23" s="22"/>
+      <c r="K23" s="22"/>
+      <c r="L23" s="22"/>
+      <c r="M23" s="22"/>
+      <c r="N23" s="22"/>
+      <c r="O23" s="22"/>
+      <c r="P23" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q23" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="R23" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="S23" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="T23" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="U23" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="V23" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="W23" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="X23" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y23" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z23" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA23" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="AB23" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC23" s="22"/>
+      <c r="AD23" s="22"/>
+      <c r="AE23" s="23"/>
+    </row>
+    <row r="24" spans="1:31" ht="16.5" thickBot="1">
+      <c r="A24" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B23" s="11">
-        <f>COUNTIF(B4:B22,"х")</f>
+      <c r="B24" s="11">
+        <f>COUNTIF(B4:B23,"х")</f>
         <v>6</v>
       </c>
-      <c r="C23" s="11">
-        <f t="shared" ref="C23:T23" si="0">COUNTIF(C4:C22,"х")</f>
+      <c r="C24" s="11">
+        <f t="shared" ref="C24:T24" si="0">COUNTIF(C4:C23,"х")</f>
         <v>7</v>
       </c>
-      <c r="D23" s="11">
+      <c r="D24" s="11">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="E23" s="11">
+      <c r="E24" s="11">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="F23" s="11">
+      <c r="F24" s="11">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="G23" s="11">
+      <c r="G24" s="11">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="H23" s="11">
+      <c r="H24" s="11">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="I23" s="11">
+      <c r="I24" s="11">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="J23" s="11">
+      <c r="J24" s="11">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="K23" s="11">
+      <c r="K24" s="11">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="L23" s="11">
+      <c r="L24" s="11">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="M23" s="11">
+      <c r="M24" s="11">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="N23" s="11">
+      <c r="N24" s="11">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="O23" s="11">
+      <c r="O24" s="11">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="P23" s="11">
+      <c r="P24" s="11">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="Q23" s="11">
+      <c r="Q24" s="11">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="R23" s="11">
+      <c r="R24" s="11">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="S23" s="11">
+      <c r="S24" s="11">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="T23" s="11">
+      <c r="T24" s="11">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="U23" s="12">
-        <f>COUNTIF(U4:U22,"х")</f>
+      <c r="U24" s="12">
+        <f>COUNTIF(U4:U23,"х")</f>
         <v>7</v>
       </c>
-      <c r="V23" s="12">
-        <f t="shared" ref="V23" si="1">COUNTIF(V4:V22,"х")</f>
+      <c r="V24" s="12">
+        <f t="shared" ref="V24" si="1">COUNTIF(V4:V23,"х")</f>
         <v>8</v>
       </c>
-      <c r="W23" s="12">
-        <f t="shared" ref="W23" si="2">COUNTIF(W4:W22,"х")</f>
+      <c r="W24" s="12">
+        <f t="shared" ref="W24" si="2">COUNTIF(W4:W23,"х")</f>
         <v>6</v>
       </c>
-      <c r="X23" s="12">
-        <f t="shared" ref="X23" si="3">COUNTIF(X4:X22,"х")</f>
+      <c r="X24" s="12">
+        <f t="shared" ref="X24" si="3">COUNTIF(X4:X23,"х")</f>
         <v>6</v>
       </c>
-      <c r="Y23" s="12">
-        <f t="shared" ref="Y23" si="4">COUNTIF(Y4:Y22,"х")</f>
+      <c r="Y24" s="12">
+        <f t="shared" ref="Y24" si="4">COUNTIF(Y4:Y23,"х")</f>
         <v>8</v>
       </c>
-      <c r="Z23" s="12">
-        <f t="shared" ref="Z23" si="5">COUNTIF(Z4:Z22,"х")</f>
+      <c r="Z24" s="12">
+        <f t="shared" ref="Z24" si="5">COUNTIF(Z4:Z23,"х")</f>
         <v>8</v>
       </c>
-      <c r="AA23" s="12">
-        <f t="shared" ref="AA23" si="6">COUNTIF(AA4:AA22,"х")</f>
+      <c r="AA24" s="12">
+        <f t="shared" ref="AA24" si="6">COUNTIF(AA4:AA23,"х")</f>
         <v>8</v>
       </c>
-      <c r="AB23" s="12">
-        <f t="shared" ref="AB23" si="7">COUNTIF(AB4:AB22,"х")</f>
-        <v>0</v>
-      </c>
-      <c r="AC23" s="12">
-        <f t="shared" ref="AC23" si="8">COUNTIF(AC4:AC22,"х")</f>
-        <v>0</v>
-      </c>
-      <c r="AD23" s="12">
-        <f t="shared" ref="AD23" si="9">COUNTIF(AD4:AD22,"х")</f>
-        <v>0</v>
-      </c>
-      <c r="AE23" s="13">
-        <f t="shared" ref="AE23" si="10">COUNTIF(AE4:AE22,"х")</f>
+      <c r="AB24" s="12">
+        <f t="shared" ref="AB24" si="7">COUNTIF(AB4:AB23,"х")</f>
+        <v>8</v>
+      </c>
+      <c r="AC24" s="12">
+        <f t="shared" ref="AC24" si="8">COUNTIF(AC4:AC23,"х")</f>
+        <v>0</v>
+      </c>
+      <c r="AD24" s="12">
+        <f t="shared" ref="AD24" si="9">COUNTIF(AD4:AD23,"х")</f>
+        <v>0</v>
+      </c>
+      <c r="AE24" s="13">
+        <f t="shared" ref="AE24" si="10">COUNTIF(AE4:AE23,"х")</f>
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A2:AE23"/>
+  <autoFilter ref="A2:AE24"/>
   <mergeCells count="1">
     <mergeCell ref="A1:AE1"/>
   </mergeCells>

--- a/Табели/!Табель не работающих АСДУ.xlsx
+++ b/Табели/!Табель не работающих АСДУ.xlsx
@@ -11,14 +11,14 @@
     <sheet name="Ноябрь 2018" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Ноябрь 2018'!$A$2:$AE$24</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Ноябрь 2018'!$A$2:$AE$25</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="5">
   <si>
     <t>х</t>
   </si>
@@ -1667,10 +1667,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AE24"/>
+  <dimension ref="A1:AE25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AB11" sqref="AB11"/>
+      <selection activeCell="AD14" sqref="AD14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -1889,8 +1889,12 @@
       <c r="AB4" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="AC4" s="16"/>
-      <c r="AD4" s="16"/>
+      <c r="AC4" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD4" s="16" t="s">
+        <v>0</v>
+      </c>
       <c r="AE4" s="17"/>
     </row>
     <row r="5" spans="1:31">
@@ -2126,8 +2130,12 @@
       <c r="AB9" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="AC9" s="3"/>
-      <c r="AD9" s="3"/>
+      <c r="AC9" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD9" s="3" t="s">
+        <v>0</v>
+      </c>
       <c r="AE9" s="7"/>
     </row>
     <row r="10" spans="1:31">
@@ -2163,7 +2171,9 @@
       <c r="AB10" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="AC10" s="3"/>
+      <c r="AC10" s="3" t="s">
+        <v>0</v>
+      </c>
       <c r="AD10" s="3"/>
       <c r="AE10" s="7"/>
     </row>
@@ -2300,8 +2310,12 @@
       <c r="AB13" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="AC13" s="3"/>
-      <c r="AD13" s="3"/>
+      <c r="AC13" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD13" s="3" t="s">
+        <v>0</v>
+      </c>
       <c r="AE13" s="7"/>
     </row>
     <row r="14" spans="1:31">
@@ -2343,8 +2357,12 @@
       <c r="AB14" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="AC14" s="3"/>
-      <c r="AD14" s="3"/>
+      <c r="AC14" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD14" s="3" t="s">
+        <v>0</v>
+      </c>
       <c r="AE14" s="7"/>
     </row>
     <row r="15" spans="1:31">
@@ -2653,8 +2671,12 @@
       <c r="AB20" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="AC20" s="3"/>
-      <c r="AD20" s="3"/>
+      <c r="AC20" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD20" s="3" t="s">
+        <v>0</v>
+      </c>
       <c r="AE20" s="7"/>
     </row>
     <row r="21" spans="1:31">
@@ -2700,7 +2722,7 @@
     </row>
     <row r="22" spans="1:31">
       <c r="A22" s="9">
-        <v>9281</v>
+        <v>8933</v>
       </c>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -2716,237 +2738,282 @@
       <c r="M22" s="3"/>
       <c r="N22" s="3"/>
       <c r="O22" s="3"/>
-      <c r="P22" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q22" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="R22" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="S22" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="T22" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="U22" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="V22" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="W22" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="X22" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="Y22" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="Z22" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="AA22" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="AB22" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="AC22" s="3"/>
+      <c r="P22" s="3"/>
+      <c r="Q22" s="3"/>
+      <c r="R22" s="3"/>
+      <c r="S22" s="3"/>
+      <c r="T22" s="3"/>
+      <c r="U22" s="3"/>
+      <c r="V22" s="3"/>
+      <c r="W22" s="3"/>
+      <c r="X22" s="3"/>
+      <c r="Y22" s="3"/>
+      <c r="Z22" s="3"/>
+      <c r="AA22" s="3"/>
+      <c r="AB22" s="3"/>
+      <c r="AC22" s="3" t="s">
+        <v>0</v>
+      </c>
       <c r="AD22" s="3"/>
       <c r="AE22" s="7"/>
     </row>
-    <row r="23" spans="1:31" ht="16.5" thickBot="1">
-      <c r="A23" s="20">
+    <row r="23" spans="1:31">
+      <c r="A23" s="9">
+        <v>9281</v>
+      </c>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
+      <c r="J23" s="3"/>
+      <c r="K23" s="3"/>
+      <c r="L23" s="3"/>
+      <c r="M23" s="3"/>
+      <c r="N23" s="3"/>
+      <c r="O23" s="3"/>
+      <c r="P23" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q23" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="R23" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="S23" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="T23" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="U23" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="V23" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="W23" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="X23" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y23" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z23" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA23" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="AB23" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC23" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD23" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="AE23" s="7"/>
+    </row>
+    <row r="24" spans="1:31" ht="16.5" thickBot="1">
+      <c r="A24" s="20">
         <v>9553</v>
       </c>
-      <c r="B23" s="21"/>
-      <c r="C23" s="22"/>
-      <c r="D23" s="22"/>
-      <c r="E23" s="22"/>
-      <c r="F23" s="22"/>
-      <c r="G23" s="22"/>
-      <c r="H23" s="22"/>
-      <c r="I23" s="22"/>
-      <c r="J23" s="22"/>
-      <c r="K23" s="22"/>
-      <c r="L23" s="22"/>
-      <c r="M23" s="22"/>
-      <c r="N23" s="22"/>
-      <c r="O23" s="22"/>
-      <c r="P23" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q23" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="R23" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="S23" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="T23" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="U23" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="V23" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="W23" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="X23" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="Y23" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="Z23" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="AA23" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="AB23" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="AC23" s="22"/>
-      <c r="AD23" s="22"/>
-      <c r="AE23" s="23"/>
-    </row>
-    <row r="24" spans="1:31" ht="16.5" thickBot="1">
-      <c r="A24" s="10" t="s">
+      <c r="B24" s="21"/>
+      <c r="C24" s="22"/>
+      <c r="D24" s="22"/>
+      <c r="E24" s="22"/>
+      <c r="F24" s="22"/>
+      <c r="G24" s="22"/>
+      <c r="H24" s="22"/>
+      <c r="I24" s="22"/>
+      <c r="J24" s="22"/>
+      <c r="K24" s="22"/>
+      <c r="L24" s="22"/>
+      <c r="M24" s="22"/>
+      <c r="N24" s="22"/>
+      <c r="O24" s="22"/>
+      <c r="P24" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="R24" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="S24" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="T24" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="U24" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="V24" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="W24" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="X24" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y24" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z24" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA24" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="AB24" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC24" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD24" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="AE24" s="23"/>
+    </row>
+    <row r="25" spans="1:31" ht="16.5" thickBot="1">
+      <c r="A25" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B24" s="11">
-        <f>COUNTIF(B4:B23,"х")</f>
+      <c r="B25" s="11">
+        <f>COUNTIF(B4:B24,"х")</f>
         <v>6</v>
       </c>
-      <c r="C24" s="11">
-        <f t="shared" ref="C24:T24" si="0">COUNTIF(C4:C23,"х")</f>
+      <c r="C25" s="11">
+        <f t="shared" ref="C25:T25" si="0">COUNTIF(C4:C24,"х")</f>
         <v>7</v>
       </c>
-      <c r="D24" s="11">
+      <c r="D25" s="11">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="E24" s="11">
+      <c r="E25" s="11">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="F24" s="11">
+      <c r="F25" s="11">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="G24" s="11">
+      <c r="G25" s="11">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="H24" s="11">
+      <c r="H25" s="11">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="I24" s="11">
+      <c r="I25" s="11">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="J24" s="11">
+      <c r="J25" s="11">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="K24" s="11">
+      <c r="K25" s="11">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="L24" s="11">
+      <c r="L25" s="11">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="M24" s="11">
+      <c r="M25" s="11">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="N24" s="11">
+      <c r="N25" s="11">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="O24" s="11">
+      <c r="O25" s="11">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="P24" s="11">
+      <c r="P25" s="11">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="Q24" s="11">
+      <c r="Q25" s="11">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="R24" s="11">
+      <c r="R25" s="11">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="S24" s="11">
+      <c r="S25" s="11">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="T24" s="11">
+      <c r="T25" s="11">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="U24" s="12">
-        <f>COUNTIF(U4:U23,"х")</f>
+      <c r="U25" s="12">
+        <f>COUNTIF(U4:U24,"х")</f>
         <v>7</v>
       </c>
-      <c r="V24" s="12">
-        <f t="shared" ref="V24" si="1">COUNTIF(V4:V23,"х")</f>
+      <c r="V25" s="12">
+        <f t="shared" ref="V25" si="1">COUNTIF(V4:V24,"х")</f>
         <v>8</v>
       </c>
-      <c r="W24" s="12">
-        <f t="shared" ref="W24" si="2">COUNTIF(W4:W23,"х")</f>
+      <c r="W25" s="12">
+        <f t="shared" ref="W25" si="2">COUNTIF(W4:W24,"х")</f>
         <v>6</v>
       </c>
-      <c r="X24" s="12">
-        <f t="shared" ref="X24" si="3">COUNTIF(X4:X23,"х")</f>
+      <c r="X25" s="12">
+        <f t="shared" ref="X25" si="3">COUNTIF(X4:X24,"х")</f>
         <v>6</v>
       </c>
-      <c r="Y24" s="12">
-        <f t="shared" ref="Y24" si="4">COUNTIF(Y4:Y23,"х")</f>
+      <c r="Y25" s="12">
+        <f t="shared" ref="Y25" si="4">COUNTIF(Y4:Y24,"х")</f>
         <v>8</v>
       </c>
-      <c r="Z24" s="12">
-        <f t="shared" ref="Z24" si="5">COUNTIF(Z4:Z23,"х")</f>
+      <c r="Z25" s="12">
+        <f t="shared" ref="Z25" si="5">COUNTIF(Z4:Z24,"х")</f>
         <v>8</v>
       </c>
-      <c r="AA24" s="12">
-        <f t="shared" ref="AA24" si="6">COUNTIF(AA4:AA23,"х")</f>
+      <c r="AA25" s="12">
+        <f t="shared" ref="AA25" si="6">COUNTIF(AA4:AA24,"х")</f>
         <v>8</v>
       </c>
-      <c r="AB24" s="12">
-        <f t="shared" ref="AB24" si="7">COUNTIF(AB4:AB23,"х")</f>
+      <c r="AB25" s="12">
+        <f t="shared" ref="AB25" si="7">COUNTIF(AB4:AB24,"х")</f>
         <v>8</v>
       </c>
-      <c r="AC24" s="12">
-        <f t="shared" ref="AC24" si="8">COUNTIF(AC4:AC23,"х")</f>
-        <v>0</v>
-      </c>
-      <c r="AD24" s="12">
-        <f t="shared" ref="AD24" si="9">COUNTIF(AD4:AD23,"х")</f>
-        <v>0</v>
-      </c>
-      <c r="AE24" s="13">
-        <f t="shared" ref="AE24" si="10">COUNTIF(AE4:AE23,"х")</f>
+      <c r="AC25" s="12">
+        <f t="shared" ref="AC25" si="8">COUNTIF(AC4:AC24,"х")</f>
+        <v>9</v>
+      </c>
+      <c r="AD25" s="12">
+        <f t="shared" ref="AD25" si="9">COUNTIF(AD4:AD24,"х")</f>
+        <v>7</v>
+      </c>
+      <c r="AE25" s="13">
+        <f t="shared" ref="AE25" si="10">COUNTIF(AE4:AE24,"х")</f>
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A2:AE24"/>
+  <autoFilter ref="A2:AE25"/>
   <mergeCells count="1">
     <mergeCell ref="A1:AE1"/>
   </mergeCells>

--- a/Табели/!Табель не работающих АСДУ.xlsx
+++ b/Табели/!Табель не работающих АСДУ.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="5">
   <si>
     <t>х</t>
   </si>
@@ -1669,8 +1669,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AE25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AD14" sqref="AD14"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="AE5" sqref="AE5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -1895,7 +1895,9 @@
       <c r="AD4" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="AE4" s="17"/>
+      <c r="AE4" s="17" t="s">
+        <v>0</v>
+      </c>
     </row>
     <row r="5" spans="1:31">
       <c r="A5" s="14" t="s">
@@ -2136,7 +2138,9 @@
       <c r="AD9" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="AE9" s="7"/>
+      <c r="AE9" s="7" t="s">
+        <v>0</v>
+      </c>
     </row>
     <row r="10" spans="1:31">
       <c r="A10" s="9">
@@ -2316,7 +2320,9 @@
       <c r="AD13" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="AE13" s="7"/>
+      <c r="AE13" s="7" t="s">
+        <v>0</v>
+      </c>
     </row>
     <row r="14" spans="1:31">
       <c r="A14" s="9">
@@ -2363,7 +2369,9 @@
       <c r="AD14" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="AE14" s="7"/>
+      <c r="AE14" s="7" t="s">
+        <v>0</v>
+      </c>
     </row>
     <row r="15" spans="1:31">
       <c r="A15" s="9">
@@ -2594,7 +2602,9 @@
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
       <c r="AD19" s="3"/>
-      <c r="AE19" s="7"/>
+      <c r="AE19" s="7" t="s">
+        <v>0</v>
+      </c>
     </row>
     <row r="20" spans="1:31">
       <c r="A20" s="9">
@@ -2677,7 +2687,9 @@
       <c r="AD20" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="AE20" s="7"/>
+      <c r="AE20" s="7" t="s">
+        <v>0</v>
+      </c>
     </row>
     <row r="21" spans="1:31">
       <c r="A21" s="9">
@@ -2755,7 +2767,9 @@
         <v>0</v>
       </c>
       <c r="AD22" s="3"/>
-      <c r="AE22" s="7"/>
+      <c r="AE22" s="7" t="s">
+        <v>0</v>
+      </c>
     </row>
     <row r="23" spans="1:31">
       <c r="A23" s="9">
@@ -2820,7 +2834,9 @@
       <c r="AD23" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="AE23" s="7"/>
+      <c r="AE23" s="7" t="s">
+        <v>0</v>
+      </c>
     </row>
     <row r="24" spans="1:31" ht="16.5" thickBot="1">
       <c r="A24" s="20">
@@ -2885,7 +2901,9 @@
       <c r="AD24" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="AE24" s="23"/>
+      <c r="AE24" s="23" t="s">
+        <v>0</v>
+      </c>
     </row>
     <row r="25" spans="1:31" ht="16.5" thickBot="1">
       <c r="A25" s="10" t="s">
@@ -3009,7 +3027,7 @@
       </c>
       <c r="AE25" s="13">
         <f t="shared" ref="AE25" si="10">COUNTIF(AE4:AE24,"х")</f>
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
